--- a/3.Understand/EE6222-热门考点分析.xlsx
+++ b/3.Understand/EE6222-热门考点分析.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="146">
   <si>
     <t>目录</t>
   </si>
@@ -46,209 +46,489 @@
     <t>21-S1</t>
   </si>
   <si>
+    <t>2 LSI线性平移不变系统与转换</t>
+  </si>
+  <si>
+    <t>2.1 图像分解与线性平移不变图像处理系统</t>
+  </si>
+  <si>
+    <t>2.1.1.图像分解</t>
+  </si>
+  <si>
+    <t>2.1.2.脉冲</t>
+  </si>
+  <si>
+    <t>2.1.3.平移和放大缩小脉冲</t>
+  </si>
+  <si>
+    <t>2.1.4.图像分解</t>
+  </si>
+  <si>
+    <t>2.2 二维卷积及其性质</t>
+  </si>
+  <si>
+    <t>2.2.1.处理系统</t>
+  </si>
+  <si>
+    <t>2.2.2.线性处理系统</t>
+  </si>
+  <si>
+    <t>2.2.3 二维卷积</t>
+  </si>
+  <si>
+    <t>2.2.4 卷积特性</t>
+  </si>
+  <si>
+    <t>2.2.5 脉冲响应</t>
+  </si>
+  <si>
+    <t>2.3 二维傅里叶变换及其性质</t>
+  </si>
+  <si>
+    <t>2.3.1 傅里叶变换及其逆变换</t>
+  </si>
+  <si>
+    <t>2.3.2 独立可分离</t>
+  </si>
+  <si>
+    <t>2.3.3 离散傅里叶变换(DFT)</t>
+  </si>
+  <si>
+    <t>2.3.4 离散傅里叶变换(DFT) 性质</t>
+  </si>
+  <si>
+    <t>2.3.4.1可分解</t>
+  </si>
+  <si>
+    <t>2.3.4.2 周期、对称、线性、卷积</t>
+  </si>
+  <si>
+    <t>2.3.4.3 平移、旋转和平移不变变换</t>
+  </si>
+  <si>
+    <t>2.4 图像采样</t>
+  </si>
+  <si>
+    <t>2.4.1 连续采样后变为离散图像</t>
+  </si>
+  <si>
+    <t>2.4.2 采样函数</t>
+  </si>
+  <si>
+    <t>2.4.3 图像x采样</t>
+  </si>
+  <si>
+    <t>2.4.4 恢复连续图像</t>
+  </si>
+  <si>
+    <t>2.4.5 采样定理</t>
+  </si>
+  <si>
+    <t>9 视觉数据降维作为特征提取</t>
+  </si>
+  <si>
+    <t>9.1 特征提取/降维介绍</t>
+  </si>
+  <si>
+    <t>9.2 PCA，主成分分析</t>
+  </si>
+  <si>
+    <t>9.3 LDA，线性判别分析</t>
+  </si>
+  <si>
+    <t>9.4 子空间/特征空间的分类</t>
+  </si>
+  <si>
+    <t>10 神经网络与深度学习，从MLP到CNN</t>
+  </si>
+  <si>
+    <t>10.1网络结构和神经元模型</t>
+  </si>
+  <si>
+    <t>10.1.1 神经网络和深度CNN</t>
+  </si>
+  <si>
+    <t>10.1.2 神经元模型</t>
+  </si>
+  <si>
+    <t>10.1.3 激活函数</t>
+  </si>
+  <si>
+    <t>10.2多层感知器与反向传播</t>
+  </si>
+  <si>
+    <t>10.2.1 人工神经网络 ANN</t>
+  </si>
+  <si>
+    <t>10.2.1.1 多层感知器(MLP)</t>
+  </si>
+  <si>
+    <t>10.2.1.2 单层神经网络</t>
+  </si>
+  <si>
+    <t>10.2.1.3 学习曲线和决策边界</t>
+  </si>
+  <si>
+    <t>10.2.1.4 反向传播</t>
+  </si>
+  <si>
+    <t>10.2.1.5 局部极小问题</t>
+  </si>
+  <si>
+    <t>10.2.1.6 理解过拟合</t>
+  </si>
+  <si>
+    <t>10.2.1.7 神经网络的结论</t>
+  </si>
+  <si>
+    <t>10.2.2 神经网络历史</t>
+  </si>
+  <si>
+    <t>10.2.3 图像识别模块的功能</t>
+  </si>
+  <si>
+    <t>10.2.4 监督学习</t>
+  </si>
+  <si>
+    <t>10.2.5 深度学习</t>
+  </si>
+  <si>
+    <t>10.2.6 机器学习的问题</t>
+  </si>
+  <si>
+    <t>10.2.7 正则化</t>
+  </si>
+  <si>
+    <t>10.3卷积神经网络CNN</t>
+  </si>
+  <si>
+    <t>10.3.1 卷积网络CNN似乎与MLP不同</t>
+  </si>
+  <si>
+    <t>10.3.2 卷积网络CNN的特点</t>
+  </si>
+  <si>
+    <t>10.3.3 1x1卷积</t>
+  </si>
+  <si>
+    <t>10.3.4 卷积网络的优点，CNN</t>
+  </si>
+  <si>
+    <t>12 视频：生成</t>
+  </si>
+  <si>
+    <t>12.1.自动编码器</t>
+  </si>
+  <si>
     <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Helvetica"/>
-        <charset val="134"/>
-      </rPr>
-      <t>2.LSI</t>
+      <t>12.2.</t>
     </r>
     <r>
       <rPr>
         <sz val="12"/>
+        <color rgb="FF333333"/>
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>线性平移不变系统与转换</t>
+      <t>对抗学习</t>
     </r>
   </si>
   <si>
-    <t>2.1介绍</t>
-  </si>
-  <si>
-    <t>2.2傅里叶变换</t>
-  </si>
-  <si>
-    <t>2.3图像采样</t>
+    <t>12.2.1.GANs</t>
+  </si>
+  <si>
+    <t>12.2.2.Conditional GANs</t>
+  </si>
+  <si>
+    <t>12.2.3.Super Resolution GANs</t>
+  </si>
+  <si>
+    <t>12.2.4.CycleGAN</t>
+  </si>
+  <si>
+    <t>12.2.5.Diffusion Probabilistic Models</t>
+  </si>
+  <si>
+    <t>12.2.6.Video GAN</t>
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Helvetica"/>
-        <charset val="134"/>
-      </rPr>
-      <t>9.</t>
+      <t>12.2.7.StoryGAN</t>
     </r>
     <r>
       <rPr>
         <sz val="12"/>
+        <color rgb="FF333333"/>
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>视觉数据降维作为特征提取</t>
-    </r>
-  </si>
-  <si>
-    <t>9.1 特征提取/降维介绍</t>
-  </si>
-  <si>
-    <t>9.2 PCA，主成分分析</t>
-  </si>
-  <si>
-    <t>9.3 LDA，线性判别分析</t>
-  </si>
-  <si>
-    <t>9.4 子空间/特征空间的分类</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Helvetica"/>
-        <charset val="134"/>
-      </rPr>
-      <t>10.</t>
+      <t>：用于故事可视化的顺序条件</t>
     </r>
     <r>
       <rPr>
         <sz val="12"/>
-        <rFont val="宋体"/>
+        <color rgb="FF333333"/>
+        <rFont val="Helvetica"/>
         <charset val="134"/>
       </rPr>
-      <t>神经网络与深度学习，从</t>
+      <t>GAN</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>12.2.8.</t>
     </r>
     <r>
       <rPr>
         <sz val="12"/>
-        <rFont val="Helvetica"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>MLP</t>
+      <t>用于视频生成的双流</t>
     </r>
     <r>
       <rPr>
         <sz val="12"/>
-        <rFont val="宋体"/>
+        <color rgb="FF333333"/>
+        <rFont val="Helvetica"/>
         <charset val="134"/>
       </rPr>
-      <t>到</t>
+      <t>VAN</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>12.2.9.Sora</t>
     </r>
     <r>
       <rPr>
         <sz val="12"/>
-        <rFont val="Helvetica"/>
-        <charset val="134"/>
-      </rPr>
-      <t>CNN</t>
-    </r>
-  </si>
-  <si>
-    <t>10.1网络结构和神经元模型</t>
-  </si>
-  <si>
-    <t>10.2多层感知器与反向传播</t>
-  </si>
-  <si>
-    <t>10.3卷积神经网络CNN</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Helvetica"/>
-        <charset val="134"/>
-      </rPr>
-      <t>12.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
+        <color rgb="FF333333"/>
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>视频：生成</t>
+      <t>：作为世界模拟器的视频生成模型</t>
     </r>
   </si>
   <si>
-    <t>12.1.自动编码器</t>
-  </si>
-  <si>
-    <t>12.2.对抗学习</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Helvetica"/>
-        <charset val="134"/>
-      </rPr>
-      <t>13.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>视频：分析</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Helvetica"/>
-        <charset val="134"/>
-      </rPr>
-      <t>/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>增强</t>
-    </r>
+    <t>13 视频：分析/增强</t>
   </si>
   <si>
     <t>13.1.目标检测与跟踪</t>
   </si>
   <si>
+    <t>13.1.1 检测与跟踪</t>
+  </si>
+  <si>
+    <t>13.1.1.1 检测/分割 物体</t>
+  </si>
+  <si>
+    <t>13.1.1.2 关联检测</t>
+  </si>
+  <si>
+    <t>13.1.2 重新识别Re-ID</t>
+  </si>
+  <si>
+    <t>13.1.3 联合检测与嵌入（JDE）</t>
+  </si>
+  <si>
     <t>13.2.行为识别</t>
   </si>
   <si>
     <t>13.3.视频事件/异常检测</t>
   </si>
   <si>
+    <t>13.3.1 行为识别</t>
+  </si>
+  <si>
+    <t>13.3.2 长期循环卷积网络 Long-term Recurrent Convolutional Network</t>
+  </si>
+  <si>
+    <t>13.3.3 C3D: 3D卷积网络</t>
+  </si>
+  <si>
+    <t>13.3.4 隐藏二流Hidden Two Stream</t>
+  </si>
+  <si>
     <t>13.4.视频增强</t>
   </si>
   <si>
+    <t>13.4.1 模糊模型Blur model</t>
+  </si>
+  <si>
+    <t>13.4.2 模糊图像反卷积</t>
+  </si>
+  <si>
+    <t>13.4.2.1 点扩展函数Point Spread Function (PSF)</t>
+  </si>
+  <si>
+    <t>13.4.3 深度视频去模糊Deep video deblur</t>
+  </si>
+  <si>
+    <t>13.4.4 视频湍流效果消除Video Turbulence Effect Remove</t>
+  </si>
+  <si>
     <t>13.5.光流</t>
   </si>
   <si>
+    <t>13.5.1 什么是光流？</t>
+  </si>
+  <si>
+    <t>13.5.2 光流假设</t>
+  </si>
+  <si>
+    <t>13.5.2.1 空间相干性</t>
+  </si>
+  <si>
+    <t>13.5.2.2 时间的持久性</t>
+  </si>
+  <si>
+    <t>13.5.2.3 亮度常数约束</t>
+  </si>
+  <si>
+    <t>13.5.3 亮度常数方程</t>
+  </si>
+  <si>
+    <t>13.5.4 亮度常数约束</t>
+  </si>
+  <si>
     <t>13.6.视频分割</t>
   </si>
   <si>
-    <t>14.3D</t>
-  </si>
-  <si>
-    <t>14.1 3D：关键点和运动结构</t>
-  </si>
-  <si>
-    <t>14.2 3D：立体匹配及其他</t>
-  </si>
-  <si>
-    <t>14.3 3D方法</t>
-  </si>
-  <si>
-    <t>14.4 立体成像</t>
-  </si>
-  <si>
-    <t>14.5 3D遇上深度学习</t>
-  </si>
-  <si>
-    <t>14.6 GAN for 3D</t>
+    <t>13.6.1.介绍分割：像素输入，像素输出</t>
+  </si>
+  <si>
+    <t>13.6.2 Convnets进行分类</t>
+  </si>
+  <si>
+    <t>13.6.3 R-CNN</t>
+  </si>
+  <si>
+    <t>13.6.4 U-Net架构</t>
+  </si>
+  <si>
+    <t>13.6.4.1收缩阶段</t>
+  </si>
+  <si>
+    <t>13.6.4.2扩张阶段</t>
+  </si>
+  <si>
+    <t>13.6.4.3 U-Net总结</t>
+  </si>
+  <si>
+    <t>13.6.5 图像分割与视频分割</t>
+  </si>
+  <si>
+    <t>14 3D</t>
+  </si>
+  <si>
+    <t>14.1 3D方法</t>
+  </si>
+  <si>
+    <t>14.1.1.飞行时间</t>
+  </si>
+  <si>
+    <t>14.1.2.激光雷达</t>
+  </si>
+  <si>
+    <t>14.1.3.结构光</t>
+  </si>
+  <si>
+    <t>14.1.4.运动构造</t>
+  </si>
+  <si>
+    <t>14.1.4.1 介绍：从两个或多个图像重建场景几何和相机位置</t>
+  </si>
+  <si>
+    <t>14.1.4.2 像素对应：跟踪</t>
+  </si>
+  <si>
+    <t>Harris Corner</t>
+  </si>
+  <si>
+    <t>SIFT</t>
+  </si>
+  <si>
+    <t>Scale space</t>
+  </si>
+  <si>
+    <t>Descriptor</t>
+  </si>
+  <si>
+    <t>Object Detection</t>
+  </si>
+  <si>
+    <t>SuperPoint</t>
+  </si>
+  <si>
+    <t>图像鲁棒匹配策略</t>
+  </si>
+  <si>
+    <t>(a)关键点空间离群值拒绝</t>
+  </si>
+  <si>
+    <t>(b)匹配许多特征——寻找一个好的相同图</t>
+  </si>
+  <si>
+    <t>RANSAC循环</t>
+  </si>
+  <si>
+    <t>SuperGlue</t>
+  </si>
+  <si>
+    <t>LoFTR：基于变压器的无检测器局部特征匹配</t>
+  </si>
+  <si>
+    <t>关键点跟踪：Lucas-Kanade Tracker</t>
+  </si>
+  <si>
+    <t>affine cameras</t>
+  </si>
+  <si>
+    <t>14.1.4.3投影模型</t>
+  </si>
+  <si>
+    <t>运动中的仿射结构Affine structure</t>
+  </si>
+  <si>
+    <t>仿射模棱两可 Affine ambiguity</t>
+  </si>
+  <si>
+    <t>14.1.5.立体成像</t>
+  </si>
+  <si>
+    <t>14.1.5.1.3D视频原理</t>
+  </si>
+  <si>
+    <t>14.1.5.2.立体深度</t>
+  </si>
+  <si>
+    <t>14.1.5.3.立体匹配</t>
+  </si>
+  <si>
+    <t>14.2 3D遇上深度学习</t>
+  </si>
+  <si>
+    <t>14.2.1 介绍3D</t>
+  </si>
+  <si>
+    <t>14.2.2 三维CNN体积数据</t>
+  </si>
+  <si>
+    <t>14.3 GAN for 3D</t>
+  </si>
+  <si>
+    <t>14.3.1 从单个图像到体积</t>
+  </si>
+  <si>
+    <t>14.3.2 从单个图像到点云</t>
+  </si>
+  <si>
+    <t>14.3.3 从图像到形状</t>
+  </si>
+  <si>
+    <t>14.3.4 从图像到表面</t>
   </si>
 </sst>
 </file>
@@ -261,7 +541,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -274,11 +554,6 @@
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="Helvetica"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
@@ -432,11 +707,12 @@
     </font>
     <font>
       <sz val="12"/>
+      <color rgb="FF333333"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -446,6 +722,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.25"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.15"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -783,137 +1065,137 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -923,13 +1205,43 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1243,12 +1555,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:E142"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>
@@ -1275,153 +1587,708 @@
       </c>
     </row>
     <row r="2" s="2" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="10" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" s="3" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="10" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" s="3" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A4" s="5" t="s">
+    <row r="4" s="4" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A4" s="11" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" s="3" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A5" s="5" t="s">
+    <row r="5" s="4" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A5" s="11" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" s="2" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A6" s="4" t="s">
+    <row r="6" s="5" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A6" s="11" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7" s="3" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A7" s="5" t="s">
+    <row r="7" s="4" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A7" s="11" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="8" s="3" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="10" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="9" s="3" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A9" s="5" t="s">
+    <row r="9" s="4" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A9" s="11" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="10" s="3" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A10" s="5" t="s">
+    <row r="10" s="4" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A10" s="11" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="11" s="2" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A11" s="4" t="s">
+    <row r="11" s="5" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A11" s="11" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="12" s="3" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A12" s="5" t="s">
+    <row r="12" s="4" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A12" s="11" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="13" s="3" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A13" s="5" t="s">
+    <row r="13" s="4" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A13" s="11" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="14" s="3" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="10" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="15" s="2" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A15" s="4" t="s">
+    <row r="15" s="5" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A15" s="11" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="16" s="3" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A16" s="5" t="s">
+    <row r="16" s="4" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A16" s="11" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="17" s="3" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A17" s="5" t="s">
+    <row r="17" s="4" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A17" s="11" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="18" s="2" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A18" s="4" t="s">
+    <row r="18" s="5" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A18" s="11" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="19" s="3" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A19" s="5" t="s">
+    <row r="19" s="4" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A19" s="11" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="20" s="3" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A20" s="5" t="s">
+    <row r="20" s="4" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A20" s="11" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="21" s="3" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A21" s="5" t="s">
+    <row r="21" s="4" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A21" s="11" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="22" s="3" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A22" s="5" t="s">
+      <c r="A22" s="10" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="23" s="3" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A23" s="5" t="s">
+    <row r="23" s="4" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A23" s="11" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="24" s="3" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A24" s="5" t="s">
+    <row r="24" s="4" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A24" s="11" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="25" s="2" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A25" s="4" t="s">
+    <row r="25" s="5" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A25" s="11" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="26" s="3" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A26" s="5" t="s">
+    <row r="26" s="4" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A26" s="11" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="27" s="3" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A27" s="5" t="s">
+    <row r="27" s="4" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A27" s="11" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="28" s="3" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A28" s="5" t="s">
+      <c r="A28" s="10" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="29" s="3" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A29" s="5" t="s">
+    <row r="29" s="4" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A29" s="11" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="30" s="3" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A30" s="5" t="s">
+    <row r="30" s="4" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A30" s="11" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="31" s="3" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A31" s="5" t="s">
+    <row r="31" s="4" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A31" s="11" t="s">
         <v>34</v>
+      </c>
+    </row>
+    <row r="32" s="6" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A32" s="11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="33" s="7" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A33" s="10" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="34" s="8" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A34" s="12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="35" s="9" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A35" s="13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="36" s="9" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A36" s="13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="37" s="9" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A37" s="13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="38" s="8" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A38" s="12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="39" s="9" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A39" s="13" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="40" s="9" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A40" s="13" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="41" s="9" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A41" s="13" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="42" s="9" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A42" s="13" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="43" s="9" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A43" s="13" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="44" s="9" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A44" s="13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="45" s="9" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A45" s="13" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="46" s="9" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A46" s="13" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="47" s="9" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A47" s="13" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="48" s="9" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A48" s="13" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="49" s="9" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A49" s="13" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="50" s="9" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A50" s="13" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="51" s="9" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A51" s="13" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="52" s="9" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A52" s="13" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="53" s="8" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A53" s="12" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="54" s="9" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A54" s="13" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="55" s="9" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A55" s="13" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="56" s="9" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A56" s="13" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="57" s="9" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A57" s="13" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="58" s="7" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A58" s="10" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="59" s="7" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A59" s="10" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="60" s="7" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A60" s="14" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="61" s="9" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A61" s="13" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="62" s="9" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A62" s="13" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="63" s="9" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A63" s="13" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="64" s="9" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A64" s="13" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="65" s="9" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A65" s="13" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="66" s="9" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A66" s="13" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="67" s="9" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A67" s="15" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="68" s="9" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A68" s="15" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="69" s="9" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A69" s="15" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="70" s="7" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A70" s="10" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="71" s="7" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A71" s="10" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="72" s="9" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A72" s="13" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="73" s="9" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A73" s="13" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="74" s="9" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A74" s="13" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="75" s="9" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A75" s="13" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="76" s="9" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A76" s="13" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="77" s="7" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A77" s="10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="78" s="9" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A78" s="13" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="79" s="9" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A79" s="13" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="80" s="9" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A80" s="13" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="81" s="9" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A81" s="13" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="82" s="9" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A82" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="83" s="7" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A83" s="10" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="84" s="9" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A84" s="13" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="85" s="9" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A85" s="13" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="86" s="9" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A86" s="13" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="87" s="9" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A87" s="13" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="88" s="9" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A88" s="13" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="89" s="7" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A89" s="10" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="90" s="9" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A90" s="13" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="91" s="9" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A91" s="13" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="92" s="9" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A92" s="13" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="93" s="9" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A93" s="13" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="94" s="9" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A94" s="13" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="95" s="9" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A95" s="13" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="96" s="9" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A96" s="13" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="97" s="7" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A97" s="10" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="98" s="9" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A98" s="13" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="99" s="9" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A99" s="13" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="100" s="9" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A100" s="13" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="101" s="9" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A101" s="13" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="102" s="9" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A102" s="13" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="103" s="9" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A103" s="13" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="104" s="9" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A104" s="13" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="105" s="9" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A105" s="13" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="106" s="7" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A106" s="10" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="107" s="7" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A107" s="10" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="108" s="9" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A108" s="13" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="109" s="9" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A109" s="13" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="110" s="9" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A110" s="13" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="111" s="9" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A111" s="13" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="112" s="9" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A112" s="13" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="113" s="9" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A113" s="13" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="114" s="9" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A114" s="13" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="115" s="9" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A115" s="13" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="116" s="9" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A116" s="13" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="117" s="9" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A117" s="13" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="118" s="9" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A118" s="13" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="119" s="9" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A119" s="13" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="120" s="9" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A120" s="13" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="121" s="9" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A121" s="13" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="122" s="9" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A122" s="13" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="123" s="9" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A123" s="13" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="124" s="9" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A124" s="13" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="125" s="9" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A125" s="13" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="126" s="9" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A126" s="13" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="127" s="9" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A127" s="13" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="128" s="9" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A128" s="13" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="129" s="9" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A129" s="13" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="130" s="9" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A130" s="13" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="131" s="9" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A131" s="13" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="132" s="9" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A132" s="13" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="133" s="9" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A133" s="13" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="134" s="9" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A134" s="13" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="135" s="9" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A135" s="13" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="136" s="7" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A136" s="10" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="137" s="9" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A137" s="13" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="138" s="7" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A138" s="10" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="139" s="9" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A139" s="13" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="140" s="9" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A140" s="13" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="141" s="9" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A141" s="13" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="142" s="9" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A142" s="13" t="s">
+        <v>145</v>
       </c>
     </row>
   </sheetData>

--- a/3.Understand/EE6222-热门考点分析.xlsx
+++ b/3.Understand/EE6222-热门考点分析.xlsx
@@ -29,12 +29,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="148">
   <si>
     <t>目录</t>
   </si>
   <si>
-    <t>23-S2</t>
+    <t>6222-23-S2</t>
   </si>
   <si>
     <t>23-S1</t>
@@ -46,7 +46,18 @@
     <t>21-S1</t>
   </si>
   <si>
-    <t>2 LSI线性平移不变系统与转换</t>
+    <r>
+      <t>2 LSI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>线性平移不变系统与转换</t>
+    </r>
   </si>
   <si>
     <t>2.1 图像分解与线性平移不变图像处理系统</t>
@@ -82,6 +93,9 @@
     <t>2.2.5 脉冲响应</t>
   </si>
   <si>
+    <t>Q3:设计卷积</t>
+  </si>
+  <si>
     <t>2.3 二维傅里叶变换及其性质</t>
   </si>
   <si>
@@ -124,7 +138,18 @@
     <t>2.4.5 采样定理</t>
   </si>
   <si>
-    <t>9 视觉数据降维作为特征提取</t>
+    <r>
+      <t xml:space="preserve">9 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>视觉数据降维作为特征提取</t>
+    </r>
   </si>
   <si>
     <t>9.1 特征提取/降维介绍</t>
@@ -139,7 +164,45 @@
     <t>9.4 子空间/特征空间的分类</t>
   </si>
   <si>
-    <t>10 神经网络与深度学习，从MLP到CNN</t>
+    <r>
+      <t xml:space="preserve">10 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>神经网络与深度学习，从</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Helvetica"/>
+        <charset val="134"/>
+      </rPr>
+      <t>MLP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>到</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Helvetica"/>
+        <charset val="134"/>
+      </rPr>
+      <t>CNN</t>
+    </r>
   </si>
   <si>
     <t>10.1网络结构和神经元模型</t>
@@ -163,6 +226,9 @@
     <t>10.2.1.1 多层感知器(MLP)</t>
   </si>
   <si>
+    <t>Q3：输入表示输出 + 构造参数矩阵W</t>
+  </si>
+  <si>
     <t>10.2.1.2 单层神经网络</t>
   </si>
   <si>
@@ -214,7 +280,18 @@
     <t>10.3.4 卷积网络的优点，CNN</t>
   </si>
   <si>
-    <t>12 视频：生成</t>
+    <r>
+      <t xml:space="preserve">12 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>视频：生成</t>
+    </r>
   </si>
   <si>
     <t>12.1.自动编码器</t>
@@ -312,7 +389,36 @@
     </r>
   </si>
   <si>
-    <t>13 视频：分析/增强</t>
+    <r>
+      <t xml:space="preserve">13 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>视频：分析</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Helvetica"/>
+        <charset val="134"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>增强</t>
+    </r>
   </si>
   <si>
     <t>13.1.目标检测与跟踪</t>
@@ -712,7 +818,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -734,6 +840,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.15"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1071,7 +1183,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1095,16 +1207,16 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1113,89 +1225,89 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1229,16 +1341,28 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
@@ -1560,13 +1684,13 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A15" sqref="A15"/>
+      <selection pane="bottomLeft" activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="44" customWidth="1"/>
-    <col min="2" max="2" width="13.9090909090909" customWidth="1"/>
+    <col min="2" max="2" width="15.8181818181818" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:5">
@@ -1592,703 +1716,709 @@
       </c>
     </row>
     <row r="3" s="3" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="11" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="12" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="12" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="6" s="5" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="12" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="7" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="12" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="8" s="3" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="11" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="9" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="12" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="10" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="12" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="11" s="5" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="13" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="12" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="12" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="13" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A13" s="11" t="s">
+    <row r="13" s="4" customFormat="1" ht="15.5" spans="1:2">
+      <c r="A13" s="14" t="s">
         <v>16</v>
       </c>
+      <c r="B13" s="15" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="14" s="3" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A14" s="10" t="s">
-        <v>17</v>
+      <c r="A14" s="11" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="15" s="5" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A15" s="11" t="s">
-        <v>18</v>
+      <c r="A15" s="12" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="16" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A16" s="11" t="s">
-        <v>19</v>
+      <c r="A16" s="12" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="17" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A17" s="11" t="s">
-        <v>20</v>
+      <c r="A17" s="12" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="18" s="5" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A18" s="11" t="s">
-        <v>21</v>
+      <c r="A18" s="12" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="19" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A19" s="11" t="s">
-        <v>22</v>
+      <c r="A19" s="12" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="20" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A20" s="11" t="s">
-        <v>23</v>
+      <c r="A20" s="12" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="21" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A21" s="11" t="s">
-        <v>24</v>
+      <c r="A21" s="12" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="22" s="3" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A22" s="10" t="s">
-        <v>25</v>
+      <c r="A22" s="11" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="23" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A23" s="11" t="s">
-        <v>26</v>
+      <c r="A23" s="12" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="24" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A24" s="11" t="s">
-        <v>27</v>
+      <c r="A24" s="12" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="25" s="5" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A25" s="11" t="s">
-        <v>28</v>
+      <c r="A25" s="12" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="26" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A26" s="11" t="s">
-        <v>29</v>
+      <c r="A26" s="12" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="27" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A27" s="11" t="s">
-        <v>30</v>
+      <c r="A27" s="12" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="28" s="3" customFormat="1" ht="15.5" spans="1:1">
       <c r="A28" s="10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="29" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A29" s="11" t="s">
-        <v>32</v>
+      <c r="A29" s="12" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="30" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A30" s="11" t="s">
-        <v>33</v>
+      <c r="A30" s="12" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="31" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A31" s="11" t="s">
-        <v>34</v>
+      <c r="A31" s="12" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="32" s="6" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A32" s="11" t="s">
-        <v>35</v>
+      <c r="A32" s="12" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="33" s="7" customFormat="1" ht="15.5" spans="1:1">
       <c r="A33" s="10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="34" s="8" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A34" s="12" t="s">
-        <v>37</v>
+      <c r="A34" s="16" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="35" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A35" s="13" t="s">
-        <v>38</v>
+      <c r="A35" s="17" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="36" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A36" s="13" t="s">
-        <v>39</v>
+      <c r="A36" s="17" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="37" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A37" s="13" t="s">
-        <v>40</v>
+      <c r="A37" s="17" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="38" s="8" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A38" s="12" t="s">
-        <v>41</v>
+      <c r="A38" s="16" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="39" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A39" s="13" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="40" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A40" s="13" t="s">
+      <c r="A39" s="17" t="s">
         <v>43</v>
       </c>
     </row>
+    <row r="40" s="9" customFormat="1" ht="15.5" spans="1:2">
+      <c r="A40" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="B40" s="18" t="s">
+        <v>45</v>
+      </c>
+    </row>
     <row r="41" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A41" s="13" t="s">
-        <v>44</v>
+      <c r="A41" s="17" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="42" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A42" s="13" t="s">
-        <v>45</v>
+      <c r="A42" s="17" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="43" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A43" s="13" t="s">
-        <v>46</v>
+      <c r="A43" s="17" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="44" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A44" s="13" t="s">
-        <v>47</v>
+      <c r="A44" s="17" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="45" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A45" s="13" t="s">
-        <v>48</v>
+      <c r="A45" s="17" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="46" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A46" s="13" t="s">
-        <v>49</v>
+      <c r="A46" s="17" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="47" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A47" s="13" t="s">
-        <v>50</v>
+      <c r="A47" s="17" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="48" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A48" s="13" t="s">
-        <v>51</v>
+      <c r="A48" s="17" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="49" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A49" s="13" t="s">
-        <v>52</v>
+      <c r="A49" s="17" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="50" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A50" s="13" t="s">
-        <v>53</v>
+      <c r="A50" s="17" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="51" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A51" s="13" t="s">
-        <v>54</v>
+      <c r="A51" s="17" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="52" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A52" s="13" t="s">
-        <v>55</v>
+      <c r="A52" s="17" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="53" s="8" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A53" s="12" t="s">
-        <v>56</v>
+      <c r="A53" s="16" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="54" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A54" s="13" t="s">
-        <v>57</v>
+      <c r="A54" s="17" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="55" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A55" s="13" t="s">
-        <v>58</v>
+      <c r="A55" s="17" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="56" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A56" s="13" t="s">
-        <v>59</v>
+      <c r="A56" s="17" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="57" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A57" s="13" t="s">
-        <v>60</v>
+      <c r="A57" s="17" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="58" s="7" customFormat="1" ht="15.5" spans="1:1">
       <c r="A58" s="10" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="59" s="7" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A59" s="10" t="s">
-        <v>62</v>
+      <c r="A59" s="11" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="60" s="7" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A60" s="14" t="s">
-        <v>63</v>
+      <c r="A60" s="10" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="61" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A61" s="13" t="s">
-        <v>64</v>
+      <c r="A61" s="17" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="62" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A62" s="13" t="s">
-        <v>65</v>
+      <c r="A62" s="17" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="63" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A63" s="13" t="s">
-        <v>66</v>
+      <c r="A63" s="17" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="64" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A64" s="13" t="s">
-        <v>67</v>
+      <c r="A64" s="17" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="65" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A65" s="13" t="s">
-        <v>68</v>
+      <c r="A65" s="17" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="66" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A66" s="13" t="s">
-        <v>69</v>
+      <c r="A66" s="17" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="67" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A67" s="15" t="s">
-        <v>70</v>
+      <c r="A67" s="19" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="68" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A68" s="15" t="s">
-        <v>71</v>
+      <c r="A68" s="19" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="69" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A69" s="15" t="s">
-        <v>72</v>
+      <c r="A69" s="19" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="70" s="7" customFormat="1" ht="15.5" spans="1:1">
       <c r="A70" s="10" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="71" s="7" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A71" s="10" t="s">
-        <v>74</v>
+      <c r="A71" s="11" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="72" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A72" s="13" t="s">
-        <v>75</v>
+      <c r="A72" s="17" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="73" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A73" s="13" t="s">
-        <v>76</v>
+      <c r="A73" s="17" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="74" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A74" s="13" t="s">
-        <v>77</v>
+      <c r="A74" s="17" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="75" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A75" s="13" t="s">
-        <v>78</v>
+      <c r="A75" s="17" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="76" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A76" s="13" t="s">
-        <v>79</v>
+      <c r="A76" s="17" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="77" s="7" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A77" s="10" t="s">
-        <v>80</v>
+      <c r="A77" s="11" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="78" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A78" s="13" t="s">
-        <v>81</v>
+      <c r="A78" s="17" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="79" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A79" s="13" t="s">
-        <v>82</v>
+      <c r="A79" s="17" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="80" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A80" s="13" t="s">
-        <v>83</v>
+      <c r="A80" s="17" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="81" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A81" s="13" t="s">
-        <v>84</v>
+      <c r="A81" s="17" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="82" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A82" s="13" t="s">
-        <v>85</v>
+      <c r="A82" s="17" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="83" s="7" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A83" s="10" t="s">
-        <v>86</v>
+      <c r="A83" s="11" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="84" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A84" s="13" t="s">
-        <v>87</v>
+      <c r="A84" s="17" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="85" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A85" s="13" t="s">
-        <v>88</v>
+      <c r="A85" s="17" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="86" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A86" s="13" t="s">
-        <v>89</v>
+      <c r="A86" s="17" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="87" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A87" s="13" t="s">
-        <v>90</v>
+      <c r="A87" s="17" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="88" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A88" s="13" t="s">
-        <v>91</v>
+      <c r="A88" s="17" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="89" s="7" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A89" s="10" t="s">
-        <v>92</v>
+      <c r="A89" s="11" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="90" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A90" s="13" t="s">
-        <v>93</v>
+      <c r="A90" s="17" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="91" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A91" s="13" t="s">
-        <v>94</v>
+      <c r="A91" s="17" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="92" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A92" s="13" t="s">
-        <v>95</v>
+      <c r="A92" s="17" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="93" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A93" s="13" t="s">
-        <v>96</v>
+      <c r="A93" s="17" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="94" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A94" s="13" t="s">
-        <v>97</v>
+      <c r="A94" s="17" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="95" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A95" s="13" t="s">
-        <v>98</v>
+      <c r="A95" s="17" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="96" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A96" s="13" t="s">
-        <v>99</v>
+      <c r="A96" s="17" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="97" s="7" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A97" s="10" t="s">
-        <v>100</v>
+      <c r="A97" s="11" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="98" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A98" s="13" t="s">
-        <v>101</v>
+      <c r="A98" s="17" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="99" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A99" s="13" t="s">
-        <v>102</v>
+      <c r="A99" s="17" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="100" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A100" s="13" t="s">
-        <v>103</v>
+      <c r="A100" s="17" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="101" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A101" s="13" t="s">
-        <v>104</v>
+      <c r="A101" s="17" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="102" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A102" s="13" t="s">
-        <v>105</v>
+      <c r="A102" s="17" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="103" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A103" s="13" t="s">
-        <v>106</v>
+      <c r="A103" s="17" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="104" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A104" s="13" t="s">
-        <v>107</v>
+      <c r="A104" s="17" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="105" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A105" s="13" t="s">
-        <v>108</v>
+      <c r="A105" s="17" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="106" s="7" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A106" s="10" t="s">
-        <v>109</v>
+      <c r="A106" s="11" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="107" s="7" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A107" s="10" t="s">
-        <v>110</v>
+      <c r="A107" s="11" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="108" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A108" s="13" t="s">
-        <v>111</v>
+      <c r="A108" s="17" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="109" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A109" s="13" t="s">
-        <v>112</v>
+      <c r="A109" s="17" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="110" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A110" s="13" t="s">
-        <v>113</v>
+      <c r="A110" s="17" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="111" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A111" s="13" t="s">
-        <v>114</v>
+      <c r="A111" s="17" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="112" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A112" s="13" t="s">
-        <v>115</v>
+      <c r="A112" s="17" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="113" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A113" s="13" t="s">
-        <v>116</v>
+      <c r="A113" s="17" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="114" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A114" s="13" t="s">
-        <v>117</v>
+      <c r="A114" s="17" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="115" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A115" s="13" t="s">
-        <v>118</v>
+      <c r="A115" s="17" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="116" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A116" s="13" t="s">
-        <v>119</v>
+      <c r="A116" s="17" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="117" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A117" s="13" t="s">
-        <v>120</v>
+      <c r="A117" s="17" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="118" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A118" s="13" t="s">
-        <v>121</v>
+      <c r="A118" s="17" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="119" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A119" s="13" t="s">
-        <v>122</v>
+      <c r="A119" s="17" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="120" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A120" s="13" t="s">
-        <v>123</v>
+      <c r="A120" s="17" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="121" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A121" s="13" t="s">
-        <v>124</v>
+      <c r="A121" s="17" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="122" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A122" s="13" t="s">
-        <v>125</v>
+      <c r="A122" s="17" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="123" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A123" s="13" t="s">
-        <v>126</v>
+      <c r="A123" s="17" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="124" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A124" s="13" t="s">
-        <v>127</v>
+      <c r="A124" s="17" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="125" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A125" s="13" t="s">
-        <v>128</v>
+      <c r="A125" s="17" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="126" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A126" s="13" t="s">
-        <v>129</v>
+      <c r="A126" s="17" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="127" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A127" s="13" t="s">
-        <v>130</v>
+      <c r="A127" s="17" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="128" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A128" s="13" t="s">
-        <v>131</v>
+      <c r="A128" s="17" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="129" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A129" s="13" t="s">
-        <v>132</v>
+      <c r="A129" s="17" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="130" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A130" s="13" t="s">
-        <v>133</v>
+      <c r="A130" s="17" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="131" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A131" s="13" t="s">
-        <v>134</v>
+      <c r="A131" s="17" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="132" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A132" s="13" t="s">
-        <v>135</v>
+      <c r="A132" s="17" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="133" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A133" s="13" t="s">
-        <v>136</v>
+      <c r="A133" s="17" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="134" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A134" s="13" t="s">
-        <v>137</v>
+      <c r="A134" s="17" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="135" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A135" s="13" t="s">
-        <v>138</v>
+      <c r="A135" s="17" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="136" s="7" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A136" s="10" t="s">
-        <v>139</v>
+      <c r="A136" s="11" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="137" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A137" s="13" t="s">
-        <v>140</v>
+      <c r="A137" s="17" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="138" s="7" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A138" s="10" t="s">
-        <v>141</v>
+      <c r="A138" s="11" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="139" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A139" s="13" t="s">
-        <v>142</v>
+      <c r="A139" s="17" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="140" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A140" s="13" t="s">
-        <v>143</v>
+      <c r="A140" s="17" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="141" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A141" s="13" t="s">
-        <v>144</v>
+      <c r="A141" s="17" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="142" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A142" s="13" t="s">
-        <v>145</v>
+      <c r="A142" s="17" t="s">
+        <v>147</v>
       </c>
     </row>
   </sheetData>

--- a/3.Understand/EE6222-热门考点分析.xlsx
+++ b/3.Understand/EE6222-热门考点分析.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="149">
   <si>
     <t>目录</t>
   </si>
@@ -272,6 +272,9 @@
   </si>
   <si>
     <t>10.3.2 卷积网络CNN的特点</t>
+  </si>
+  <si>
+    <t>Q3：训练样本数量</t>
   </si>
   <si>
     <t>10.3.3 1x1卷积</t>
@@ -1682,9 +1685,9 @@
   <dimension ref="A1:E142"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E8" sqref="E8"/>
+      <selection pane="bottomLeft" activeCell="A55" sqref="A55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>
@@ -1981,444 +1984,447 @@
         <v>59</v>
       </c>
     </row>
-    <row r="55" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A55" s="17" t="s">
+    <row r="55" s="9" customFormat="1" ht="15.5" spans="1:2">
+      <c r="A55" s="14" t="s">
         <v>60</v>
+      </c>
+      <c r="B55" s="18" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="56" s="9" customFormat="1" ht="15.5" spans="1:1">
       <c r="A56" s="17" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="57" s="9" customFormat="1" ht="15.5" spans="1:1">
       <c r="A57" s="17" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="58" s="7" customFormat="1" ht="15.5" spans="1:1">
       <c r="A58" s="10" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="59" s="7" customFormat="1" ht="15.5" spans="1:1">
       <c r="A59" s="11" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="60" s="7" customFormat="1" ht="15.5" spans="1:1">
       <c r="A60" s="10" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="61" s="9" customFormat="1" ht="15.5" spans="1:1">
       <c r="A61" s="17" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="62" s="9" customFormat="1" ht="15.5" spans="1:1">
       <c r="A62" s="17" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="63" s="9" customFormat="1" ht="15.5" spans="1:1">
       <c r="A63" s="17" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="64" s="9" customFormat="1" ht="15.5" spans="1:1">
       <c r="A64" s="17" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="65" s="9" customFormat="1" ht="15.5" spans="1:1">
       <c r="A65" s="17" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="66" s="9" customFormat="1" ht="15.5" spans="1:1">
       <c r="A66" s="17" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="67" s="9" customFormat="1" ht="15.5" spans="1:1">
       <c r="A67" s="19" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="68" s="9" customFormat="1" ht="15.5" spans="1:1">
       <c r="A68" s="19" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="69" s="9" customFormat="1" ht="15.5" spans="1:1">
       <c r="A69" s="19" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="70" s="7" customFormat="1" ht="15.5" spans="1:1">
       <c r="A70" s="10" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="71" s="7" customFormat="1" ht="15.5" spans="1:1">
       <c r="A71" s="11" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="72" s="9" customFormat="1" ht="15.5" spans="1:1">
       <c r="A72" s="17" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="73" s="9" customFormat="1" ht="15.5" spans="1:1">
       <c r="A73" s="17" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="74" s="9" customFormat="1" ht="15.5" spans="1:1">
       <c r="A74" s="17" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="75" s="9" customFormat="1" ht="15.5" spans="1:1">
       <c r="A75" s="17" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="76" s="9" customFormat="1" ht="15.5" spans="1:1">
       <c r="A76" s="17" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="77" s="7" customFormat="1" ht="15.5" spans="1:1">
       <c r="A77" s="11" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="78" s="9" customFormat="1" ht="15.5" spans="1:1">
       <c r="A78" s="17" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="79" s="9" customFormat="1" ht="15.5" spans="1:1">
       <c r="A79" s="17" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="80" s="9" customFormat="1" ht="15.5" spans="1:1">
       <c r="A80" s="17" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="81" s="9" customFormat="1" ht="15.5" spans="1:1">
       <c r="A81" s="17" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="82" s="9" customFormat="1" ht="15.5" spans="1:1">
       <c r="A82" s="17" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="83" s="7" customFormat="1" ht="15.5" spans="1:1">
       <c r="A83" s="11" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="84" s="9" customFormat="1" ht="15.5" spans="1:1">
       <c r="A84" s="17" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="85" s="9" customFormat="1" ht="15.5" spans="1:1">
       <c r="A85" s="17" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="86" s="9" customFormat="1" ht="15.5" spans="1:1">
       <c r="A86" s="17" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="87" s="9" customFormat="1" ht="15.5" spans="1:1">
       <c r="A87" s="17" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="88" s="9" customFormat="1" ht="15.5" spans="1:1">
       <c r="A88" s="17" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="89" s="7" customFormat="1" ht="15.5" spans="1:1">
       <c r="A89" s="11" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="90" s="9" customFormat="1" ht="15.5" spans="1:1">
       <c r="A90" s="17" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="91" s="9" customFormat="1" ht="15.5" spans="1:1">
       <c r="A91" s="17" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="92" s="9" customFormat="1" ht="15.5" spans="1:1">
       <c r="A92" s="17" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="93" s="9" customFormat="1" ht="15.5" spans="1:1">
       <c r="A93" s="17" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="94" s="9" customFormat="1" ht="15.5" spans="1:1">
       <c r="A94" s="17" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="95" s="9" customFormat="1" ht="15.5" spans="1:1">
       <c r="A95" s="17" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="96" s="9" customFormat="1" ht="15.5" spans="1:1">
       <c r="A96" s="17" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="97" s="7" customFormat="1" ht="15.5" spans="1:1">
       <c r="A97" s="11" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="98" s="9" customFormat="1" ht="15.5" spans="1:1">
       <c r="A98" s="17" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="99" s="9" customFormat="1" ht="15.5" spans="1:1">
       <c r="A99" s="17" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="100" s="9" customFormat="1" ht="15.5" spans="1:1">
       <c r="A100" s="17" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="101" s="9" customFormat="1" ht="15.5" spans="1:1">
       <c r="A101" s="17" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="102" s="9" customFormat="1" ht="15.5" spans="1:1">
       <c r="A102" s="17" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="103" s="9" customFormat="1" ht="15.5" spans="1:1">
       <c r="A103" s="17" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="104" s="9" customFormat="1" ht="15.5" spans="1:1">
       <c r="A104" s="17" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="105" s="9" customFormat="1" ht="15.5" spans="1:1">
       <c r="A105" s="17" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="106" s="7" customFormat="1" ht="15.5" spans="1:1">
       <c r="A106" s="11" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="107" s="7" customFormat="1" ht="15.5" spans="1:1">
       <c r="A107" s="11" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="108" s="9" customFormat="1" ht="15.5" spans="1:1">
       <c r="A108" s="17" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="109" s="9" customFormat="1" ht="15.5" spans="1:1">
       <c r="A109" s="17" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="110" s="9" customFormat="1" ht="15.5" spans="1:1">
       <c r="A110" s="17" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="111" s="9" customFormat="1" ht="15.5" spans="1:1">
       <c r="A111" s="17" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="112" s="9" customFormat="1" ht="15.5" spans="1:1">
       <c r="A112" s="17" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="113" s="9" customFormat="1" ht="15.5" spans="1:1">
       <c r="A113" s="17" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="114" s="9" customFormat="1" ht="15.5" spans="1:1">
       <c r="A114" s="17" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="115" s="9" customFormat="1" ht="15.5" spans="1:1">
       <c r="A115" s="17" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="116" s="9" customFormat="1" ht="15.5" spans="1:1">
       <c r="A116" s="17" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="117" s="9" customFormat="1" ht="15.5" spans="1:1">
       <c r="A117" s="17" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="118" s="9" customFormat="1" ht="15.5" spans="1:1">
       <c r="A118" s="17" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="119" s="9" customFormat="1" ht="15.5" spans="1:1">
       <c r="A119" s="17" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="120" s="9" customFormat="1" ht="15.5" spans="1:1">
       <c r="A120" s="17" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="121" s="9" customFormat="1" ht="15.5" spans="1:1">
       <c r="A121" s="17" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="122" s="9" customFormat="1" ht="15.5" spans="1:1">
       <c r="A122" s="17" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="123" s="9" customFormat="1" ht="15.5" spans="1:1">
       <c r="A123" s="17" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="124" s="9" customFormat="1" ht="15.5" spans="1:1">
       <c r="A124" s="17" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="125" s="9" customFormat="1" ht="15.5" spans="1:1">
       <c r="A125" s="17" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="126" s="9" customFormat="1" ht="15.5" spans="1:1">
       <c r="A126" s="17" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="127" s="9" customFormat="1" ht="15.5" spans="1:1">
       <c r="A127" s="17" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="128" s="9" customFormat="1" ht="15.5" spans="1:1">
       <c r="A128" s="17" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="129" s="9" customFormat="1" ht="15.5" spans="1:1">
       <c r="A129" s="17" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="130" s="9" customFormat="1" ht="15.5" spans="1:1">
       <c r="A130" s="17" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="131" s="9" customFormat="1" ht="15.5" spans="1:1">
       <c r="A131" s="17" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="132" s="9" customFormat="1" ht="15.5" spans="1:1">
       <c r="A132" s="17" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="133" s="9" customFormat="1" ht="15.5" spans="1:1">
       <c r="A133" s="17" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="134" s="9" customFormat="1" ht="15.5" spans="1:1">
       <c r="A134" s="17" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="135" s="9" customFormat="1" ht="15.5" spans="1:1">
       <c r="A135" s="17" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="136" s="7" customFormat="1" ht="15.5" spans="1:1">
       <c r="A136" s="11" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="137" s="9" customFormat="1" ht="15.5" spans="1:1">
       <c r="A137" s="17" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="138" s="7" customFormat="1" ht="15.5" spans="1:1">
       <c r="A138" s="11" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="139" s="9" customFormat="1" ht="15.5" spans="1:1">
       <c r="A139" s="17" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="140" s="9" customFormat="1" ht="15.5" spans="1:1">
       <c r="A140" s="17" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="141" s="9" customFormat="1" ht="15.5" spans="1:1">
       <c r="A141" s="17" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="142" s="9" customFormat="1" ht="15.5" spans="1:1">
       <c r="A142" s="17" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
   </sheetData>

--- a/3.Understand/EE6222-热门考点分析.xlsx
+++ b/3.Understand/EE6222-热门考点分析.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="153">
   <si>
     <t>目录</t>
   </si>
@@ -226,7 +226,10 @@
     <t>10.2.1.1 多层感知器(MLP)</t>
   </si>
   <si>
-    <t>Q3：输入表示输出 + 构造参数矩阵W</t>
+    <t>Q3：输入出 + 参数矩阵W</t>
+  </si>
+  <si>
+    <t>Q3：输入出+参数数量</t>
   </si>
   <si>
     <t>10.2.1.2 单层神经网络</t>
@@ -493,7 +496,21 @@
     <t>13.5.2.2 时间的持久性</t>
   </si>
   <si>
-    <t>13.5.2.3 亮度常数约束</t>
+    <r>
+      <t xml:space="preserve">13.5.2.3 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>亮度常数</t>
+    </r>
+  </si>
+  <si>
+    <t>Q4：亮度常数</t>
   </si>
   <si>
     <t>13.5.3 亮度常数方程</t>
@@ -502,6 +519,9 @@
     <t>13.5.4 亮度常数约束</t>
   </si>
   <si>
+    <t>Q4：亮度常数约束推导</t>
+  </si>
+  <si>
     <t>13.6.视频分割</t>
   </si>
   <si>
@@ -611,6 +631,9 @@
   </si>
   <si>
     <t>14.1.5.2.立体深度</t>
+  </si>
+  <si>
+    <t>Q4：深度计算</t>
   </si>
   <si>
     <t>14.1.5.3.立体匹配</t>
@@ -821,7 +844,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="37">
+  <fills count="39">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -849,6 +872,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1186,7 +1221,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1210,16 +1245,16 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1228,89 +1263,89 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1365,10 +1400,22 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1685,15 +1732,16 @@
   <dimension ref="A1:E142"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A55" sqref="A55"/>
+      <selection pane="bottomLeft" activeCell="H88" sqref="H88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="44" customWidth="1"/>
-    <col min="2" max="2" width="15.8181818181818" customWidth="1"/>
+    <col min="2" max="2" width="23" customWidth="1"/>
+    <col min="3" max="3" width="19.5454545454545" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:5">
@@ -1906,525 +1954,540 @@
         <v>43</v>
       </c>
     </row>
-    <row r="40" s="9" customFormat="1" ht="15.5" spans="1:2">
-      <c r="A40" s="14" t="s">
+    <row r="40" s="9" customFormat="1" ht="15.5" spans="1:3">
+      <c r="A40" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="B40" s="18" t="s">
+      <c r="B40" s="19" t="s">
         <v>45</v>
+      </c>
+      <c r="C40" s="20" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="41" s="9" customFormat="1" ht="15.5" spans="1:1">
       <c r="A41" s="17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="42" s="9" customFormat="1" ht="15.5" spans="1:1">
       <c r="A42" s="17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="43" s="9" customFormat="1" ht="15.5" spans="1:1">
       <c r="A43" s="17" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="44" s="9" customFormat="1" ht="15.5" spans="1:1">
       <c r="A44" s="17" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="45" s="9" customFormat="1" ht="15.5" spans="1:1">
       <c r="A45" s="17" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="46" s="9" customFormat="1" ht="15.5" spans="1:1">
       <c r="A46" s="17" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="47" s="9" customFormat="1" ht="15.5" spans="1:1">
       <c r="A47" s="17" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="48" s="9" customFormat="1" ht="15.5" spans="1:1">
       <c r="A48" s="17" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="49" s="9" customFormat="1" ht="15.5" spans="1:1">
       <c r="A49" s="17" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="50" s="9" customFormat="1" ht="15.5" spans="1:1">
       <c r="A50" s="17" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="51" s="9" customFormat="1" ht="15.5" spans="1:1">
       <c r="A51" s="17" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="52" s="9" customFormat="1" ht="15.5" spans="1:1">
       <c r="A52" s="17" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="53" s="8" customFormat="1" ht="15.5" spans="1:1">
       <c r="A53" s="16" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="54" s="9" customFormat="1" ht="15.5" spans="1:1">
       <c r="A54" s="17" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="55" s="9" customFormat="1" ht="15.5" spans="1:2">
-      <c r="A55" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="B55" s="18" t="s">
+    </row>
+    <row r="55" s="9" customFormat="1" ht="15.5" spans="1:3">
+      <c r="A55" s="18" t="s">
         <v>61</v>
+      </c>
+      <c r="B55" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="C55" s="20" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="56" s="9" customFormat="1" ht="15.5" spans="1:1">
       <c r="A56" s="17" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="57" s="9" customFormat="1" ht="15.5" spans="1:1">
       <c r="A57" s="17" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="58" s="7" customFormat="1" ht="15.5" spans="1:1">
       <c r="A58" s="10" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="59" s="7" customFormat="1" ht="15.5" spans="1:1">
       <c r="A59" s="11" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="60" s="7" customFormat="1" ht="15.5" spans="1:1">
       <c r="A60" s="10" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="61" s="9" customFormat="1" ht="15.5" spans="1:1">
       <c r="A61" s="17" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="62" s="9" customFormat="1" ht="15.5" spans="1:1">
       <c r="A62" s="17" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="63" s="9" customFormat="1" ht="15.5" spans="1:1">
       <c r="A63" s="17" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="64" s="9" customFormat="1" ht="15.5" spans="1:1">
       <c r="A64" s="17" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="65" s="9" customFormat="1" ht="15.5" spans="1:1">
       <c r="A65" s="17" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="66" s="9" customFormat="1" ht="15.5" spans="1:1">
       <c r="A66" s="17" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="67" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A67" s="19" t="s">
-        <v>73</v>
+      <c r="A67" s="21" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="68" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A68" s="19" t="s">
-        <v>74</v>
+      <c r="A68" s="21" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="69" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A69" s="19" t="s">
-        <v>75</v>
+      <c r="A69" s="21" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="70" s="7" customFormat="1" ht="15.5" spans="1:1">
       <c r="A70" s="10" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="71" s="7" customFormat="1" ht="15.5" spans="1:1">
       <c r="A71" s="11" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="72" s="9" customFormat="1" ht="15.5" spans="1:1">
       <c r="A72" s="17" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="73" s="9" customFormat="1" ht="15.5" spans="1:1">
       <c r="A73" s="17" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="74" s="9" customFormat="1" ht="15.5" spans="1:1">
       <c r="A74" s="17" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="75" s="9" customFormat="1" ht="15.5" spans="1:1">
       <c r="A75" s="17" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="76" s="9" customFormat="1" ht="15.5" spans="1:1">
       <c r="A76" s="17" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="77" s="7" customFormat="1" ht="15.5" spans="1:1">
       <c r="A77" s="11" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="78" s="9" customFormat="1" ht="15.5" spans="1:1">
       <c r="A78" s="17" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="79" s="9" customFormat="1" ht="15.5" spans="1:1">
       <c r="A79" s="17" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="80" s="9" customFormat="1" ht="15.5" spans="1:1">
       <c r="A80" s="17" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="81" s="9" customFormat="1" ht="15.5" spans="1:1">
       <c r="A81" s="17" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="82" s="9" customFormat="1" ht="15.5" spans="1:1">
       <c r="A82" s="17" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="83" s="7" customFormat="1" ht="15.5" spans="1:1">
       <c r="A83" s="11" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="84" s="9" customFormat="1" ht="15.5" spans="1:1">
       <c r="A84" s="17" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="85" s="9" customFormat="1" ht="15.5" spans="1:1">
       <c r="A85" s="17" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="86" s="9" customFormat="1" ht="15.5" spans="1:1">
       <c r="A86" s="17" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="87" s="9" customFormat="1" ht="15.5" spans="1:1">
       <c r="A87" s="17" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="88" s="9" customFormat="1" ht="15.5" spans="1:1">
       <c r="A88" s="17" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="89" s="7" customFormat="1" ht="15.5" spans="1:1">
       <c r="A89" s="11" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="90" s="9" customFormat="1" ht="15.5" spans="1:1">
       <c r="A90" s="17" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="91" s="9" customFormat="1" ht="15.5" spans="1:1">
       <c r="A91" s="17" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="92" s="9" customFormat="1" ht="15.5" spans="1:1">
       <c r="A92" s="17" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="93" s="9" customFormat="1" ht="15.5" spans="1:1">
       <c r="A93" s="17" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="94" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A94" s="17" t="s">
         <v>100</v>
+      </c>
+    </row>
+    <row r="94" s="9" customFormat="1" ht="15.5" spans="1:3">
+      <c r="A94" s="22" t="s">
+        <v>101</v>
+      </c>
+      <c r="C94" s="23" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="95" s="9" customFormat="1" ht="15.5" spans="1:1">
       <c r="A95" s="17" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="96" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A96" s="17" t="s">
-        <v>102</v>
+        <v>103</v>
+      </c>
+    </row>
+    <row r="96" s="9" customFormat="1" ht="15.5" spans="1:3">
+      <c r="A96" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="C96" s="23" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="97" s="7" customFormat="1" ht="15.5" spans="1:1">
       <c r="A97" s="11" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
     </row>
     <row r="98" s="9" customFormat="1" ht="15.5" spans="1:1">
       <c r="A98" s="17" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
     </row>
     <row r="99" s="9" customFormat="1" ht="15.5" spans="1:1">
       <c r="A99" s="17" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
     </row>
     <row r="100" s="9" customFormat="1" ht="15.5" spans="1:1">
       <c r="A100" s="17" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
     </row>
     <row r="101" s="9" customFormat="1" ht="15.5" spans="1:1">
       <c r="A101" s="17" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
     </row>
     <row r="102" s="9" customFormat="1" ht="15.5" spans="1:1">
       <c r="A102" s="17" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
     </row>
     <row r="103" s="9" customFormat="1" ht="15.5" spans="1:1">
       <c r="A103" s="17" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
     </row>
     <row r="104" s="9" customFormat="1" ht="15.5" spans="1:1">
       <c r="A104" s="17" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
     </row>
     <row r="105" s="9" customFormat="1" ht="15.5" spans="1:1">
       <c r="A105" s="17" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
     </row>
     <row r="106" s="7" customFormat="1" ht="15.5" spans="1:1">
       <c r="A106" s="11" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
     </row>
     <row r="107" s="7" customFormat="1" ht="15.5" spans="1:1">
       <c r="A107" s="11" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
     </row>
     <row r="108" s="9" customFormat="1" ht="15.5" spans="1:1">
       <c r="A108" s="17" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
     </row>
     <row r="109" s="9" customFormat="1" ht="15.5" spans="1:1">
       <c r="A109" s="17" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
     </row>
     <row r="110" s="9" customFormat="1" ht="15.5" spans="1:1">
       <c r="A110" s="17" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
     </row>
     <row r="111" s="9" customFormat="1" ht="15.5" spans="1:1">
       <c r="A111" s="17" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
     </row>
     <row r="112" s="9" customFormat="1" ht="15.5" spans="1:1">
       <c r="A112" s="17" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
     </row>
     <row r="113" s="9" customFormat="1" ht="15.5" spans="1:1">
       <c r="A113" s="17" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
     </row>
     <row r="114" s="9" customFormat="1" ht="15.5" spans="1:1">
       <c r="A114" s="17" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
     </row>
     <row r="115" s="9" customFormat="1" ht="15.5" spans="1:1">
       <c r="A115" s="17" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
     </row>
     <row r="116" s="9" customFormat="1" ht="15.5" spans="1:1">
       <c r="A116" s="17" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
     </row>
     <row r="117" s="9" customFormat="1" ht="15.5" spans="1:1">
       <c r="A117" s="17" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
     </row>
     <row r="118" s="9" customFormat="1" ht="15.5" spans="1:1">
       <c r="A118" s="17" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
     </row>
     <row r="119" s="9" customFormat="1" ht="15.5" spans="1:1">
       <c r="A119" s="17" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
     </row>
     <row r="120" s="9" customFormat="1" ht="15.5" spans="1:1">
       <c r="A120" s="17" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
     </row>
     <row r="121" s="9" customFormat="1" ht="15.5" spans="1:1">
       <c r="A121" s="17" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
     </row>
     <row r="122" s="9" customFormat="1" ht="15.5" spans="1:1">
       <c r="A122" s="17" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
     </row>
     <row r="123" s="9" customFormat="1" ht="15.5" spans="1:1">
       <c r="A123" s="17" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
     </row>
     <row r="124" s="9" customFormat="1" ht="15.5" spans="1:1">
       <c r="A124" s="17" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
     </row>
     <row r="125" s="9" customFormat="1" ht="15.5" spans="1:1">
       <c r="A125" s="17" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
     </row>
     <row r="126" s="9" customFormat="1" ht="15.5" spans="1:1">
       <c r="A126" s="17" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
     </row>
     <row r="127" s="9" customFormat="1" ht="15.5" spans="1:1">
       <c r="A127" s="17" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
     </row>
     <row r="128" s="9" customFormat="1" ht="15.5" spans="1:1">
       <c r="A128" s="17" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
     </row>
     <row r="129" s="9" customFormat="1" ht="15.5" spans="1:1">
       <c r="A129" s="17" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
     </row>
     <row r="130" s="9" customFormat="1" ht="15.5" spans="1:1">
       <c r="A130" s="17" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
     </row>
     <row r="131" s="9" customFormat="1" ht="15.5" spans="1:1">
       <c r="A131" s="17" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
     </row>
     <row r="132" s="9" customFormat="1" ht="15.5" spans="1:1">
       <c r="A132" s="17" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="133" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A133" s="17" t="s">
-        <v>139</v>
+        <v>141</v>
+      </c>
+    </row>
+    <row r="133" s="9" customFormat="1" ht="15.5" spans="1:2">
+      <c r="A133" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="B133" s="23" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="134" s="9" customFormat="1" ht="15.5" spans="1:1">
       <c r="A134" s="17" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="135" s="9" customFormat="1" ht="15.5" spans="1:1">
       <c r="A135" s="17" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
     </row>
     <row r="136" s="7" customFormat="1" ht="15.5" spans="1:1">
       <c r="A136" s="11" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
     </row>
     <row r="137" s="9" customFormat="1" ht="15.5" spans="1:1">
       <c r="A137" s="17" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
     </row>
     <row r="138" s="7" customFormat="1" ht="15.5" spans="1:1">
       <c r="A138" s="11" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
     </row>
     <row r="139" s="9" customFormat="1" ht="15.5" spans="1:1">
       <c r="A139" s="17" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
     </row>
     <row r="140" s="9" customFormat="1" ht="15.5" spans="1:1">
       <c r="A140" s="17" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
     </row>
     <row r="141" s="9" customFormat="1" ht="15.5" spans="1:1">
       <c r="A141" s="17" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
     </row>
     <row r="142" s="9" customFormat="1" ht="15.5" spans="1:1">
       <c r="A142" s="17" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
     </row>
   </sheetData>

--- a/3.Understand/EE6222-热门考点分析.xlsx
+++ b/3.Understand/EE6222-热门考点分析.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="158">
   <si>
     <t>目录</t>
   </si>
@@ -41,9 +41,6 @@
   </si>
   <si>
     <t>22-S1</t>
-  </si>
-  <si>
-    <t>21-S1</t>
   </si>
   <si>
     <r>
@@ -87,6 +84,9 @@
     <t>2.2.3 二维卷积</t>
   </si>
   <si>
+    <t>Q1：均值和中值滤波器+区别</t>
+  </si>
+  <si>
     <t>2.2.4 卷积特性</t>
   </si>
   <si>
@@ -158,6 +158,9 @@
     <t>9.2 PCA，主成分分析</t>
   </si>
   <si>
+    <t>Q4：Σ，λ，φ，方差，正交</t>
+  </si>
+  <si>
     <t>9.3 LDA，线性判别分析</t>
   </si>
   <si>
@@ -490,6 +493,9 @@
     <t>13.5.2 光流假设</t>
   </si>
   <si>
+    <t>Q5：光流假设</t>
+  </si>
+  <si>
     <t>13.5.2.1 空间相干性</t>
   </si>
   <si>
@@ -513,13 +519,22 @@
     <t>Q4：亮度常数</t>
   </si>
   <si>
+    <t>Q5：亮度恒定约束的局限性</t>
+  </si>
+  <si>
     <t>13.5.3 亮度常数方程</t>
   </si>
   <si>
+    <t>Q5：亮度常数方程</t>
+  </si>
+  <si>
     <t>13.5.4 亮度常数约束</t>
   </si>
   <si>
     <t>Q4：亮度常数约束推导</t>
+  </si>
+  <si>
+    <t>Q5：亮度常数约束推导</t>
   </si>
   <si>
     <t>13.6.视频分割</t>
@@ -844,7 +859,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="39">
+  <fills count="40">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -884,6 +899,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1221,7 +1242,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1245,16 +1266,16 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1263,89 +1284,89 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1385,15 +1406,15 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1412,10 +1433,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1729,22 +1753,23 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E142"/>
+  <dimension ref="A1:D142"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="H88" sqref="H88"/>
+      <selection pane="bottomLeft" activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="44" customWidth="1"/>
     <col min="2" max="2" width="23" customWidth="1"/>
     <col min="3" max="3" width="19.5454545454545" customWidth="1"/>
+    <col min="4" max="4" width="30" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:5">
+    <row r="1" s="1" customFormat="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1757,57 +1782,57 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
     </row>
     <row r="2" s="2" customFormat="1" ht="15.5" spans="1:1">
       <c r="A2" s="10" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" s="3" customFormat="1" ht="15.5" spans="1:1">
       <c r="A3" s="11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A4" s="12" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A5" s="12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" s="5" customFormat="1" ht="15.5" spans="1:1">
       <c r="A6" s="12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A7" s="12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" s="3" customFormat="1" ht="15.5" spans="1:1">
       <c r="A8" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A9" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A10" s="12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" s="5" customFormat="1" ht="15.5" spans="1:4">
+      <c r="A11" s="13" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="11" s="5" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A11" s="13" t="s">
+      <c r="D11" s="14" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1817,10 +1842,10 @@
       </c>
     </row>
     <row r="13" s="4" customFormat="1" ht="15.5" spans="1:2">
-      <c r="A13" s="14" t="s">
+      <c r="A13" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="15" t="s">
+      <c r="B13" s="14" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1904,590 +1929,615 @@
         <v>33</v>
       </c>
     </row>
-    <row r="30" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A30" s="12" t="s">
+    <row r="30" s="4" customFormat="1" ht="15.5" spans="1:4">
+      <c r="A30" s="13" t="s">
         <v>34</v>
+      </c>
+      <c r="B30" s="4"/>
+      <c r="D30" s="15" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="31" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A31" s="12" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="32" s="6" customFormat="1" ht="15.5" spans="1:1">
       <c r="A32" s="12" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="33" s="7" customFormat="1" ht="15.5" spans="1:1">
       <c r="A33" s="10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="34" s="8" customFormat="1" ht="15.5" spans="1:1">
       <c r="A34" s="16" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="35" s="9" customFormat="1" ht="15.5" spans="1:1">
       <c r="A35" s="17" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="36" s="9" customFormat="1" ht="15.5" spans="1:1">
       <c r="A36" s="17" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="37" s="9" customFormat="1" ht="15.5" spans="1:1">
       <c r="A37" s="17" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="38" s="8" customFormat="1" ht="15.5" spans="1:1">
       <c r="A38" s="16" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="39" s="9" customFormat="1" ht="15.5" spans="1:1">
       <c r="A39" s="17" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="40" s="9" customFormat="1" ht="15.5" spans="1:3">
       <c r="A40" s="18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B40" s="19" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C40" s="20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="41" s="9" customFormat="1" ht="15.5" spans="1:1">
       <c r="A41" s="17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="42" s="9" customFormat="1" ht="15.5" spans="1:1">
       <c r="A42" s="17" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="43" s="9" customFormat="1" ht="15.5" spans="1:1">
       <c r="A43" s="17" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="44" s="9" customFormat="1" ht="15.5" spans="1:1">
       <c r="A44" s="17" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="45" s="9" customFormat="1" ht="15.5" spans="1:1">
       <c r="A45" s="17" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="46" s="9" customFormat="1" ht="15.5" spans="1:1">
       <c r="A46" s="17" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="47" s="9" customFormat="1" ht="15.5" spans="1:1">
       <c r="A47" s="17" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="48" s="9" customFormat="1" ht="15.5" spans="1:1">
       <c r="A48" s="17" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="49" s="9" customFormat="1" ht="15.5" spans="1:1">
       <c r="A49" s="17" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="50" s="9" customFormat="1" ht="15.5" spans="1:1">
       <c r="A50" s="17" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="51" s="9" customFormat="1" ht="15.5" spans="1:1">
       <c r="A51" s="17" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="52" s="9" customFormat="1" ht="15.5" spans="1:1">
       <c r="A52" s="17" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="53" s="8" customFormat="1" ht="15.5" spans="1:1">
       <c r="A53" s="16" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="54" s="9" customFormat="1" ht="15.5" spans="1:1">
       <c r="A54" s="17" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="55" s="9" customFormat="1" ht="15.5" spans="1:3">
       <c r="A55" s="18" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B55" s="19" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C55" s="20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="56" s="9" customFormat="1" ht="15.5" spans="1:1">
       <c r="A56" s="17" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="57" s="9" customFormat="1" ht="15.5" spans="1:1">
       <c r="A57" s="17" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="58" s="7" customFormat="1" ht="15.5" spans="1:1">
       <c r="A58" s="10" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="59" s="7" customFormat="1" ht="15.5" spans="1:1">
       <c r="A59" s="11" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="60" s="7" customFormat="1" ht="15.5" spans="1:1">
       <c r="A60" s="10" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="61" s="9" customFormat="1" ht="15.5" spans="1:1">
       <c r="A61" s="17" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="62" s="9" customFormat="1" ht="15.5" spans="1:1">
       <c r="A62" s="17" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="63" s="9" customFormat="1" ht="15.5" spans="1:1">
       <c r="A63" s="17" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="64" s="9" customFormat="1" ht="15.5" spans="1:1">
       <c r="A64" s="17" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="65" s="9" customFormat="1" ht="15.5" spans="1:1">
       <c r="A65" s="17" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="66" s="9" customFormat="1" ht="15.5" spans="1:1">
       <c r="A66" s="17" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="67" s="9" customFormat="1" ht="15.5" spans="1:1">
       <c r="A67" s="21" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="68" s="9" customFormat="1" ht="15.5" spans="1:1">
       <c r="A68" s="21" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="69" s="9" customFormat="1" ht="15.5" spans="1:1">
       <c r="A69" s="21" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="70" s="7" customFormat="1" ht="15.5" spans="1:1">
       <c r="A70" s="10" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="71" s="7" customFormat="1" ht="15.5" spans="1:1">
       <c r="A71" s="11" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="72" s="9" customFormat="1" ht="15.5" spans="1:1">
       <c r="A72" s="17" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="73" s="9" customFormat="1" ht="15.5" spans="1:1">
       <c r="A73" s="17" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="74" s="9" customFormat="1" ht="15.5" spans="1:1">
       <c r="A74" s="17" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="75" s="9" customFormat="1" ht="15.5" spans="1:1">
       <c r="A75" s="17" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="76" s="9" customFormat="1" ht="15.5" spans="1:1">
       <c r="A76" s="17" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="77" s="7" customFormat="1" ht="15.5" spans="1:1">
       <c r="A77" s="11" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="78" s="9" customFormat="1" ht="15.5" spans="1:1">
       <c r="A78" s="17" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="79" s="9" customFormat="1" ht="15.5" spans="1:1">
       <c r="A79" s="17" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="80" s="9" customFormat="1" ht="15.5" spans="1:1">
       <c r="A80" s="17" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="81" s="9" customFormat="1" ht="15.5" spans="1:1">
       <c r="A81" s="17" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="82" s="9" customFormat="1" ht="15.5" spans="1:1">
       <c r="A82" s="17" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="83" s="7" customFormat="1" ht="15.5" spans="1:1">
       <c r="A83" s="11" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="84" s="9" customFormat="1" ht="15.5" spans="1:1">
       <c r="A84" s="17" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="85" s="9" customFormat="1" ht="15.5" spans="1:1">
       <c r="A85" s="17" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="86" s="9" customFormat="1" ht="15.5" spans="1:1">
       <c r="A86" s="17" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="87" s="9" customFormat="1" ht="15.5" spans="1:1">
       <c r="A87" s="17" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="88" s="9" customFormat="1" ht="15.5" spans="1:1">
       <c r="A88" s="17" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="89" s="7" customFormat="1" ht="15.5" spans="1:1">
       <c r="A89" s="11" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="90" s="9" customFormat="1" ht="15.5" spans="1:1">
       <c r="A90" s="17" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="91" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A91" s="17" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="92" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A92" s="17" t="s">
+    <row r="91" s="9" customFormat="1" ht="15.5" spans="1:4">
+      <c r="A91" s="13" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="93" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A93" s="17" t="s">
+      <c r="D91" s="22" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="94" s="9" customFormat="1" ht="15.5" spans="1:3">
-      <c r="A94" s="22" t="s">
+    <row r="92" s="9" customFormat="1" ht="15.5" spans="1:4">
+      <c r="A92" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="C94" s="23" t="s">
+      <c r="D92" s="23" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="93" s="9" customFormat="1" ht="15.5" spans="1:4">
+      <c r="A93" s="13" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="95" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A95" s="17" t="s">
+      <c r="D93" s="23" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="94" s="9" customFormat="1" ht="15.5" spans="1:4">
+      <c r="A94" s="24" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="96" s="9" customFormat="1" ht="15.5" spans="1:3">
-      <c r="A96" s="14" t="s">
+      <c r="C94" s="19" t="s">
         <v>104</v>
       </c>
-      <c r="C96" s="23" t="s">
+      <c r="D94" s="19" t="s">
         <v>105</v>
+      </c>
+    </row>
+    <row r="95" s="9" customFormat="1" ht="15.5" spans="1:4">
+      <c r="A95" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="D95" s="22" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="96" s="9" customFormat="1" ht="15.5" spans="1:4">
+      <c r="A96" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="C96" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="D96" s="19" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="97" s="7" customFormat="1" ht="15.5" spans="1:1">
       <c r="A97" s="11" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
     </row>
     <row r="98" s="9" customFormat="1" ht="15.5" spans="1:1">
       <c r="A98" s="17" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
     </row>
     <row r="99" s="9" customFormat="1" ht="15.5" spans="1:1">
       <c r="A99" s="17" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
     </row>
     <row r="100" s="9" customFormat="1" ht="15.5" spans="1:1">
       <c r="A100" s="17" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
     </row>
     <row r="101" s="9" customFormat="1" ht="15.5" spans="1:1">
       <c r="A101" s="17" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
     </row>
     <row r="102" s="9" customFormat="1" ht="15.5" spans="1:1">
       <c r="A102" s="17" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
     </row>
     <row r="103" s="9" customFormat="1" ht="15.5" spans="1:1">
       <c r="A103" s="17" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
     </row>
     <row r="104" s="9" customFormat="1" ht="15.5" spans="1:1">
       <c r="A104" s="17" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
     </row>
     <row r="105" s="9" customFormat="1" ht="15.5" spans="1:1">
       <c r="A105" s="17" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
     </row>
     <row r="106" s="7" customFormat="1" ht="15.5" spans="1:1">
       <c r="A106" s="11" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
     </row>
     <row r="107" s="7" customFormat="1" ht="15.5" spans="1:1">
       <c r="A107" s="11" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
     </row>
     <row r="108" s="9" customFormat="1" ht="15.5" spans="1:1">
       <c r="A108" s="17" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
     </row>
     <row r="109" s="9" customFormat="1" ht="15.5" spans="1:1">
       <c r="A109" s="17" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
     </row>
     <row r="110" s="9" customFormat="1" ht="15.5" spans="1:1">
       <c r="A110" s="17" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
     </row>
     <row r="111" s="9" customFormat="1" ht="15.5" spans="1:1">
       <c r="A111" s="17" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
     </row>
     <row r="112" s="9" customFormat="1" ht="15.5" spans="1:1">
       <c r="A112" s="17" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
     </row>
     <row r="113" s="9" customFormat="1" ht="15.5" spans="1:1">
       <c r="A113" s="17" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="114" s="9" customFormat="1" ht="15.5" spans="1:1">
       <c r="A114" s="17" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
     </row>
     <row r="115" s="9" customFormat="1" ht="15.5" spans="1:1">
       <c r="A115" s="17" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
     </row>
     <row r="116" s="9" customFormat="1" ht="15.5" spans="1:1">
       <c r="A116" s="17" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
     </row>
     <row r="117" s="9" customFormat="1" ht="15.5" spans="1:1">
       <c r="A117" s="17" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
     </row>
     <row r="118" s="9" customFormat="1" ht="15.5" spans="1:1">
       <c r="A118" s="17" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
     </row>
     <row r="119" s="9" customFormat="1" ht="15.5" spans="1:1">
       <c r="A119" s="17" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
     </row>
     <row r="120" s="9" customFormat="1" ht="15.5" spans="1:1">
       <c r="A120" s="17" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
     </row>
     <row r="121" s="9" customFormat="1" ht="15.5" spans="1:1">
       <c r="A121" s="17" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
     </row>
     <row r="122" s="9" customFormat="1" ht="15.5" spans="1:1">
       <c r="A122" s="17" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
     </row>
     <row r="123" s="9" customFormat="1" ht="15.5" spans="1:1">
       <c r="A123" s="17" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
     </row>
     <row r="124" s="9" customFormat="1" ht="15.5" spans="1:1">
       <c r="A124" s="17" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
     </row>
     <row r="125" s="9" customFormat="1" ht="15.5" spans="1:1">
       <c r="A125" s="17" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
     </row>
     <row r="126" s="9" customFormat="1" ht="15.5" spans="1:1">
       <c r="A126" s="17" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
     </row>
     <row r="127" s="9" customFormat="1" ht="15.5" spans="1:1">
       <c r="A127" s="17" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="128" s="9" customFormat="1" ht="15.5" spans="1:1">
       <c r="A128" s="17" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
     </row>
     <row r="129" s="9" customFormat="1" ht="15.5" spans="1:1">
       <c r="A129" s="17" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
     </row>
     <row r="130" s="9" customFormat="1" ht="15.5" spans="1:1">
       <c r="A130" s="17" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
     </row>
     <row r="131" s="9" customFormat="1" ht="15.5" spans="1:1">
       <c r="A131" s="17" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
     </row>
     <row r="132" s="9" customFormat="1" ht="15.5" spans="1:1">
       <c r="A132" s="17" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="133" s="9" customFormat="1" ht="15.5" spans="1:2">
-      <c r="A133" s="14" t="s">
-        <v>142</v>
-      </c>
-      <c r="B133" s="23" t="s">
-        <v>143</v>
+        <v>146</v>
+      </c>
+    </row>
+    <row r="133" s="9" customFormat="1" ht="15.5" spans="1:3">
+      <c r="A133" s="18" t="s">
+        <v>147</v>
+      </c>
+      <c r="B133" s="19" t="s">
+        <v>148</v>
+      </c>
+      <c r="C133" s="19" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="134" s="9" customFormat="1" ht="15.5" spans="1:1">
       <c r="A134" s="17" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
     </row>
     <row r="135" s="9" customFormat="1" ht="15.5" spans="1:1">
       <c r="A135" s="17" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
     </row>
     <row r="136" s="7" customFormat="1" ht="15.5" spans="1:1">
       <c r="A136" s="11" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
     </row>
     <row r="137" s="9" customFormat="1" ht="15.5" spans="1:1">
       <c r="A137" s="17" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
     </row>
     <row r="138" s="7" customFormat="1" ht="15.5" spans="1:1">
       <c r="A138" s="11" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
     </row>
     <row r="139" s="9" customFormat="1" ht="15.5" spans="1:1">
       <c r="A139" s="17" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
     </row>
     <row r="140" s="9" customFormat="1" ht="15.5" spans="1:1">
       <c r="A140" s="17" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
     </row>
     <row r="141" s="9" customFormat="1" ht="15.5" spans="1:1">
       <c r="A141" s="17" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
     </row>
     <row r="142" s="9" customFormat="1" ht="15.5" spans="1:1">
       <c r="A142" s="17" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
     </row>
   </sheetData>

--- a/3.Understand/EE6222-热门考点分析.xlsx
+++ b/3.Understand/EE6222-热门考点分析.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="164">
   <si>
     <t>目录</t>
   </si>
@@ -41,6 +41,12 @@
   </si>
   <si>
     <t>22-S1</t>
+  </si>
+  <si>
+    <t>7203-23-S2</t>
+  </si>
+  <si>
+    <t>22-S2</t>
   </si>
   <si>
     <r>
@@ -159,6 +165,9 @@
   </si>
   <si>
     <t>Q4：Σ，λ，φ，方差，正交</t>
+  </si>
+  <si>
+    <t>Q2：Σ,plot,λ，φ</t>
   </si>
   <si>
     <t>9.3 LDA，线性判别分析</t>
@@ -235,6 +244,9 @@
     <t>Q3：输入出+参数数量</t>
   </si>
   <si>
+    <t>Q4:全连接，参数数量</t>
+  </si>
+  <si>
     <t>10.2.1.2 单层神经网络</t>
   </si>
   <si>
@@ -283,7 +295,13 @@
     <t>Q3：训练样本数量</t>
   </si>
   <si>
+    <t>Q4：参数数量</t>
+  </si>
+  <si>
     <t>10.3.3 1x1卷积</t>
+  </si>
+  <si>
+    <t>Q4:参数数量</t>
   </si>
   <si>
     <t>10.3.4 卷积网络的优点，CNN</t>
@@ -859,7 +877,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="40">
+  <fills count="41">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -898,7 +916,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.6"/>
+        <fgColor theme="7" tint="0.4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1242,7 +1266,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1266,16 +1290,16 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1284,89 +1308,89 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1412,34 +1436,40 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1753,23 +1783,24 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D142"/>
+  <dimension ref="A1:F142"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E1" sqref="E1"/>
+      <selection pane="bottomLeft" activeCell="I34" sqref="I34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="44" customWidth="1"/>
     <col min="2" max="2" width="23" customWidth="1"/>
     <col min="3" max="3" width="19.5454545454545" customWidth="1"/>
     <col min="4" max="4" width="30" customWidth="1"/>
+    <col min="5" max="5" width="19.0909090909091" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:4">
+    <row r="1" s="1" customFormat="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1782,762 +1813,780 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="2" s="2" customFormat="1" ht="15.5" spans="1:1">
       <c r="A2" s="10" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" s="3" customFormat="1" ht="15.5" spans="1:1">
       <c r="A3" s="11" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A4" s="12" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A5" s="12" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" s="5" customFormat="1" ht="15.5" spans="1:1">
       <c r="A6" s="12" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A7" s="12" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" s="3" customFormat="1" ht="15.5" spans="1:1">
       <c r="A8" s="11" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A9" s="12" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A10" s="12" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" s="5" customFormat="1" ht="15.5" spans="1:4">
       <c r="A11" s="13" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A12" s="12" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" s="4" customFormat="1" ht="15.5" spans="1:2">
       <c r="A13" s="13" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" s="3" customFormat="1" ht="15.5" spans="1:1">
       <c r="A14" s="11" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" s="5" customFormat="1" ht="15.5" spans="1:1">
       <c r="A15" s="12" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A16" s="12" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A17" s="12" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18" s="5" customFormat="1" ht="15.5" spans="1:1">
       <c r="A18" s="12" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="19" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A19" s="12" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A20" s="12" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="21" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A21" s="12" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="22" s="3" customFormat="1" ht="15.5" spans="1:1">
       <c r="A22" s="11" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="23" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A23" s="12" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="24" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A24" s="12" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25" s="5" customFormat="1" ht="15.5" spans="1:1">
       <c r="A25" s="12" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="26" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A26" s="12" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="27" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A27" s="12" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="28" s="3" customFormat="1" ht="15.5" spans="1:1">
       <c r="A28" s="10" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="29" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A29" s="12" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="30" s="4" customFormat="1" ht="15.5" spans="1:4">
-      <c r="A30" s="13" t="s">
-        <v>34</v>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="30" s="4" customFormat="1" ht="15.5" spans="1:5">
+      <c r="A30" s="15" t="s">
+        <v>36</v>
       </c>
       <c r="B30" s="4"/>
-      <c r="D30" s="15" t="s">
-        <v>35</v>
+      <c r="D30" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="E30" s="16" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="31" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A31" s="12" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="32" s="6" customFormat="1" ht="15.5" spans="1:1">
       <c r="A32" s="12" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="33" s="7" customFormat="1" ht="15.5" spans="1:1">
       <c r="A33" s="10" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="34" s="8" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A34" s="16" t="s">
-        <v>39</v>
+      <c r="A34" s="17" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="35" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A35" s="17" t="s">
-        <v>40</v>
+      <c r="A35" s="18" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="36" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A36" s="17" t="s">
-        <v>41</v>
+      <c r="A36" s="18" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="37" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A37" s="17" t="s">
-        <v>42</v>
+      <c r="A37" s="18" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="38" s="8" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A38" s="16" t="s">
-        <v>43</v>
+      <c r="A38" s="17" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="39" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A39" s="17" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="40" s="9" customFormat="1" ht="15.5" spans="1:3">
-      <c r="A40" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="B40" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="C40" s="20" t="s">
+      <c r="A39" s="18" t="s">
         <v>47</v>
       </c>
     </row>
+    <row r="40" s="9" customFormat="1" ht="15.5" spans="1:5">
+      <c r="A40" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="B40" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C40" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="E40" s="20" t="s">
+        <v>51</v>
+      </c>
+    </row>
     <row r="41" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A41" s="17" t="s">
-        <v>48</v>
+      <c r="A41" s="18" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="42" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A42" s="17" t="s">
-        <v>49</v>
+      <c r="A42" s="18" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="43" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A43" s="17" t="s">
+      <c r="A43" s="18" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="44" s="9" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A44" s="18" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="45" s="9" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A45" s="18" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="46" s="9" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A46" s="18" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="47" s="9" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A47" s="18" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="48" s="9" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A48" s="18" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="49" s="9" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A49" s="18" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="50" s="9" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A50" s="18" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="51" s="9" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A51" s="18" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="52" s="9" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A52" s="18" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="53" s="8" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A53" s="17" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="54" s="9" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A54" s="18" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="55" s="9" customFormat="1" ht="15.5" spans="1:5">
+      <c r="A55" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="B55" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="C55" s="21" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="44" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A44" s="17" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="45" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A45" s="17" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="46" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A46" s="17" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="47" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A47" s="17" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="48" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A48" s="17" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="49" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A49" s="17" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="50" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A50" s="17" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="51" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A51" s="17" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="52" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A52" s="17" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="53" s="8" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A53" s="16" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="54" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A54" s="17" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="55" s="9" customFormat="1" ht="15.5" spans="1:3">
-      <c r="A55" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="B55" s="19" t="s">
-        <v>63</v>
-      </c>
-      <c r="C55" s="20" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="56" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A56" s="17" t="s">
-        <v>64</v>
+      <c r="E55" s="21" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="56" s="9" customFormat="1" ht="15.5" spans="1:5">
+      <c r="A56" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="E56" s="22" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="57" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A57" s="17" t="s">
-        <v>65</v>
+      <c r="A57" s="18" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="58" s="7" customFormat="1" ht="15.5" spans="1:1">
       <c r="A58" s="10" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
     </row>
     <row r="59" s="7" customFormat="1" ht="15.5" spans="1:1">
       <c r="A59" s="11" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
     </row>
     <row r="60" s="7" customFormat="1" ht="15.5" spans="1:1">
       <c r="A60" s="10" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
     </row>
     <row r="61" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A61" s="17" t="s">
-        <v>69</v>
+      <c r="A61" s="18" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="62" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A62" s="17" t="s">
-        <v>70</v>
+      <c r="A62" s="18" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="63" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A63" s="17" t="s">
-        <v>71</v>
+      <c r="A63" s="18" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="64" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A64" s="17" t="s">
-        <v>72</v>
+      <c r="A64" s="18" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="65" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A65" s="17" t="s">
-        <v>73</v>
+      <c r="A65" s="18" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="66" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A66" s="17" t="s">
-        <v>74</v>
+      <c r="A66" s="18" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="67" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A67" s="21" t="s">
-        <v>75</v>
+      <c r="A67" s="23" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="68" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A68" s="21" t="s">
-        <v>76</v>
+      <c r="A68" s="23" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="69" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A69" s="21" t="s">
-        <v>77</v>
+      <c r="A69" s="23" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="70" s="7" customFormat="1" ht="15.5" spans="1:1">
       <c r="A70" s="10" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
     </row>
     <row r="71" s="7" customFormat="1" ht="15.5" spans="1:1">
       <c r="A71" s="11" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
     </row>
     <row r="72" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A72" s="17" t="s">
-        <v>80</v>
+      <c r="A72" s="18" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="73" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A73" s="17" t="s">
-        <v>81</v>
+      <c r="A73" s="18" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="74" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A74" s="17" t="s">
-        <v>82</v>
+      <c r="A74" s="18" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="75" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A75" s="17" t="s">
-        <v>83</v>
+      <c r="A75" s="18" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="76" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A76" s="17" t="s">
-        <v>84</v>
+      <c r="A76" s="18" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="77" s="7" customFormat="1" ht="15.5" spans="1:1">
       <c r="A77" s="11" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
     </row>
     <row r="78" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A78" s="17" t="s">
-        <v>86</v>
+      <c r="A78" s="18" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="79" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A79" s="17" t="s">
-        <v>87</v>
+      <c r="A79" s="18" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="80" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A80" s="17" t="s">
-        <v>88</v>
+      <c r="A80" s="18" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="81" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A81" s="17" t="s">
-        <v>89</v>
+      <c r="A81" s="18" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="82" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A82" s="17" t="s">
-        <v>90</v>
+      <c r="A82" s="18" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="83" s="7" customFormat="1" ht="15.5" spans="1:1">
       <c r="A83" s="11" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
     </row>
     <row r="84" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A84" s="17" t="s">
-        <v>92</v>
+      <c r="A84" s="18" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="85" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A85" s="17" t="s">
-        <v>93</v>
+      <c r="A85" s="18" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="86" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A86" s="17" t="s">
-        <v>94</v>
+      <c r="A86" s="18" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="87" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A87" s="17" t="s">
-        <v>95</v>
+      <c r="A87" s="18" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="88" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A88" s="17" t="s">
-        <v>96</v>
+      <c r="A88" s="18" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="89" s="7" customFormat="1" ht="15.5" spans="1:1">
       <c r="A89" s="11" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
     </row>
     <row r="90" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A90" s="17" t="s">
-        <v>98</v>
+      <c r="A90" s="18" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="91" s="9" customFormat="1" ht="15.5" spans="1:4">
       <c r="A91" s="13" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="D91" s="22" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
     </row>
     <row r="92" s="9" customFormat="1" ht="15.5" spans="1:4">
       <c r="A92" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="D92" s="23" t="s">
-        <v>100</v>
+        <v>107</v>
+      </c>
+      <c r="D92" s="24" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="93" s="9" customFormat="1" ht="15.5" spans="1:4">
       <c r="A93" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="D93" s="23" t="s">
-        <v>100</v>
+        <v>108</v>
+      </c>
+      <c r="D93" s="24" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="94" s="9" customFormat="1" ht="15.5" spans="1:4">
-      <c r="A94" s="24" t="s">
-        <v>103</v>
-      </c>
-      <c r="C94" s="19" t="s">
-        <v>104</v>
-      </c>
-      <c r="D94" s="19" t="s">
-        <v>105</v>
+      <c r="A94" s="25" t="s">
+        <v>109</v>
+      </c>
+      <c r="C94" s="26" t="s">
+        <v>110</v>
+      </c>
+      <c r="D94" s="26" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="95" s="9" customFormat="1" ht="15.5" spans="1:4">
       <c r="A95" s="13" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="D95" s="22" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
     </row>
     <row r="96" s="9" customFormat="1" ht="15.5" spans="1:4">
-      <c r="A96" s="18" t="s">
-        <v>108</v>
-      </c>
-      <c r="C96" s="19" t="s">
-        <v>109</v>
-      </c>
-      <c r="D96" s="19" t="s">
-        <v>110</v>
+      <c r="A96" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="C96" s="26" t="s">
+        <v>115</v>
+      </c>
+      <c r="D96" s="26" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="97" s="7" customFormat="1" ht="15.5" spans="1:1">
       <c r="A97" s="11" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
     </row>
     <row r="98" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A98" s="17" t="s">
-        <v>112</v>
+      <c r="A98" s="18" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="99" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A99" s="17" t="s">
-        <v>113</v>
+      <c r="A99" s="18" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="100" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A100" s="17" t="s">
-        <v>114</v>
+      <c r="A100" s="18" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="101" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A101" s="17" t="s">
-        <v>115</v>
+      <c r="A101" s="18" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="102" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A102" s="17" t="s">
-        <v>116</v>
+      <c r="A102" s="18" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="103" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A103" s="17" t="s">
-        <v>117</v>
+      <c r="A103" s="18" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="104" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A104" s="17" t="s">
-        <v>118</v>
+      <c r="A104" s="18" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="105" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A105" s="17" t="s">
-        <v>119</v>
+      <c r="A105" s="18" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="106" s="7" customFormat="1" ht="15.5" spans="1:1">
       <c r="A106" s="11" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
     </row>
     <row r="107" s="7" customFormat="1" ht="15.5" spans="1:1">
       <c r="A107" s="11" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
     </row>
     <row r="108" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A108" s="17" t="s">
-        <v>122</v>
+      <c r="A108" s="18" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="109" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A109" s="17" t="s">
-        <v>123</v>
+      <c r="A109" s="18" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="110" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A110" s="17" t="s">
-        <v>124</v>
+      <c r="A110" s="18" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="111" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A111" s="17" t="s">
-        <v>125</v>
+      <c r="A111" s="18" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="112" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A112" s="17" t="s">
-        <v>126</v>
+      <c r="A112" s="18" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="113" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A113" s="17" t="s">
-        <v>127</v>
+      <c r="A113" s="18" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="114" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A114" s="17" t="s">
-        <v>128</v>
+      <c r="A114" s="18" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="115" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A115" s="17" t="s">
-        <v>129</v>
+      <c r="A115" s="18" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="116" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A116" s="17" t="s">
-        <v>130</v>
+      <c r="A116" s="18" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="117" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A117" s="17" t="s">
-        <v>131</v>
+      <c r="A117" s="18" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="118" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A118" s="17" t="s">
-        <v>132</v>
+      <c r="A118" s="18" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="119" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A119" s="17" t="s">
-        <v>133</v>
+      <c r="A119" s="18" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="120" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A120" s="17" t="s">
-        <v>134</v>
+      <c r="A120" s="18" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="121" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A121" s="17" t="s">
-        <v>135</v>
+      <c r="A121" s="18" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="122" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A122" s="17" t="s">
-        <v>136</v>
+      <c r="A122" s="18" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="123" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A123" s="17" t="s">
-        <v>137</v>
+      <c r="A123" s="18" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="124" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A124" s="17" t="s">
-        <v>138</v>
+      <c r="A124" s="18" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="125" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A125" s="17" t="s">
-        <v>139</v>
+      <c r="A125" s="18" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="126" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A126" s="17" t="s">
-        <v>140</v>
+      <c r="A126" s="18" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="127" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A127" s="17" t="s">
-        <v>141</v>
+      <c r="A127" s="18" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="128" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A128" s="17" t="s">
-        <v>142</v>
+      <c r="A128" s="18" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="129" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A129" s="17" t="s">
-        <v>143</v>
+      <c r="A129" s="18" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="130" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A130" s="17" t="s">
-        <v>144</v>
+      <c r="A130" s="18" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="131" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A131" s="17" t="s">
-        <v>145</v>
+      <c r="A131" s="18" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="132" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A132" s="17" t="s">
-        <v>146</v>
+      <c r="A132" s="18" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="133" s="9" customFormat="1" ht="15.5" spans="1:3">
-      <c r="A133" s="18" t="s">
-        <v>147</v>
-      </c>
-      <c r="B133" s="19" t="s">
-        <v>148</v>
-      </c>
-      <c r="C133" s="19" t="s">
-        <v>148</v>
+      <c r="A133" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="B133" s="26" t="s">
+        <v>154</v>
+      </c>
+      <c r="C133" s="26" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="134" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A134" s="17" t="s">
-        <v>149</v>
+      <c r="A134" s="18" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="135" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A135" s="17" t="s">
-        <v>150</v>
+      <c r="A135" s="18" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="136" s="7" customFormat="1" ht="15.5" spans="1:1">
       <c r="A136" s="11" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
     </row>
     <row r="137" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A137" s="17" t="s">
-        <v>152</v>
+      <c r="A137" s="18" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="138" s="7" customFormat="1" ht="15.5" spans="1:1">
       <c r="A138" s="11" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
     </row>
     <row r="139" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A139" s="17" t="s">
-        <v>154</v>
+      <c r="A139" s="18" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="140" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A140" s="17" t="s">
-        <v>155</v>
+      <c r="A140" s="18" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="141" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A141" s="17" t="s">
-        <v>156</v>
+      <c r="A141" s="18" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="142" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A142" s="17" t="s">
-        <v>157</v>
+      <c r="A142" s="18" t="s">
+        <v>163</v>
       </c>
     </row>
   </sheetData>

--- a/3.Understand/EE6222-热门考点分析.xlsx
+++ b/3.Understand/EE6222-热门考点分析.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="168">
   <si>
     <t>目录</t>
   </si>
@@ -47,6 +47,9 @@
   </si>
   <si>
     <t>22-S2</t>
+  </si>
+  <si>
+    <t>21-S2</t>
   </si>
   <si>
     <r>
@@ -168,6 +171,9 @@
   </si>
   <si>
     <t>Q2：Σ,plot,λ，φ</t>
+  </si>
+  <si>
+    <t>Q3：投影，λ，重构误差</t>
   </si>
   <si>
     <t>9.3 LDA，线性判别分析</t>
@@ -298,6 +304,9 @@
     <t>Q4：参数数量</t>
   </si>
   <si>
+    <t>Q4：表达式，参数数量</t>
+  </si>
+  <si>
     <t>10.3.3 1x1卷积</t>
   </si>
   <si>
@@ -305,6 +314,9 @@
   </si>
   <si>
     <t>10.3.4 卷积网络的优点，CNN</t>
+  </si>
+  <si>
+    <t>Q4：全链接和CNN不同</t>
   </si>
   <si>
     <r>
@@ -877,7 +889,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="41">
+  <fills count="42">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -910,25 +922,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="-0.25"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="-0.25"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1266,7 +1284,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1290,16 +1308,16 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1308,89 +1326,89 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1466,10 +1484,13 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1783,24 +1804,26 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F142"/>
+  <dimension ref="A1:G142"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="I34" sqref="I34"/>
+      <selection pane="bottomLeft" activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="44" customWidth="1"/>
     <col min="2" max="2" width="23" customWidth="1"/>
     <col min="3" max="3" width="19.5454545454545" customWidth="1"/>
     <col min="4" max="4" width="30" customWidth="1"/>
     <col min="5" max="5" width="19.0909090909091" customWidth="1"/>
+    <col min="6" max="6" width="22.6363636363636" customWidth="1"/>
+    <col min="7" max="7" width="11.9090909090909" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:6">
+    <row r="1" s="1" customFormat="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1819,774 +1842,789 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2" s="2" customFormat="1" ht="15.5" spans="1:1">
       <c r="A2" s="10" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" s="3" customFormat="1" ht="15.5" spans="1:1">
       <c r="A3" s="11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A4" s="12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A5" s="12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" s="5" customFormat="1" ht="15.5" spans="1:1">
       <c r="A6" s="12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A7" s="12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" s="3" customFormat="1" ht="15.5" spans="1:1">
       <c r="A8" s="11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A9" s="12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A10" s="12" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" s="5" customFormat="1" ht="15.5" spans="1:4">
       <c r="A11" s="13" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A12" s="12" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" s="4" customFormat="1" ht="15.5" spans="1:2">
       <c r="A13" s="13" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" s="3" customFormat="1" ht="15.5" spans="1:1">
       <c r="A14" s="11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" s="5" customFormat="1" ht="15.5" spans="1:1">
       <c r="A15" s="12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A16" s="12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A17" s="12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18" s="5" customFormat="1" ht="15.5" spans="1:1">
       <c r="A18" s="12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A19" s="12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="20" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A20" s="12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="21" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A21" s="12" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="22" s="3" customFormat="1" ht="15.5" spans="1:1">
       <c r="A22" s="11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="23" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A23" s="12" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="24" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A24" s="12" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="25" s="5" customFormat="1" ht="15.5" spans="1:1">
       <c r="A25" s="12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="26" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A26" s="12" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="27" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A27" s="12" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="28" s="3" customFormat="1" ht="15.5" spans="1:1">
       <c r="A28" s="10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="29" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A29" s="12" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="30" s="4" customFormat="1" ht="15.5" spans="1:5">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="30" s="4" customFormat="1" ht="15.5" spans="1:6">
       <c r="A30" s="15" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B30" s="4"/>
       <c r="D30" s="16" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>38</v>
+        <v>39</v>
+      </c>
+      <c r="F30" s="16" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="31" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A31" s="12" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="32" s="6" customFormat="1" ht="15.5" spans="1:1">
       <c r="A32" s="12" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="33" s="7" customFormat="1" ht="15.5" spans="1:1">
       <c r="A33" s="10" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="34" s="8" customFormat="1" ht="15.5" spans="1:1">
       <c r="A34" s="17" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="35" s="9" customFormat="1" ht="15.5" spans="1:1">
       <c r="A35" s="18" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="36" s="9" customFormat="1" ht="15.5" spans="1:1">
       <c r="A36" s="18" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="37" s="9" customFormat="1" ht="15.5" spans="1:1">
       <c r="A37" s="18" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="38" s="8" customFormat="1" ht="15.5" spans="1:1">
       <c r="A38" s="17" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="39" s="9" customFormat="1" ht="15.5" spans="1:1">
       <c r="A39" s="18" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="40" s="9" customFormat="1" ht="15.5" spans="1:5">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="40" s="9" customFormat="1" ht="15.5" spans="1:6">
       <c r="A40" s="19" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B40" s="20" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C40" s="21" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E40" s="20" t="s">
-        <v>51</v>
+        <v>53</v>
+      </c>
+      <c r="F40" s="20" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="41" s="9" customFormat="1" ht="15.5" spans="1:1">
       <c r="A41" s="18" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="42" s="9" customFormat="1" ht="15.5" spans="1:1">
       <c r="A42" s="18" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="43" s="9" customFormat="1" ht="15.5" spans="1:1">
       <c r="A43" s="18" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="44" s="9" customFormat="1" ht="15.5" spans="1:1">
       <c r="A44" s="18" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="45" s="9" customFormat="1" ht="15.5" spans="1:1">
       <c r="A45" s="18" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="46" s="9" customFormat="1" ht="15.5" spans="1:1">
       <c r="A46" s="18" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="47" s="9" customFormat="1" ht="15.5" spans="1:1">
       <c r="A47" s="18" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="48" s="9" customFormat="1" ht="15.5" spans="1:1">
       <c r="A48" s="18" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="49" s="9" customFormat="1" ht="15.5" spans="1:1">
       <c r="A49" s="18" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="50" s="9" customFormat="1" ht="15.5" spans="1:1">
       <c r="A50" s="18" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="51" s="9" customFormat="1" ht="15.5" spans="1:1">
       <c r="A51" s="18" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="52" s="9" customFormat="1" ht="15.5" spans="1:1">
       <c r="A52" s="18" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="53" s="8" customFormat="1" ht="15.5" spans="1:1">
       <c r="A53" s="17" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="54" s="9" customFormat="1" ht="15.5" spans="1:1">
       <c r="A54" s="18" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="55" s="9" customFormat="1" ht="15.5" spans="1:5">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="55" s="9" customFormat="1" ht="15.5" spans="1:6">
       <c r="A55" s="19" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B55" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="C55" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="E55" s="21" t="s">
-        <v>68</v>
+        <v>69</v>
+      </c>
+      <c r="C55" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="E55" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="F55" s="20" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="56" s="9" customFormat="1" ht="15.5" spans="1:5">
       <c r="A56" s="13" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="E56" s="22" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="57" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A57" s="18" t="s">
-        <v>71</v>
+        <v>73</v>
+      </c>
+    </row>
+    <row r="57" s="9" customFormat="1" ht="15.5" spans="1:6">
+      <c r="A57" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="F57" s="22" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="58" s="7" customFormat="1" ht="15.5" spans="1:1">
       <c r="A58" s="10" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
     </row>
     <row r="59" s="7" customFormat="1" ht="15.5" spans="1:1">
       <c r="A59" s="11" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
     </row>
     <row r="60" s="7" customFormat="1" ht="15.5" spans="1:1">
       <c r="A60" s="10" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="61" s="9" customFormat="1" ht="15.5" spans="1:1">
       <c r="A61" s="18" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
     </row>
     <row r="62" s="9" customFormat="1" ht="15.5" spans="1:1">
       <c r="A62" s="18" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
     </row>
     <row r="63" s="9" customFormat="1" ht="15.5" spans="1:1">
       <c r="A63" s="18" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
     </row>
     <row r="64" s="9" customFormat="1" ht="15.5" spans="1:1">
       <c r="A64" s="18" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
     </row>
     <row r="65" s="9" customFormat="1" ht="15.5" spans="1:1">
       <c r="A65" s="18" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
     </row>
     <row r="66" s="9" customFormat="1" ht="15.5" spans="1:1">
       <c r="A66" s="18" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
     </row>
     <row r="67" s="9" customFormat="1" ht="15.5" spans="1:1">
       <c r="A67" s="23" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
     </row>
     <row r="68" s="9" customFormat="1" ht="15.5" spans="1:1">
       <c r="A68" s="23" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
     </row>
     <row r="69" s="9" customFormat="1" ht="15.5" spans="1:1">
       <c r="A69" s="23" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
     </row>
     <row r="70" s="7" customFormat="1" ht="15.5" spans="1:1">
       <c r="A70" s="10" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
     </row>
     <row r="71" s="7" customFormat="1" ht="15.5" spans="1:1">
       <c r="A71" s="11" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="72" s="9" customFormat="1" ht="15.5" spans="1:1">
       <c r="A72" s="18" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="73" s="9" customFormat="1" ht="15.5" spans="1:1">
       <c r="A73" s="18" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
     </row>
     <row r="74" s="9" customFormat="1" ht="15.5" spans="1:1">
       <c r="A74" s="18" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
     </row>
     <row r="75" s="9" customFormat="1" ht="15.5" spans="1:1">
       <c r="A75" s="18" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
     </row>
     <row r="76" s="9" customFormat="1" ht="15.5" spans="1:1">
       <c r="A76" s="18" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="77" s="7" customFormat="1" ht="15.5" spans="1:1">
       <c r="A77" s="11" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
     </row>
     <row r="78" s="9" customFormat="1" ht="15.5" spans="1:1">
       <c r="A78" s="18" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row r="79" s="9" customFormat="1" ht="15.5" spans="1:1">
       <c r="A79" s="18" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
     </row>
     <row r="80" s="9" customFormat="1" ht="15.5" spans="1:1">
       <c r="A80" s="18" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="81" s="9" customFormat="1" ht="15.5" spans="1:1">
       <c r="A81" s="18" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
     </row>
     <row r="82" s="9" customFormat="1" ht="15.5" spans="1:1">
       <c r="A82" s="18" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="83" s="7" customFormat="1" ht="15.5" spans="1:1">
       <c r="A83" s="11" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
     </row>
     <row r="84" s="9" customFormat="1" ht="15.5" spans="1:1">
       <c r="A84" s="18" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
     <row r="85" s="9" customFormat="1" ht="15.5" spans="1:1">
       <c r="A85" s="18" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
     </row>
     <row r="86" s="9" customFormat="1" ht="15.5" spans="1:1">
       <c r="A86" s="18" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="87" s="9" customFormat="1" ht="15.5" spans="1:1">
       <c r="A87" s="18" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
     <row r="88" s="9" customFormat="1" ht="15.5" spans="1:1">
       <c r="A88" s="18" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
     </row>
     <row r="89" s="7" customFormat="1" ht="15.5" spans="1:1">
       <c r="A89" s="11" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
     </row>
     <row r="90" s="9" customFormat="1" ht="15.5" spans="1:1">
       <c r="A90" s="18" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="91" s="9" customFormat="1" ht="15.5" spans="1:4">
       <c r="A91" s="13" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="D91" s="22" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="92" s="9" customFormat="1" ht="15.5" spans="1:4">
       <c r="A92" s="13" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="D92" s="24" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="93" s="9" customFormat="1" ht="15.5" spans="1:4">
       <c r="A93" s="13" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="D93" s="24" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="94" s="9" customFormat="1" ht="15.5" spans="1:4">
       <c r="A94" s="25" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="C94" s="26" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="D94" s="26" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="95" s="9" customFormat="1" ht="15.5" spans="1:4">
       <c r="A95" s="13" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="D95" s="22" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
     </row>
     <row r="96" s="9" customFormat="1" ht="15.5" spans="1:4">
-      <c r="A96" s="15" t="s">
-        <v>114</v>
+      <c r="A96" s="27" t="s">
+        <v>118</v>
       </c>
       <c r="C96" s="26" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="D96" s="26" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
     </row>
     <row r="97" s="7" customFormat="1" ht="15.5" spans="1:1">
       <c r="A97" s="11" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
     </row>
     <row r="98" s="9" customFormat="1" ht="15.5" spans="1:1">
       <c r="A98" s="18" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
     </row>
     <row r="99" s="9" customFormat="1" ht="15.5" spans="1:1">
       <c r="A99" s="18" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
     </row>
     <row r="100" s="9" customFormat="1" ht="15.5" spans="1:1">
       <c r="A100" s="18" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
     </row>
     <row r="101" s="9" customFormat="1" ht="15.5" spans="1:1">
       <c r="A101" s="18" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
     </row>
     <row r="102" s="9" customFormat="1" ht="15.5" spans="1:1">
       <c r="A102" s="18" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
     </row>
     <row r="103" s="9" customFormat="1" ht="15.5" spans="1:1">
       <c r="A103" s="18" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
     </row>
     <row r="104" s="9" customFormat="1" ht="15.5" spans="1:1">
       <c r="A104" s="18" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
     </row>
     <row r="105" s="9" customFormat="1" ht="15.5" spans="1:1">
       <c r="A105" s="18" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
     </row>
     <row r="106" s="7" customFormat="1" ht="15.5" spans="1:1">
       <c r="A106" s="11" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
     </row>
     <row r="107" s="7" customFormat="1" ht="15.5" spans="1:1">
       <c r="A107" s="11" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
     </row>
     <row r="108" s="9" customFormat="1" ht="15.5" spans="1:1">
       <c r="A108" s="18" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
     </row>
     <row r="109" s="9" customFormat="1" ht="15.5" spans="1:1">
       <c r="A109" s="18" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
     </row>
     <row r="110" s="9" customFormat="1" ht="15.5" spans="1:1">
       <c r="A110" s="18" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
     </row>
     <row r="111" s="9" customFormat="1" ht="15.5" spans="1:1">
       <c r="A111" s="18" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
     </row>
     <row r="112" s="9" customFormat="1" ht="15.5" spans="1:1">
       <c r="A112" s="18" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
     </row>
     <row r="113" s="9" customFormat="1" ht="15.5" spans="1:1">
       <c r="A113" s="18" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
     </row>
     <row r="114" s="9" customFormat="1" ht="15.5" spans="1:1">
       <c r="A114" s="18" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
     </row>
     <row r="115" s="9" customFormat="1" ht="15.5" spans="1:1">
       <c r="A115" s="18" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
     </row>
     <row r="116" s="9" customFormat="1" ht="15.5" spans="1:1">
       <c r="A116" s="18" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
     </row>
     <row r="117" s="9" customFormat="1" ht="15.5" spans="1:1">
       <c r="A117" s="18" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
     </row>
     <row r="118" s="9" customFormat="1" ht="15.5" spans="1:1">
       <c r="A118" s="18" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
     </row>
     <row r="119" s="9" customFormat="1" ht="15.5" spans="1:1">
       <c r="A119" s="18" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
     </row>
     <row r="120" s="9" customFormat="1" ht="15.5" spans="1:1">
       <c r="A120" s="18" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="121" s="9" customFormat="1" ht="15.5" spans="1:1">
       <c r="A121" s="18" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
     </row>
     <row r="122" s="9" customFormat="1" ht="15.5" spans="1:1">
       <c r="A122" s="18" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
     </row>
     <row r="123" s="9" customFormat="1" ht="15.5" spans="1:1">
       <c r="A123" s="18" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
     </row>
     <row r="124" s="9" customFormat="1" ht="15.5" spans="1:1">
       <c r="A124" s="18" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
     </row>
     <row r="125" s="9" customFormat="1" ht="15.5" spans="1:1">
       <c r="A125" s="18" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
     </row>
     <row r="126" s="9" customFormat="1" ht="15.5" spans="1:1">
       <c r="A126" s="18" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
     </row>
     <row r="127" s="9" customFormat="1" ht="15.5" spans="1:1">
       <c r="A127" s="18" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
     </row>
     <row r="128" s="9" customFormat="1" ht="15.5" spans="1:1">
       <c r="A128" s="18" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
     </row>
     <row r="129" s="9" customFormat="1" ht="15.5" spans="1:1">
       <c r="A129" s="18" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
     </row>
     <row r="130" s="9" customFormat="1" ht="15.5" spans="1:1">
       <c r="A130" s="18" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
     </row>
     <row r="131" s="9" customFormat="1" ht="15.5" spans="1:1">
       <c r="A131" s="18" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
     </row>
     <row r="132" s="9" customFormat="1" ht="15.5" spans="1:1">
       <c r="A132" s="18" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="133" s="9" customFormat="1" ht="15.5" spans="1:3">
-      <c r="A133" s="15" t="s">
-        <v>153</v>
+      <c r="A133" s="27" t="s">
+        <v>157</v>
       </c>
       <c r="B133" s="26" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="C133" s="26" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="134" s="9" customFormat="1" ht="15.5" spans="1:1">
       <c r="A134" s="18" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
     </row>
     <row r="135" s="9" customFormat="1" ht="15.5" spans="1:1">
       <c r="A135" s="18" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="136" s="7" customFormat="1" ht="15.5" spans="1:1">
       <c r="A136" s="11" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
     </row>
     <row r="137" s="9" customFormat="1" ht="15.5" spans="1:1">
       <c r="A137" s="18" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
     </row>
     <row r="138" s="7" customFormat="1" ht="15.5" spans="1:1">
       <c r="A138" s="11" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
     </row>
     <row r="139" s="9" customFormat="1" ht="15.5" spans="1:1">
       <c r="A139" s="18" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
     </row>
     <row r="140" s="9" customFormat="1" ht="15.5" spans="1:1">
       <c r="A140" s="18" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
     <row r="141" s="9" customFormat="1" ht="15.5" spans="1:1">
       <c r="A141" s="18" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
     </row>
     <row r="142" s="9" customFormat="1" ht="15.5" spans="1:1">
       <c r="A142" s="18" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
   </sheetData>

--- a/3.Understand/EE6222-热门考点分析.xlsx
+++ b/3.Understand/EE6222-热门考点分析.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="171">
   <si>
     <t>目录</t>
   </si>
@@ -50,6 +50,9 @@
   </si>
   <si>
     <t>21-S2</t>
+  </si>
+  <si>
+    <t>20-S2</t>
   </si>
   <si>
     <r>
@@ -96,6 +99,9 @@
     <t>Q1：均值和中值滤波器+区别</t>
   </si>
   <si>
+    <t>Q1：卷积核</t>
+  </si>
+  <si>
     <t>2.2.4 卷积特性</t>
   </si>
   <si>
@@ -103,6 +109,9 @@
   </si>
   <si>
     <t>Q3:设计卷积</t>
+  </si>
+  <si>
+    <t>Q1：输出图像公式</t>
   </si>
   <si>
     <t>2.3 二维傅里叶变换及其性质</t>
@@ -916,37 +925,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="-0.25"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="-0.25"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="-0.25"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="-0.25"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1408,7 +1417,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1454,6 +1463,9 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1475,22 +1487,22 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1804,15 +1816,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G142"/>
+  <dimension ref="A1:H142"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G1" sqref="G1"/>
+      <selection pane="bottomLeft" activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="44" customWidth="1"/>
     <col min="2" max="2" width="23" customWidth="1"/>
@@ -1820,10 +1832,10 @@
     <col min="4" max="4" width="30" customWidth="1"/>
     <col min="5" max="5" width="19.0909090909091" customWidth="1"/>
     <col min="6" max="6" width="22.6363636363636" customWidth="1"/>
-    <col min="7" max="7" width="11.9090909090909" customWidth="1"/>
+    <col min="7" max="7" width="16.9090909090909" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:7">
+    <row r="1" s="1" customFormat="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1845,786 +1857,795 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="2" s="2" customFormat="1" ht="15.5" spans="1:1">
       <c r="A2" s="10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" s="3" customFormat="1" ht="15.5" spans="1:1">
       <c r="A3" s="11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A4" s="12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A5" s="12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" s="5" customFormat="1" ht="15.5" spans="1:1">
       <c r="A6" s="12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A7" s="12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" s="3" customFormat="1" ht="15.5" spans="1:1">
       <c r="A8" s="11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A9" s="12" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A10" s="12" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" s="5" customFormat="1" ht="15.5" spans="1:4">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" s="5" customFormat="1" ht="15.5" spans="1:7">
       <c r="A11" s="13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="G11" s="14" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="12" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A12" s="12" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" s="4" customFormat="1" ht="15.5" spans="1:2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" s="4" customFormat="1" ht="15.5" spans="1:7">
       <c r="A13" s="13" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>20</v>
+        <v>22</v>
+      </c>
+      <c r="G13" s="15" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="14" s="3" customFormat="1" ht="15.5" spans="1:1">
       <c r="A14" s="11" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" s="5" customFormat="1" ht="15.5" spans="1:1">
       <c r="A15" s="12" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A16" s="12" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A17" s="12" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18" s="5" customFormat="1" ht="15.5" spans="1:1">
       <c r="A18" s="12" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A19" s="12" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A20" s="12" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="21" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A21" s="12" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="22" s="3" customFormat="1" ht="15.5" spans="1:1">
       <c r="A22" s="11" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="23" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A23" s="12" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="24" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A24" s="12" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="25" s="5" customFormat="1" ht="15.5" spans="1:1">
       <c r="A25" s="12" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="26" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A26" s="12" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="27" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A27" s="12" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="28" s="3" customFormat="1" ht="15.5" spans="1:1">
       <c r="A28" s="10" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="29" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A29" s="12" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="30" s="4" customFormat="1" ht="15.5" spans="1:6">
-      <c r="A30" s="15" t="s">
-        <v>37</v>
+      <c r="A30" s="16" t="s">
+        <v>40</v>
       </c>
       <c r="B30" s="4"/>
-      <c r="D30" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="E30" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="F30" s="16" t="s">
-        <v>40</v>
+      <c r="D30" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="E30" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="F30" s="17" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="31" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A31" s="12" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="32" s="6" customFormat="1" ht="15.5" spans="1:1">
       <c r="A32" s="12" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="33" s="7" customFormat="1" ht="15.5" spans="1:1">
       <c r="A33" s="10" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="34" s="8" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A34" s="17" t="s">
-        <v>44</v>
+      <c r="A34" s="18" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="35" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A35" s="18" t="s">
-        <v>45</v>
+      <c r="A35" s="19" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="36" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A36" s="18" t="s">
-        <v>46</v>
+      <c r="A36" s="19" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="37" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A37" s="18" t="s">
-        <v>47</v>
+      <c r="A37" s="19" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="38" s="8" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A38" s="17" t="s">
-        <v>48</v>
+      <c r="A38" s="18" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="39" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A39" s="18" t="s">
-        <v>49</v>
+      <c r="A39" s="19" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="40" s="9" customFormat="1" ht="15.5" spans="1:6">
-      <c r="A40" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="B40" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="C40" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="E40" s="20" t="s">
+      <c r="A40" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="F40" s="20" t="s">
-        <v>53</v>
+      <c r="B40" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="C40" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="E40" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="F40" s="21" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="41" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A41" s="18" t="s">
-        <v>54</v>
+      <c r="A41" s="19" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="42" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A42" s="18" t="s">
+      <c r="A42" s="19" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="43" s="9" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A43" s="19" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="44" s="9" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A44" s="19" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="45" s="9" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A45" s="19" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="46" s="9" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A46" s="19" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="47" s="9" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A47" s="19" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="48" s="9" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A48" s="19" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="49" s="9" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A49" s="19" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="50" s="9" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A50" s="19" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="51" s="9" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A51" s="19" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="52" s="9" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A52" s="19" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="53" s="8" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A53" s="18" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="54" s="9" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A54" s="19" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="55" s="9" customFormat="1" ht="15.5" spans="1:6">
+      <c r="A55" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="B55" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="C55" s="21" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="43" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A43" s="18" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="44" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A44" s="18" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="45" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A45" s="18" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="46" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A46" s="18" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="47" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A47" s="18" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="48" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A48" s="18" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="49" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A49" s="18" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="50" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A50" s="18" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="51" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A51" s="18" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="52" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A52" s="18" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="53" s="8" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A53" s="17" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="54" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A54" s="18" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="55" s="9" customFormat="1" ht="15.5" spans="1:6">
-      <c r="A55" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="B55" s="20" t="s">
-        <v>69</v>
-      </c>
-      <c r="C55" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="E55" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="F55" s="20" t="s">
-        <v>71</v>
+      <c r="E55" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="F55" s="21" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="56" s="9" customFormat="1" ht="15.5" spans="1:5">
-      <c r="A56" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="E56" s="22" t="s">
-        <v>73</v>
+      <c r="A56" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="E56" s="24" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="57" s="9" customFormat="1" ht="15.5" spans="1:6">
-      <c r="A57" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="F57" s="22" t="s">
-        <v>75</v>
+      <c r="A57" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="F57" s="24" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="58" s="7" customFormat="1" ht="15.5" spans="1:1">
       <c r="A58" s="10" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
     </row>
     <row r="59" s="7" customFormat="1" ht="15.5" spans="1:1">
       <c r="A59" s="11" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
     </row>
     <row r="60" s="7" customFormat="1" ht="15.5" spans="1:1">
       <c r="A60" s="10" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
     </row>
     <row r="61" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A61" s="18" t="s">
-        <v>79</v>
+      <c r="A61" s="19" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="62" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A62" s="18" t="s">
-        <v>80</v>
+      <c r="A62" s="19" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="63" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A63" s="18" t="s">
-        <v>81</v>
+      <c r="A63" s="19" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="64" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A64" s="18" t="s">
-        <v>82</v>
+      <c r="A64" s="19" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="65" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A65" s="18" t="s">
-        <v>83</v>
+      <c r="A65" s="19" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="66" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A66" s="18" t="s">
-        <v>84</v>
+      <c r="A66" s="19" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="67" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A67" s="23" t="s">
-        <v>85</v>
+      <c r="A67" s="25" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="68" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A68" s="23" t="s">
-        <v>86</v>
+      <c r="A68" s="25" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="69" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A69" s="23" t="s">
-        <v>87</v>
+      <c r="A69" s="25" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="70" s="7" customFormat="1" ht="15.5" spans="1:1">
       <c r="A70" s="10" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="71" s="7" customFormat="1" ht="15.5" spans="1:1">
       <c r="A71" s="11" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
     </row>
     <row r="72" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A72" s="18" t="s">
-        <v>90</v>
+      <c r="A72" s="19" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="73" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A73" s="18" t="s">
-        <v>91</v>
+      <c r="A73" s="19" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="74" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A74" s="18" t="s">
-        <v>92</v>
+      <c r="A74" s="19" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="75" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A75" s="18" t="s">
-        <v>93</v>
+      <c r="A75" s="19" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="76" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A76" s="18" t="s">
-        <v>94</v>
+      <c r="A76" s="19" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="77" s="7" customFormat="1" ht="15.5" spans="1:1">
       <c r="A77" s="11" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
     </row>
     <row r="78" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A78" s="18" t="s">
-        <v>96</v>
+      <c r="A78" s="19" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="79" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A79" s="18" t="s">
-        <v>97</v>
+      <c r="A79" s="19" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="80" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A80" s="18" t="s">
-        <v>98</v>
+      <c r="A80" s="19" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="81" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A81" s="18" t="s">
-        <v>99</v>
+      <c r="A81" s="19" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="82" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A82" s="18" t="s">
-        <v>100</v>
+      <c r="A82" s="19" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="83" s="7" customFormat="1" ht="15.5" spans="1:1">
       <c r="A83" s="11" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
     </row>
     <row r="84" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A84" s="18" t="s">
-        <v>102</v>
+      <c r="A84" s="19" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="85" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A85" s="18" t="s">
-        <v>103</v>
+      <c r="A85" s="19" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="86" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A86" s="18" t="s">
-        <v>104</v>
+      <c r="A86" s="19" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="87" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A87" s="18" t="s">
-        <v>105</v>
+      <c r="A87" s="19" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="88" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A88" s="18" t="s">
-        <v>106</v>
+      <c r="A88" s="19" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="89" s="7" customFormat="1" ht="15.5" spans="1:1">
       <c r="A89" s="11" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
     </row>
     <row r="90" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A90" s="18" t="s">
-        <v>108</v>
+      <c r="A90" s="19" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="91" s="9" customFormat="1" ht="15.5" spans="1:4">
-      <c r="A91" s="13" t="s">
-        <v>109</v>
-      </c>
-      <c r="D91" s="22" t="s">
-        <v>110</v>
+      <c r="A91" s="23" t="s">
+        <v>112</v>
+      </c>
+      <c r="D91" s="24" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="92" s="9" customFormat="1" ht="15.5" spans="1:4">
-      <c r="A92" s="13" t="s">
-        <v>111</v>
-      </c>
-      <c r="D92" s="24" t="s">
-        <v>110</v>
+      <c r="A92" s="23" t="s">
+        <v>114</v>
+      </c>
+      <c r="D92" s="26" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="93" s="9" customFormat="1" ht="15.5" spans="1:4">
-      <c r="A93" s="13" t="s">
-        <v>112</v>
-      </c>
-      <c r="D93" s="24" t="s">
-        <v>110</v>
+      <c r="A93" s="23" t="s">
+        <v>115</v>
+      </c>
+      <c r="D93" s="26" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="94" s="9" customFormat="1" ht="15.5" spans="1:4">
-      <c r="A94" s="25" t="s">
-        <v>113</v>
-      </c>
-      <c r="C94" s="26" t="s">
-        <v>114</v>
-      </c>
-      <c r="D94" s="26" t="s">
-        <v>115</v>
+      <c r="A94" s="27" t="s">
+        <v>116</v>
+      </c>
+      <c r="C94" s="28" t="s">
+        <v>117</v>
+      </c>
+      <c r="D94" s="28" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="95" s="9" customFormat="1" ht="15.5" spans="1:4">
-      <c r="A95" s="13" t="s">
-        <v>116</v>
-      </c>
-      <c r="D95" s="22" t="s">
-        <v>117</v>
+      <c r="A95" s="23" t="s">
+        <v>119</v>
+      </c>
+      <c r="D95" s="24" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="96" s="9" customFormat="1" ht="15.5" spans="1:4">
-      <c r="A96" s="27" t="s">
-        <v>118</v>
-      </c>
-      <c r="C96" s="26" t="s">
-        <v>119</v>
-      </c>
-      <c r="D96" s="26" t="s">
-        <v>120</v>
+      <c r="A96" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="C96" s="28" t="s">
+        <v>122</v>
+      </c>
+      <c r="D96" s="28" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="97" s="7" customFormat="1" ht="15.5" spans="1:1">
       <c r="A97" s="11" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
     </row>
     <row r="98" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A98" s="18" t="s">
-        <v>122</v>
+      <c r="A98" s="19" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="99" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A99" s="18" t="s">
-        <v>123</v>
+      <c r="A99" s="19" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="100" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A100" s="18" t="s">
-        <v>124</v>
+      <c r="A100" s="19" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="101" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A101" s="18" t="s">
-        <v>125</v>
+      <c r="A101" s="19" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="102" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A102" s="18" t="s">
-        <v>126</v>
+      <c r="A102" s="19" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="103" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A103" s="18" t="s">
-        <v>127</v>
+      <c r="A103" s="19" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="104" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A104" s="18" t="s">
-        <v>128</v>
+      <c r="A104" s="19" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="105" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A105" s="18" t="s">
-        <v>129</v>
+      <c r="A105" s="19" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="106" s="7" customFormat="1" ht="15.5" spans="1:1">
       <c r="A106" s="11" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
     </row>
     <row r="107" s="7" customFormat="1" ht="15.5" spans="1:1">
       <c r="A107" s="11" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
     </row>
     <row r="108" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A108" s="18" t="s">
-        <v>132</v>
+      <c r="A108" s="19" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="109" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A109" s="18" t="s">
-        <v>133</v>
+      <c r="A109" s="19" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="110" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A110" s="18" t="s">
-        <v>134</v>
+      <c r="A110" s="19" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="111" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A111" s="18" t="s">
-        <v>135</v>
+      <c r="A111" s="19" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="112" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A112" s="18" t="s">
-        <v>136</v>
+      <c r="A112" s="19" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="113" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A113" s="18" t="s">
-        <v>137</v>
+      <c r="A113" s="19" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="114" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A114" s="18" t="s">
-        <v>138</v>
+      <c r="A114" s="19" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="115" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A115" s="18" t="s">
-        <v>139</v>
+      <c r="A115" s="19" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="116" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A116" s="18" t="s">
-        <v>140</v>
+      <c r="A116" s="19" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="117" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A117" s="18" t="s">
-        <v>141</v>
+      <c r="A117" s="19" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="118" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A118" s="18" t="s">
-        <v>142</v>
+      <c r="A118" s="19" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="119" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A119" s="18" t="s">
-        <v>143</v>
+      <c r="A119" s="19" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="120" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A120" s="18" t="s">
-        <v>144</v>
+      <c r="A120" s="19" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="121" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A121" s="18" t="s">
-        <v>145</v>
+      <c r="A121" s="19" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="122" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A122" s="18" t="s">
-        <v>146</v>
+      <c r="A122" s="19" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="123" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A123" s="18" t="s">
-        <v>147</v>
+      <c r="A123" s="19" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="124" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A124" s="18" t="s">
-        <v>148</v>
+      <c r="A124" s="19" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="125" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A125" s="18" t="s">
-        <v>149</v>
+      <c r="A125" s="19" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="126" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A126" s="18" t="s">
-        <v>150</v>
+      <c r="A126" s="19" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="127" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A127" s="18" t="s">
-        <v>151</v>
+      <c r="A127" s="19" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="128" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A128" s="18" t="s">
-        <v>152</v>
+      <c r="A128" s="19" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="129" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A129" s="18" t="s">
-        <v>153</v>
+      <c r="A129" s="19" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="130" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A130" s="18" t="s">
-        <v>154</v>
+      <c r="A130" s="19" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="131" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A131" s="18" t="s">
-        <v>155</v>
+      <c r="A131" s="19" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="132" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A132" s="18" t="s">
-        <v>156</v>
+      <c r="A132" s="19" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="133" s="9" customFormat="1" ht="15.5" spans="1:3">
-      <c r="A133" s="27" t="s">
-        <v>157</v>
-      </c>
-      <c r="B133" s="26" t="s">
-        <v>158</v>
-      </c>
-      <c r="C133" s="26" t="s">
-        <v>158</v>
+      <c r="A133" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="B133" s="28" t="s">
+        <v>161</v>
+      </c>
+      <c r="C133" s="28" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="134" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A134" s="18" t="s">
-        <v>159</v>
+      <c r="A134" s="19" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="135" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A135" s="18" t="s">
-        <v>160</v>
+      <c r="A135" s="19" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="136" s="7" customFormat="1" ht="15.5" spans="1:1">
       <c r="A136" s="11" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
     </row>
     <row r="137" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A137" s="18" t="s">
-        <v>162</v>
+      <c r="A137" s="19" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="138" s="7" customFormat="1" ht="15.5" spans="1:1">
       <c r="A138" s="11" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
     </row>
     <row r="139" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A139" s="18" t="s">
-        <v>164</v>
+      <c r="A139" s="19" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="140" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A140" s="18" t="s">
-        <v>165</v>
+      <c r="A140" s="19" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="141" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A141" s="18" t="s">
-        <v>166</v>
+      <c r="A141" s="19" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="142" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A142" s="18" t="s">
-        <v>167</v>
+      <c r="A142" s="19" t="s">
+        <v>170</v>
       </c>
     </row>
   </sheetData>

--- a/3.Understand/EE6222-热门考点分析.xlsx
+++ b/3.Understand/EE6222-热门考点分析.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="173">
   <si>
     <t>目录</t>
   </si>
@@ -105,6 +105,9 @@
     <t>2.2.4 卷积特性</t>
   </si>
   <si>
+    <t>Q1：filter性质</t>
+  </si>
+  <si>
     <t>2.2.5 脉冲响应</t>
   </si>
   <si>
@@ -114,7 +117,18 @@
     <t>Q1：输出图像公式</t>
   </si>
   <si>
-    <t>2.3 二维傅里叶变换及其性质</t>
+    <r>
+      <t xml:space="preserve">2.3 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>二维傅里叶变换及其性质</t>
+    </r>
   </si>
   <si>
     <t>2.3.1 傅里叶变换及其逆变换</t>
@@ -124,6 +138,9 @@
   </si>
   <si>
     <t>2.3.3 离散傅里叶变换(DFT)</t>
+  </si>
+  <si>
+    <t>Q1：傅里叶变换</t>
   </si>
   <si>
     <t>2.3.4 离散傅里叶变换(DFT) 性质</t>
@@ -931,6 +948,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.4"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -944,12 +967,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="-0.25"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1417,7 +1434,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1463,34 +1480,37 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
@@ -1821,7 +1841,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G16" sqref="G16"/>
+      <selection pane="bottomLeft" activeCell="G12" sqref="A12 G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="7"/>
@@ -1917,735 +1937,743 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A12" s="12" t="s">
+    <row r="12" s="4" customFormat="1" ht="15.5" spans="1:7">
+      <c r="A12" s="15" t="s">
         <v>20</v>
+      </c>
+      <c r="B12" s="4"/>
+      <c r="G12" s="16" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="13" s="4" customFormat="1" ht="15.5" spans="1:7">
       <c r="A13" s="13" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="G13" s="15" t="s">
         <v>23</v>
       </c>
+      <c r="G13" s="17" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="14" s="3" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A14" s="11" t="s">
-        <v>24</v>
+      <c r="A14" s="10" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="15" s="5" customFormat="1" ht="15.5" spans="1:1">
       <c r="A15" s="12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A16" s="12" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="17" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A17" s="12" t="s">
         <v>27</v>
+      </c>
+    </row>
+    <row r="17" s="4" customFormat="1" ht="15.5" spans="1:7">
+      <c r="A17" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" s="4"/>
+      <c r="G17" s="16" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="18" s="5" customFormat="1" ht="15.5" spans="1:1">
       <c r="A18" s="12" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A19" s="12" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A20" s="12" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A21" s="12" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22" s="3" customFormat="1" ht="15.5" spans="1:1">
       <c r="A22" s="11" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A23" s="12" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A24" s="12" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25" s="5" customFormat="1" ht="15.5" spans="1:1">
       <c r="A25" s="12" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A26" s="12" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A27" s="12" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="28" s="3" customFormat="1" ht="15.5" spans="1:1">
       <c r="A28" s="10" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="29" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A29" s="12" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="30" s="4" customFormat="1" ht="15.5" spans="1:6">
-      <c r="A30" s="16" t="s">
-        <v>40</v>
+      <c r="A30" s="18" t="s">
+        <v>42</v>
       </c>
       <c r="B30" s="4"/>
-      <c r="D30" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="E30" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="F30" s="17" t="s">
+      <c r="D30" s="19" t="s">
         <v>43</v>
+      </c>
+      <c r="E30" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" s="19" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="31" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A31" s="12" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="32" s="6" customFormat="1" ht="15.5" spans="1:1">
       <c r="A32" s="12" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="33" s="7" customFormat="1" ht="15.5" spans="1:1">
       <c r="A33" s="10" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="34" s="8" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A34" s="18" t="s">
-        <v>47</v>
+      <c r="A34" s="20" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="35" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A35" s="19" t="s">
-        <v>48</v>
+      <c r="A35" s="21" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="36" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A36" s="19" t="s">
-        <v>49</v>
+      <c r="A36" s="21" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="37" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A37" s="19" t="s">
-        <v>50</v>
+      <c r="A37" s="21" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="38" s="8" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A38" s="18" t="s">
-        <v>51</v>
+      <c r="A38" s="20" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="39" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A39" s="19" t="s">
-        <v>52</v>
+      <c r="A39" s="21" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="40" s="9" customFormat="1" ht="15.5" spans="1:6">
-      <c r="A40" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="B40" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="C40" s="22" t="s">
+      <c r="A40" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="E40" s="21" t="s">
+      <c r="B40" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="F40" s="21" t="s">
-        <v>56</v>
+      <c r="C40" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="E40" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="F40" s="23" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="41" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A41" s="19" t="s">
+      <c r="A41" s="21" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="42" s="9" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A42" s="21" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="43" s="9" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A43" s="21" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="44" s="9" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A44" s="21" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="45" s="9" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A45" s="21" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="46" s="9" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A46" s="21" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="47" s="9" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A47" s="21" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="48" s="9" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A48" s="21" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="49" s="9" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A49" s="21" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="50" s="9" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A50" s="21" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="51" s="9" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A51" s="21" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="52" s="9" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A52" s="21" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="53" s="8" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A53" s="20" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="54" s="9" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A54" s="21" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="55" s="9" customFormat="1" ht="15.5" spans="1:6">
+      <c r="A55" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="B55" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="C55" s="23" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="42" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A42" s="19" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="43" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A43" s="19" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="44" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A44" s="19" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="45" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A45" s="19" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="46" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A46" s="19" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="47" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A47" s="19" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="48" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A48" s="19" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="49" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A49" s="19" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="50" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A50" s="19" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="51" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A51" s="19" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="52" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A52" s="19" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="53" s="8" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A53" s="18" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="54" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A54" s="19" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="55" s="9" customFormat="1" ht="15.5" spans="1:6">
-      <c r="A55" s="20" t="s">
-        <v>71</v>
-      </c>
-      <c r="B55" s="21" t="s">
-        <v>72</v>
-      </c>
-      <c r="C55" s="21" t="s">
-        <v>55</v>
-      </c>
-      <c r="E55" s="21" t="s">
-        <v>73</v>
-      </c>
-      <c r="F55" s="21" t="s">
-        <v>74</v>
+      <c r="E55" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="F55" s="23" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="56" s="9" customFormat="1" ht="15.5" spans="1:5">
-      <c r="A56" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="E56" s="24" t="s">
-        <v>76</v>
+      <c r="A56" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="E56" s="25" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="57" s="9" customFormat="1" ht="15.5" spans="1:6">
-      <c r="A57" s="23" t="s">
-        <v>77</v>
-      </c>
-      <c r="F57" s="24" t="s">
-        <v>78</v>
+      <c r="A57" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="F57" s="25" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="58" s="7" customFormat="1" ht="15.5" spans="1:1">
       <c r="A58" s="10" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="59" s="7" customFormat="1" ht="15.5" spans="1:1">
       <c r="A59" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="60" s="7" customFormat="1" ht="15.5" spans="1:1">
       <c r="A60" s="10" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="61" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A61" s="19" t="s">
-        <v>82</v>
+      <c r="A61" s="21" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="62" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A62" s="19" t="s">
-        <v>83</v>
+      <c r="A62" s="21" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="63" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A63" s="19" t="s">
-        <v>84</v>
+      <c r="A63" s="21" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="64" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A64" s="19" t="s">
-        <v>85</v>
+      <c r="A64" s="21" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="65" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A65" s="19" t="s">
-        <v>86</v>
+      <c r="A65" s="21" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="66" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A66" s="19" t="s">
-        <v>87</v>
+      <c r="A66" s="21" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="67" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A67" s="25" t="s">
-        <v>88</v>
+      <c r="A67" s="26" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="68" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A68" s="25" t="s">
-        <v>89</v>
+      <c r="A68" s="26" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="69" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A69" s="25" t="s">
-        <v>90</v>
+      <c r="A69" s="26" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="70" s="7" customFormat="1" ht="15.5" spans="1:1">
       <c r="A70" s="10" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="71" s="7" customFormat="1" ht="15.5" spans="1:1">
       <c r="A71" s="11" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="72" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A72" s="19" t="s">
-        <v>93</v>
+      <c r="A72" s="21" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="73" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A73" s="19" t="s">
-        <v>94</v>
+      <c r="A73" s="21" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="74" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A74" s="19" t="s">
-        <v>95</v>
+      <c r="A74" s="21" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="75" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A75" s="19" t="s">
-        <v>96</v>
+      <c r="A75" s="21" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="76" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A76" s="19" t="s">
-        <v>97</v>
+      <c r="A76" s="21" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="77" s="7" customFormat="1" ht="15.5" spans="1:1">
       <c r="A77" s="11" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="78" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A78" s="19" t="s">
-        <v>99</v>
+      <c r="A78" s="21" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="79" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A79" s="19" t="s">
-        <v>100</v>
+      <c r="A79" s="21" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="80" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A80" s="19" t="s">
-        <v>101</v>
+      <c r="A80" s="21" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="81" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A81" s="19" t="s">
-        <v>102</v>
+      <c r="A81" s="21" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="82" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A82" s="19" t="s">
-        <v>103</v>
+      <c r="A82" s="21" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="83" s="7" customFormat="1" ht="15.5" spans="1:1">
       <c r="A83" s="11" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="84" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A84" s="19" t="s">
-        <v>105</v>
+      <c r="A84" s="21" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="85" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A85" s="19" t="s">
-        <v>106</v>
+      <c r="A85" s="21" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="86" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A86" s="19" t="s">
-        <v>107</v>
+      <c r="A86" s="21" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="87" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A87" s="19" t="s">
-        <v>108</v>
+      <c r="A87" s="21" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="88" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A88" s="19" t="s">
-        <v>109</v>
+      <c r="A88" s="21" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="89" s="7" customFormat="1" ht="15.5" spans="1:1">
       <c r="A89" s="11" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="90" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A90" s="19" t="s">
-        <v>111</v>
+      <c r="A90" s="21" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="91" s="9" customFormat="1" ht="15.5" spans="1:4">
-      <c r="A91" s="23" t="s">
-        <v>112</v>
-      </c>
-      <c r="D91" s="24" t="s">
-        <v>113</v>
+      <c r="A91" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="D91" s="25" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="92" s="9" customFormat="1" ht="15.5" spans="1:4">
-      <c r="A92" s="23" t="s">
-        <v>114</v>
-      </c>
-      <c r="D92" s="26" t="s">
-        <v>113</v>
+      <c r="A92" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="D92" s="27" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="93" s="9" customFormat="1" ht="15.5" spans="1:4">
-      <c r="A93" s="23" t="s">
+      <c r="A93" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="D93" s="27" t="s">
         <v>115</v>
       </c>
-      <c r="D93" s="26" t="s">
-        <v>113</v>
-      </c>
     </row>
     <row r="94" s="9" customFormat="1" ht="15.5" spans="1:4">
-      <c r="A94" s="27" t="s">
-        <v>116</v>
-      </c>
-      <c r="C94" s="28" t="s">
-        <v>117</v>
-      </c>
-      <c r="D94" s="28" t="s">
+      <c r="A94" s="28" t="s">
         <v>118</v>
       </c>
+      <c r="C94" s="29" t="s">
+        <v>119</v>
+      </c>
+      <c r="D94" s="29" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="95" s="9" customFormat="1" ht="15.5" spans="1:4">
-      <c r="A95" s="23" t="s">
-        <v>119</v>
-      </c>
-      <c r="D95" s="24" t="s">
-        <v>120</v>
+      <c r="A95" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="D95" s="25" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="96" s="9" customFormat="1" ht="15.5" spans="1:4">
       <c r="A96" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="C96" s="28" t="s">
-        <v>122</v>
-      </c>
-      <c r="D96" s="28" t="s">
         <v>123</v>
+      </c>
+      <c r="C96" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="D96" s="29" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="97" s="7" customFormat="1" ht="15.5" spans="1:1">
       <c r="A97" s="11" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="98" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A98" s="19" t="s">
-        <v>125</v>
+      <c r="A98" s="21" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="99" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A99" s="19" t="s">
-        <v>126</v>
+      <c r="A99" s="21" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="100" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A100" s="19" t="s">
-        <v>127</v>
+      <c r="A100" s="21" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="101" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A101" s="19" t="s">
-        <v>128</v>
+      <c r="A101" s="21" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="102" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A102" s="19" t="s">
-        <v>129</v>
+      <c r="A102" s="21" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="103" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A103" s="19" t="s">
-        <v>130</v>
+      <c r="A103" s="21" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="104" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A104" s="19" t="s">
-        <v>131</v>
+      <c r="A104" s="21" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="105" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A105" s="19" t="s">
-        <v>132</v>
+      <c r="A105" s="21" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="106" s="7" customFormat="1" ht="15.5" spans="1:1">
       <c r="A106" s="11" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="107" s="7" customFormat="1" ht="15.5" spans="1:1">
       <c r="A107" s="11" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="108" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A108" s="19" t="s">
-        <v>135</v>
+      <c r="A108" s="21" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="109" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A109" s="19" t="s">
-        <v>136</v>
+      <c r="A109" s="21" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="110" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A110" s="19" t="s">
-        <v>137</v>
+      <c r="A110" s="21" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="111" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A111" s="19" t="s">
-        <v>138</v>
+      <c r="A111" s="21" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="112" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A112" s="19" t="s">
-        <v>139</v>
+      <c r="A112" s="21" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="113" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A113" s="19" t="s">
-        <v>140</v>
+      <c r="A113" s="21" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="114" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A114" s="19" t="s">
-        <v>141</v>
+      <c r="A114" s="21" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="115" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A115" s="19" t="s">
-        <v>142</v>
+      <c r="A115" s="21" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="116" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A116" s="19" t="s">
-        <v>143</v>
+      <c r="A116" s="21" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="117" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A117" s="19" t="s">
-        <v>144</v>
+      <c r="A117" s="21" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="118" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A118" s="19" t="s">
-        <v>145</v>
+      <c r="A118" s="21" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="119" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A119" s="19" t="s">
-        <v>146</v>
+      <c r="A119" s="21" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="120" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A120" s="19" t="s">
-        <v>147</v>
+      <c r="A120" s="21" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="121" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A121" s="19" t="s">
-        <v>148</v>
+      <c r="A121" s="21" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="122" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A122" s="19" t="s">
-        <v>149</v>
+      <c r="A122" s="21" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="123" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A123" s="19" t="s">
-        <v>150</v>
+      <c r="A123" s="21" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="124" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A124" s="19" t="s">
-        <v>151</v>
+      <c r="A124" s="21" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="125" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A125" s="19" t="s">
-        <v>152</v>
+      <c r="A125" s="21" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="126" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A126" s="19" t="s">
-        <v>153</v>
+      <c r="A126" s="21" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="127" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A127" s="19" t="s">
-        <v>154</v>
+      <c r="A127" s="21" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="128" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A128" s="19" t="s">
-        <v>155</v>
+      <c r="A128" s="21" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="129" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A129" s="19" t="s">
-        <v>156</v>
+      <c r="A129" s="21" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="130" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A130" s="19" t="s">
-        <v>157</v>
+      <c r="A130" s="21" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="131" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A131" s="19" t="s">
-        <v>158</v>
+      <c r="A131" s="21" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="132" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A132" s="19" t="s">
-        <v>159</v>
+      <c r="A132" s="21" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="133" s="9" customFormat="1" ht="15.5" spans="1:3">
       <c r="A133" s="13" t="s">
-        <v>160</v>
-      </c>
-      <c r="B133" s="28" t="s">
-        <v>161</v>
-      </c>
-      <c r="C133" s="28" t="s">
-        <v>161</v>
+        <v>162</v>
+      </c>
+      <c r="B133" s="29" t="s">
+        <v>163</v>
+      </c>
+      <c r="C133" s="29" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="134" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A134" s="19" t="s">
-        <v>162</v>
+      <c r="A134" s="21" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="135" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A135" s="19" t="s">
-        <v>163</v>
+      <c r="A135" s="21" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="136" s="7" customFormat="1" ht="15.5" spans="1:1">
       <c r="A136" s="11" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="137" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A137" s="19" t="s">
-        <v>165</v>
+      <c r="A137" s="21" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="138" s="7" customFormat="1" ht="15.5" spans="1:1">
       <c r="A138" s="11" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="139" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A139" s="19" t="s">
-        <v>167</v>
+      <c r="A139" s="21" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="140" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A140" s="19" t="s">
-        <v>168</v>
+      <c r="A140" s="21" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="141" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A141" s="19" t="s">
-        <v>169</v>
+      <c r="A141" s="21" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="142" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A142" s="19" t="s">
-        <v>170</v>
+      <c r="A142" s="21" t="s">
+        <v>172</v>
       </c>
     </row>
   </sheetData>

--- a/3.Understand/EE6222-热门考点分析.xlsx
+++ b/3.Understand/EE6222-热门考点分析.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="180">
   <si>
     <t>目录</t>
   </si>
@@ -55,7 +55,19 @@
     <t>20-S2</t>
   </si>
   <si>
-    <r>
+    <t>IE4476-23-S1</t>
+  </si>
+  <si>
+    <t>21-S1</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Helvetica"/>
+        <charset val="134"/>
+      </rPr>
       <t>2 LSI</t>
     </r>
     <r>
@@ -114,10 +126,16 @@
     <t>Q3:设计卷积</t>
   </si>
   <si>
-    <t>Q1：输出图像公式</t>
-  </si>
-  <si>
-    <r>
+    <t>Q1：输出图像公式 Q5设计卷积</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Helvetica"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">2.3 </t>
     </r>
     <r>
@@ -174,6 +192,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Helvetica"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">9 </t>
     </r>
     <r>
@@ -190,7 +214,18 @@
     <t>9.1 特征提取/降维介绍</t>
   </si>
   <si>
-    <t>9.2 PCA，主成分分析</t>
+    <r>
+      <t>9.2 PCA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，主成分分析</t>
+    </r>
   </si>
   <si>
     <t>Q4：Σ，λ，φ，方差，正交</t>
@@ -202,6 +237,12 @@
     <t>Q3：投影，λ，重构误差</t>
   </si>
   <si>
+    <t>Q4：μ，Σ，一维特征</t>
+  </si>
+  <si>
+    <t>Q4:Σ，Σ^-1</t>
+  </si>
+  <si>
     <t>9.3 LDA，线性判别分析</t>
   </si>
   <si>
@@ -209,6 +250,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Helvetica"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">10 </t>
     </r>
     <r>
@@ -267,7 +314,27 @@
     <t>10.2.1 人工神经网络 ANN</t>
   </si>
   <si>
-    <t>10.2.1.1 多层感知器(MLP)</t>
+    <r>
+      <t xml:space="preserve">10.2.1.1 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>多层感知器</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="0"/>
+        <rFont val="Helvetica"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(MLP)</t>
+    </r>
   </si>
   <si>
     <t>Q3：输入出 + 参数矩阵W</t>
@@ -279,6 +346,12 @@
     <t>Q4:全连接，参数数量</t>
   </si>
   <si>
+    <t>Q5:输入出 + 参数矩阵W</t>
+  </si>
+  <si>
+    <t>Q5:全连接，参数数量</t>
+  </si>
+  <si>
     <t>10.2.1.2 单层神经网络</t>
   </si>
   <si>
@@ -321,7 +394,36 @@
     <t>10.3.1 卷积网络CNN似乎与MLP不同</t>
   </si>
   <si>
-    <t>10.3.2 卷积网络CNN的特点</t>
+    <r>
+      <t xml:space="preserve">10.3.2 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>卷积网络</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="0"/>
+        <rFont val="Helvetica"/>
+        <charset val="134"/>
+      </rPr>
+      <t>CNN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的特点</t>
+    </r>
   </si>
   <si>
     <t>Q3：训练样本数量</t>
@@ -333,6 +435,9 @@
     <t>Q4：表达式，参数数量</t>
   </si>
   <si>
+    <t>Q5：输入出+参数数量</t>
+  </si>
+  <si>
     <t>10.3.3 1x1卷积</t>
   </si>
   <si>
@@ -346,6 +451,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Helvetica"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">12 </t>
     </r>
     <r>
@@ -363,6 +474,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Helvetica"/>
+        <charset val="134"/>
+      </rPr>
       <t>12.2.</t>
     </r>
     <r>
@@ -395,6 +512,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Helvetica"/>
+        <charset val="134"/>
+      </rPr>
       <t>12.2.7.StoryGAN</t>
     </r>
     <r>
@@ -418,6 +541,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Helvetica"/>
+        <charset val="134"/>
+      </rPr>
       <t>12.2.8.</t>
     </r>
     <r>
@@ -441,6 +570,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Helvetica"/>
+        <charset val="134"/>
+      </rPr>
       <t>12.2.9.Sora</t>
     </r>
     <r>
@@ -455,6 +590,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Helvetica"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">13 </t>
     </r>
     <r>
@@ -559,6 +700,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Helvetica"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">13.5.2.3 </t>
     </r>
     <r>
@@ -744,7 +891,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -763,6 +910,19 @@
       <color rgb="FF333333"/>
       <name val="Helvetica"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Helvetica"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -914,8 +1074,14 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="42">
+  <fills count="39">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -936,12 +1102,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.15"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.6"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -954,25 +1114,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="-0.25"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="-0.25"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.8"/>
+        <fgColor theme="7" tint="-0.5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="-0.5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1304,137 +1452,137 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1453,76 +1601,43 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1836,15 +1951,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H142"/>
+  <dimension ref="A1:K142"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G12" sqref="A12 G12"/>
+      <selection pane="bottomLeft" activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="44" customWidth="1"/>
     <col min="2" max="2" width="23" customWidth="1"/>
@@ -1852,10 +1967,14 @@
     <col min="4" max="4" width="30" customWidth="1"/>
     <col min="5" max="5" width="19.0909090909091" customWidth="1"/>
     <col min="6" max="6" width="22.6363636363636" customWidth="1"/>
-    <col min="7" max="7" width="16.9090909090909" customWidth="1"/>
+    <col min="7" max="7" width="26.4545454545455" customWidth="1"/>
+    <col min="8" max="8" width="14" customWidth="1"/>
+    <col min="9" max="9" width="13.6363636363636" customWidth="1"/>
+    <col min="10" max="10" width="13.0909090909091" customWidth="1"/>
+    <col min="11" max="11" width="14.0909090909091" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:8">
+    <row r="1" s="1" customFormat="1" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1880,800 +1999,826 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="2" s="2" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A2" s="10" t="s">
-        <v>8</v>
+      <c r="A2" s="7" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="3" s="3" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A3" s="11" t="s">
-        <v>9</v>
+      <c r="A3" s="7" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="4" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A4" s="12" t="s">
-        <v>10</v>
+      <c r="A4" s="8" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="5" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A5" s="12" t="s">
-        <v>11</v>
+      <c r="A5" s="8" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="6" s="5" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A6" s="12" t="s">
-        <v>12</v>
+      <c r="A6" s="8" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="7" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A7" s="12" t="s">
-        <v>13</v>
+      <c r="A7" s="8" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="8" s="3" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A8" s="11" t="s">
-        <v>14</v>
+      <c r="A8" s="7" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="9" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A9" s="12" t="s">
-        <v>15</v>
+      <c r="A9" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="10" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A10" s="12" t="s">
-        <v>16</v>
+      <c r="A10" s="8" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="11" s="5" customFormat="1" ht="15.5" spans="1:7">
-      <c r="A11" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="D11" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="G11" s="14" t="s">
+      <c r="A11" s="9" t="s">
         <v>19</v>
       </c>
+      <c r="D11" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G11" s="10" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="12" s="4" customFormat="1" ht="15.5" spans="1:7">
-      <c r="A12" s="15" t="s">
-        <v>20</v>
+      <c r="A12" s="11" t="s">
+        <v>22</v>
       </c>
       <c r="B12" s="4"/>
-      <c r="G12" s="16" t="s">
-        <v>21</v>
+      <c r="G12" s="12" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="13" s="4" customFormat="1" ht="15.5" spans="1:7">
-      <c r="A13" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="G13" s="17" t="s">
+      <c r="A13" s="9" t="s">
         <v>24</v>
       </c>
+      <c r="B13" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="G13" s="13" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="14" s="3" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A14" s="10" t="s">
-        <v>25</v>
+      <c r="A14" s="7" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="15" s="5" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A15" s="12" t="s">
-        <v>26</v>
+      <c r="A15" s="8" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="16" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A16" s="12" t="s">
-        <v>27</v>
+      <c r="A16" s="8" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="17" s="4" customFormat="1" ht="15.5" spans="1:7">
-      <c r="A17" s="15" t="s">
-        <v>28</v>
+      <c r="A17" s="11" t="s">
+        <v>30</v>
       </c>
       <c r="B17" s="4"/>
-      <c r="G17" s="16" t="s">
-        <v>29</v>
+      <c r="G17" s="12" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="18" s="5" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A18" s="12" t="s">
-        <v>30</v>
+      <c r="A18" s="8" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="19" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A19" s="12" t="s">
-        <v>31</v>
+      <c r="A19" s="8" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="20" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A20" s="12" t="s">
-        <v>32</v>
+      <c r="A20" s="8" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="21" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A21" s="12" t="s">
-        <v>33</v>
+      <c r="A21" s="8" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="22" s="3" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A22" s="11" t="s">
-        <v>34</v>
+      <c r="A22" s="7" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="23" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A23" s="12" t="s">
-        <v>35</v>
+      <c r="A23" s="8" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="24" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A24" s="12" t="s">
-        <v>36</v>
+      <c r="A24" s="8" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="25" s="5" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A25" s="12" t="s">
-        <v>37</v>
+      <c r="A25" s="8" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="26" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A26" s="12" t="s">
-        <v>38</v>
+      <c r="A26" s="8" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="27" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A27" s="12" t="s">
-        <v>39</v>
+      <c r="A27" s="8" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="28" s="3" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A28" s="10" t="s">
-        <v>40</v>
+      <c r="A28" s="7" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="29" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A29" s="12" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="30" s="4" customFormat="1" ht="15.5" spans="1:6">
-      <c r="A30" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="B30" s="4"/>
-      <c r="D30" s="19" t="s">
+      <c r="A29" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="E30" s="19" t="s">
+    </row>
+    <row r="30" s="4" customFormat="1" ht="15.5" spans="1:8">
+      <c r="A30" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="F30" s="19" t="s">
+      <c r="D30" s="15" t="s">
         <v>45</v>
       </c>
+      <c r="E30" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="F30" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="G30" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="H30" s="16" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="31" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A31" s="12" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="32" s="6" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A32" s="12" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="33" s="7" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A33" s="10" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="34" s="8" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A34" s="20" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="35" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A35" s="21" t="s">
+      <c r="A31" s="8" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="36" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A36" s="21" t="s">
+    <row r="32" s="4" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A32" s="8" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="37" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A37" s="21" t="s">
+    <row r="33" s="3" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A33" s="7" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="38" s="8" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A38" s="20" t="s">
+    <row r="34" s="3" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A34" s="7" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="39" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A39" s="21" t="s">
+    <row r="35" s="6" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A35" s="17" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="40" s="9" customFormat="1" ht="15.5" spans="1:6">
-      <c r="A40" s="22" t="s">
+    <row r="36" s="6" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A36" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="B40" s="23" t="s">
+    </row>
+    <row r="37" s="6" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A37" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="C40" s="24" t="s">
+    </row>
+    <row r="38" s="3" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A38" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="E40" s="23" t="s">
+    </row>
+    <row r="39" s="6" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A39" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="F40" s="23" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="41" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A41" s="21" t="s">
+    </row>
+    <row r="40" s="6" customFormat="1" ht="15.5" spans="1:8">
+      <c r="A40" s="14" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="42" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A42" s="21" t="s">
+      <c r="B40" s="15" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="43" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A43" s="21" t="s">
+      <c r="C40" s="15" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="44" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A44" s="21" t="s">
+      <c r="E40" s="15" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="45" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A45" s="21" t="s">
+      <c r="F40" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="G40" s="18" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="46" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A46" s="21" t="s">
+      <c r="H40" s="15" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="47" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A47" s="21" t="s">
+    <row r="41" s="6" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A41" s="17" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="48" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A48" s="21" t="s">
+    <row r="42" s="6" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A42" s="17" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="49" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A49" s="21" t="s">
+    <row r="43" s="6" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A43" s="17" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="50" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A50" s="21" t="s">
+    <row r="44" s="6" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A44" s="17" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="51" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A51" s="21" t="s">
+    <row r="45" s="6" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A45" s="17" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="52" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A52" s="21" t="s">
+    <row r="46" s="6" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A46" s="17" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="53" s="8" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A53" s="20" t="s">
+    <row r="47" s="6" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A47" s="17" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="54" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A54" s="21" t="s">
+    <row r="48" s="6" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A48" s="17" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="55" s="9" customFormat="1" ht="15.5" spans="1:6">
-      <c r="A55" s="22" t="s">
+    <row r="49" s="6" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A49" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="B55" s="23" t="s">
+    </row>
+    <row r="50" s="6" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A50" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="C55" s="23" t="s">
-        <v>57</v>
-      </c>
-      <c r="E55" s="23" t="s">
+    </row>
+    <row r="51" s="6" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A51" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="F55" s="23" t="s">
+    </row>
+    <row r="52" s="6" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A52" s="17" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="56" s="9" customFormat="1" ht="15.5" spans="1:5">
-      <c r="A56" s="15" t="s">
+    <row r="53" s="3" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A53" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="E56" s="25" t="s">
+    </row>
+    <row r="54" s="6" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A54" s="17" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="57" s="9" customFormat="1" ht="15.5" spans="1:6">
-      <c r="A57" s="15" t="s">
+    <row r="55" s="6" customFormat="1" ht="15.5" spans="1:8">
+      <c r="A55" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="F57" s="25" t="s">
+      <c r="B55" s="15" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="58" s="7" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A58" s="10" t="s">
+      <c r="C55" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="E55" s="15" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="59" s="7" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A59" s="11" t="s">
+      <c r="F55" s="15" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="60" s="7" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A60" s="10" t="s">
+      <c r="G55" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="H55" s="15" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="61" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A61" s="21" t="s">
+    <row r="56" s="6" customFormat="1" ht="15.5" spans="1:5">
+      <c r="A56" s="11" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="62" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A62" s="21" t="s">
+      <c r="E56" s="12" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="63" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A63" s="21" t="s">
+    <row r="57" s="6" customFormat="1" ht="15.5" spans="1:6">
+      <c r="A57" s="11" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="64" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A64" s="21" t="s">
+      <c r="F57" s="12" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="65" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A65" s="21" t="s">
+    <row r="58" s="3" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A58" s="7" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="66" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A66" s="21" t="s">
+    <row r="59" s="3" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A59" s="7" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="67" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A67" s="26" t="s">
+    <row r="60" s="3" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A60" s="7" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="68" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A68" s="26" t="s">
+    <row r="61" s="6" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A61" s="17" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="69" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A69" s="26" t="s">
+    <row r="62" s="6" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A62" s="17" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="70" s="7" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A70" s="10" t="s">
+    <row r="63" s="6" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A63" s="17" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="71" s="7" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A71" s="11" t="s">
+    <row r="64" s="6" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A64" s="17" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="72" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A72" s="21" t="s">
+    <row r="65" s="6" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A65" s="17" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="73" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A73" s="21" t="s">
+    <row r="66" s="6" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A66" s="17" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="74" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A74" s="21" t="s">
+    <row r="67" s="6" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A67" s="17" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="75" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A75" s="21" t="s">
+    <row r="68" s="6" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A68" s="17" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="76" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A76" s="21" t="s">
+    <row r="69" s="6" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A69" s="17" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="77" s="7" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A77" s="11" t="s">
+    <row r="70" s="3" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A70" s="7" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="78" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A78" s="21" t="s">
+    <row r="71" s="3" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A71" s="7" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="79" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A79" s="21" t="s">
+    <row r="72" s="6" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A72" s="17" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="80" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A80" s="21" t="s">
+    <row r="73" s="6" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A73" s="17" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="81" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A81" s="21" t="s">
+    <row r="74" s="6" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A74" s="17" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="82" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A82" s="21" t="s">
+    <row r="75" s="6" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A75" s="17" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="83" s="7" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A83" s="11" t="s">
+    <row r="76" s="6" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A76" s="17" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="84" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A84" s="21" t="s">
+    <row r="77" s="3" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A77" s="7" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="85" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A85" s="21" t="s">
+    <row r="78" s="6" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A78" s="17" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="86" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A86" s="21" t="s">
+    <row r="79" s="6" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A79" s="17" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="87" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A87" s="21" t="s">
+    <row r="80" s="6" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A80" s="17" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="88" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A88" s="21" t="s">
+    <row r="81" s="6" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A81" s="17" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="89" s="7" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A89" s="11" t="s">
+    <row r="82" s="6" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A82" s="17" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="90" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A90" s="21" t="s">
+    <row r="83" s="3" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A83" s="7" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="91" s="9" customFormat="1" ht="15.5" spans="1:4">
-      <c r="A91" s="15" t="s">
+    <row r="84" s="6" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A84" s="17" t="s">
         <v>114</v>
       </c>
-      <c r="D91" s="25" t="s">
+    </row>
+    <row r="85" s="6" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A85" s="17" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="92" s="9" customFormat="1" ht="15.5" spans="1:4">
-      <c r="A92" s="15" t="s">
+    <row r="86" s="6" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A86" s="17" t="s">
         <v>116</v>
       </c>
-      <c r="D92" s="27" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="93" s="9" customFormat="1" ht="15.5" spans="1:4">
-      <c r="A93" s="15" t="s">
+    </row>
+    <row r="87" s="6" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A87" s="17" t="s">
         <v>117</v>
       </c>
-      <c r="D93" s="27" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="94" s="9" customFormat="1" ht="15.5" spans="1:4">
-      <c r="A94" s="28" t="s">
+    </row>
+    <row r="88" s="6" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A88" s="17" t="s">
         <v>118</v>
       </c>
-      <c r="C94" s="29" t="s">
+    </row>
+    <row r="89" s="3" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A89" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="D94" s="29" t="s">
+    </row>
+    <row r="90" s="6" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A90" s="17" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="95" s="9" customFormat="1" ht="15.5" spans="1:4">
-      <c r="A95" s="15" t="s">
+    <row r="91" s="6" customFormat="1" ht="15.5" spans="1:4">
+      <c r="A91" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="D95" s="25" t="s">
+      <c r="D91" s="12" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="96" s="9" customFormat="1" ht="15.5" spans="1:4">
-      <c r="A96" s="13" t="s">
+    <row r="92" s="6" customFormat="1" ht="15.5" spans="1:4">
+      <c r="A92" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="C96" s="29" t="s">
+      <c r="D92" s="12" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="93" s="6" customFormat="1" ht="15.5" spans="1:4">
+      <c r="A93" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="D96" s="29" t="s">
+      <c r="D93" s="12" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="94" s="6" customFormat="1" ht="15.5" spans="1:4">
+      <c r="A94" s="9" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="97" s="7" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A97" s="11" t="s">
+      <c r="C94" s="13" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="98" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A98" s="21" t="s">
+      <c r="D94" s="13" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="99" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A99" s="21" t="s">
+    <row r="95" s="6" customFormat="1" ht="15.5" spans="1:4">
+      <c r="A95" s="11" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="100" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A100" s="21" t="s">
+      <c r="D95" s="12" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="101" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A101" s="21" t="s">
+    <row r="96" s="6" customFormat="1" ht="15.5" spans="1:4">
+      <c r="A96" s="9" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="102" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A102" s="21" t="s">
+      <c r="C96" s="13" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="103" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A103" s="21" t="s">
+      <c r="D96" s="13" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="104" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A104" s="21" t="s">
+    <row r="97" s="3" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A97" s="7" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="105" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A105" s="21" t="s">
+    <row r="98" s="6" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A98" s="17" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="106" s="7" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A106" s="11" t="s">
+    <row r="99" s="6" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A99" s="17" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="107" s="7" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A107" s="11" t="s">
+    <row r="100" s="6" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A100" s="17" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="108" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A108" s="21" t="s">
+    <row r="101" s="6" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A101" s="17" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="109" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A109" s="21" t="s">
+    <row r="102" s="6" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A102" s="17" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="110" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A110" s="21" t="s">
+    <row r="103" s="6" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A103" s="17" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="111" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A111" s="21" t="s">
+    <row r="104" s="6" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A104" s="17" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="112" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A112" s="21" t="s">
+    <row r="105" s="6" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A105" s="17" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="113" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A113" s="21" t="s">
+    <row r="106" s="3" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A106" s="7" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="114" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A114" s="21" t="s">
+    <row r="107" s="3" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A107" s="7" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="115" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A115" s="21" t="s">
+    <row r="108" s="6" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A108" s="17" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="116" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A116" s="21" t="s">
+    <row r="109" s="6" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A109" s="17" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="117" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A117" s="21" t="s">
+    <row r="110" s="6" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A110" s="17" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="118" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A118" s="21" t="s">
+    <row r="111" s="6" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A111" s="17" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="119" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A119" s="21" t="s">
+    <row r="112" s="6" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A112" s="17" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="120" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A120" s="21" t="s">
+    <row r="113" s="6" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A113" s="17" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="121" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A121" s="21" t="s">
+    <row r="114" s="6" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A114" s="17" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="122" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A122" s="21" t="s">
+    <row r="115" s="6" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A115" s="17" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="123" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A123" s="21" t="s">
+    <row r="116" s="6" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A116" s="17" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="124" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A124" s="21" t="s">
+    <row r="117" s="6" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A117" s="17" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="125" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A125" s="21" t="s">
+    <row r="118" s="6" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A118" s="17" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="126" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A126" s="21" t="s">
+    <row r="119" s="6" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A119" s="17" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="127" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A127" s="21" t="s">
+    <row r="120" s="6" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A120" s="17" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="128" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A128" s="21" t="s">
+    <row r="121" s="6" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A121" s="17" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="129" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A129" s="21" t="s">
+    <row r="122" s="6" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A122" s="17" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="130" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A130" s="21" t="s">
+    <row r="123" s="6" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A123" s="17" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="131" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A131" s="21" t="s">
+    <row r="124" s="6" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A124" s="17" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="132" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A132" s="21" t="s">
+    <row r="125" s="6" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A125" s="17" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="133" s="9" customFormat="1" ht="15.5" spans="1:3">
-      <c r="A133" s="13" t="s">
+    <row r="126" s="6" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A126" s="17" t="s">
         <v>162</v>
       </c>
-      <c r="B133" s="29" t="s">
+    </row>
+    <row r="127" s="6" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A127" s="17" t="s">
         <v>163</v>
       </c>
-      <c r="C133" s="29" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="134" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A134" s="21" t="s">
+    </row>
+    <row r="128" s="6" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A128" s="17" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="135" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A135" s="21" t="s">
+    <row r="129" s="6" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A129" s="17" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="136" s="7" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A136" s="11" t="s">
+    <row r="130" s="6" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A130" s="17" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="137" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A137" s="21" t="s">
+    <row r="131" s="6" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A131" s="17" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="138" s="7" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A138" s="11" t="s">
+    <row r="132" s="6" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A132" s="17" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="139" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A139" s="21" t="s">
+    <row r="133" s="6" customFormat="1" ht="15.5" spans="1:3">
+      <c r="A133" s="9" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="140" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A140" s="21" t="s">
+      <c r="B133" s="13" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="141" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A141" s="21" t="s">
+      <c r="C133" s="13" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="134" s="6" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A134" s="17" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="142" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A142" s="21" t="s">
+    <row r="135" s="6" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A135" s="17" t="s">
         <v>172</v>
+      </c>
+    </row>
+    <row r="136" s="3" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A136" s="7" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="137" s="6" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A137" s="17" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="138" s="3" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A138" s="7" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="139" s="6" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A139" s="17" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="140" s="6" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A140" s="17" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="141" s="6" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A141" s="17" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="142" s="6" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A142" s="17" t="s">
+        <v>179</v>
       </c>
     </row>
   </sheetData>

--- a/3.Understand/EE6222-热门考点分析.xlsx
+++ b/3.Understand/EE6222-热门考点分析.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="181">
   <si>
     <t>目录</t>
   </si>
@@ -350,6 +350,9 @@
   </si>
   <si>
     <t>Q5:全连接，参数数量</t>
+  </si>
+  <si>
+    <t>Q4:图，激活函数，梯度下降</t>
   </si>
   <si>
     <t>10.2.1.2 单层神经网络</t>
@@ -1956,20 +1959,20 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="L1" sqref="L1"/>
+      <selection pane="bottomLeft" activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="44" customWidth="1"/>
-    <col min="2" max="2" width="23" customWidth="1"/>
-    <col min="3" max="3" width="19.5454545454545" customWidth="1"/>
-    <col min="4" max="4" width="30" customWidth="1"/>
-    <col min="5" max="5" width="19.0909090909091" customWidth="1"/>
-    <col min="6" max="6" width="22.6363636363636" customWidth="1"/>
-    <col min="7" max="7" width="26.4545454545455" customWidth="1"/>
-    <col min="8" max="8" width="14" customWidth="1"/>
-    <col min="9" max="9" width="13.6363636363636" customWidth="1"/>
+    <col min="2" max="2" width="11.9090909090909" customWidth="1"/>
+    <col min="3" max="3" width="11.5454545454545" customWidth="1"/>
+    <col min="4" max="4" width="10.3636363636364" customWidth="1"/>
+    <col min="5" max="5" width="12.2727272727273" customWidth="1"/>
+    <col min="6" max="6" width="11.2727272727273" customWidth="1"/>
+    <col min="7" max="7" width="13.6363636363636" customWidth="1"/>
+    <col min="8" max="8" width="13" customWidth="1"/>
+    <col min="9" max="9" width="15.3636363636364" customWidth="1"/>
     <col min="10" max="10" width="13.0909090909091" customWidth="1"/>
     <col min="11" max="11" width="14.0909090909091" customWidth="1"/>
   </cols>
@@ -2100,12 +2103,15 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" s="4" customFormat="1" ht="15.5" spans="1:7">
-      <c r="A17" s="11" t="s">
+    <row r="17" s="4" customFormat="1" ht="15.5" spans="1:9">
+      <c r="A17" s="9" t="s">
         <v>30</v>
       </c>
       <c r="B17" s="4"/>
-      <c r="G17" s="12" t="s">
+      <c r="G17" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="I17" s="13" t="s">
         <v>31</v>
       </c>
     </row>
@@ -2234,7 +2240,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="40" s="6" customFormat="1" ht="15.5" spans="1:8">
+    <row r="40" s="6" customFormat="1" ht="15.5" spans="1:9">
       <c r="A40" s="14" t="s">
         <v>59</v>
       </c>
@@ -2256,569 +2262,572 @@
       <c r="H40" s="15" t="s">
         <v>64</v>
       </c>
+      <c r="I40" s="15" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="41" s="6" customFormat="1" ht="15.5" spans="1:1">
       <c r="A41" s="17" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="42" s="6" customFormat="1" ht="15.5" spans="1:1">
       <c r="A42" s="17" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="43" s="6" customFormat="1" ht="15.5" spans="1:1">
       <c r="A43" s="17" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="44" s="6" customFormat="1" ht="15.5" spans="1:1">
       <c r="A44" s="17" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="45" s="6" customFormat="1" ht="15.5" spans="1:1">
       <c r="A45" s="17" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="46" s="6" customFormat="1" ht="15.5" spans="1:1">
       <c r="A46" s="17" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="47" s="6" customFormat="1" ht="15.5" spans="1:1">
       <c r="A47" s="17" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="48" s="6" customFormat="1" ht="15.5" spans="1:1">
       <c r="A48" s="17" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="49" s="6" customFormat="1" ht="15.5" spans="1:1">
       <c r="A49" s="17" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="50" s="6" customFormat="1" ht="15.5" spans="1:1">
       <c r="A50" s="17" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="51" s="6" customFormat="1" ht="15.5" spans="1:1">
       <c r="A51" s="17" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="52" s="6" customFormat="1" ht="15.5" spans="1:1">
       <c r="A52" s="17" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="53" s="3" customFormat="1" ht="15.5" spans="1:1">
       <c r="A53" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="54" s="6" customFormat="1" ht="15.5" spans="1:1">
       <c r="A54" s="17" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="55" s="6" customFormat="1" ht="15.5" spans="1:8">
       <c r="A55" s="14" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B55" s="15" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C55" s="15" t="s">
         <v>61</v>
       </c>
       <c r="E55" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="F55" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="G55" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="F55" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="G55" s="15" t="s">
-        <v>80</v>
-      </c>
       <c r="H55" s="15" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="56" s="6" customFormat="1" ht="15.5" spans="1:5">
       <c r="A56" s="11" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E56" s="12" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="57" s="6" customFormat="1" ht="15.5" spans="1:6">
       <c r="A57" s="11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F57" s="12" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="58" s="3" customFormat="1" ht="15.5" spans="1:1">
       <c r="A58" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="59" s="3" customFormat="1" ht="15.5" spans="1:1">
       <c r="A59" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="60" s="3" customFormat="1" ht="15.5" spans="1:1">
       <c r="A60" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="61" s="6" customFormat="1" ht="15.5" spans="1:1">
       <c r="A61" s="17" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="62" s="6" customFormat="1" ht="15.5" spans="1:1">
       <c r="A62" s="17" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="63" s="6" customFormat="1" ht="15.5" spans="1:1">
       <c r="A63" s="17" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="64" s="6" customFormat="1" ht="15.5" spans="1:1">
       <c r="A64" s="17" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="65" s="6" customFormat="1" ht="15.5" spans="1:1">
       <c r="A65" s="17" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="66" s="6" customFormat="1" ht="15.5" spans="1:1">
       <c r="A66" s="17" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="67" s="6" customFormat="1" ht="15.5" spans="1:1">
       <c r="A67" s="17" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="68" s="6" customFormat="1" ht="15.5" spans="1:1">
       <c r="A68" s="17" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="69" s="6" customFormat="1" ht="15.5" spans="1:1">
       <c r="A69" s="17" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="70" s="3" customFormat="1" ht="15.5" spans="1:1">
       <c r="A70" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="71" s="3" customFormat="1" ht="15.5" spans="1:1">
       <c r="A71" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="72" s="6" customFormat="1" ht="15.5" spans="1:1">
       <c r="A72" s="17" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="73" s="6" customFormat="1" ht="15.5" spans="1:1">
       <c r="A73" s="17" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="74" s="6" customFormat="1" ht="15.5" spans="1:1">
       <c r="A74" s="17" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="75" s="6" customFormat="1" ht="15.5" spans="1:1">
       <c r="A75" s="17" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="76" s="6" customFormat="1" ht="15.5" spans="1:1">
       <c r="A76" s="17" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="77" s="3" customFormat="1" ht="15.5" spans="1:1">
       <c r="A77" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="78" s="6" customFormat="1" ht="15.5" spans="1:1">
       <c r="A78" s="17" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="79" s="6" customFormat="1" ht="15.5" spans="1:1">
       <c r="A79" s="17" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="80" s="6" customFormat="1" ht="15.5" spans="1:1">
       <c r="A80" s="17" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="81" s="6" customFormat="1" ht="15.5" spans="1:1">
       <c r="A81" s="17" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="82" s="6" customFormat="1" ht="15.5" spans="1:1">
       <c r="A82" s="17" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="83" s="3" customFormat="1" ht="15.5" spans="1:1">
       <c r="A83" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="84" s="6" customFormat="1" ht="15.5" spans="1:1">
       <c r="A84" s="17" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="85" s="6" customFormat="1" ht="15.5" spans="1:1">
       <c r="A85" s="17" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="86" s="6" customFormat="1" ht="15.5" spans="1:1">
       <c r="A86" s="17" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="87" s="6" customFormat="1" ht="15.5" spans="1:1">
       <c r="A87" s="17" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="88" s="6" customFormat="1" ht="15.5" spans="1:1">
       <c r="A88" s="17" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="89" s="3" customFormat="1" ht="15.5" spans="1:1">
       <c r="A89" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="90" s="6" customFormat="1" ht="15.5" spans="1:1">
       <c r="A90" s="17" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="91" s="6" customFormat="1" ht="15.5" spans="1:4">
       <c r="A91" s="11" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D91" s="12" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="92" s="6" customFormat="1" ht="15.5" spans="1:4">
       <c r="A92" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="D92" s="12" t="s">
         <v>123</v>
-      </c>
-      <c r="D92" s="12" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="93" s="6" customFormat="1" ht="15.5" spans="1:4">
       <c r="A93" s="11" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D93" s="12" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="94" s="6" customFormat="1" ht="15.5" spans="1:4">
       <c r="A94" s="9" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C94" s="13" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D94" s="13" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="95" s="6" customFormat="1" ht="15.5" spans="1:4">
       <c r="A95" s="11" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D95" s="12" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="96" s="6" customFormat="1" ht="15.5" spans="1:4">
       <c r="A96" s="9" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C96" s="13" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D96" s="13" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="97" s="3" customFormat="1" ht="15.5" spans="1:1">
       <c r="A97" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="98" s="6" customFormat="1" ht="15.5" spans="1:1">
       <c r="A98" s="17" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="99" s="6" customFormat="1" ht="15.5" spans="1:1">
       <c r="A99" s="17" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="100" s="6" customFormat="1" ht="15.5" spans="1:1">
       <c r="A100" s="17" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="101" s="6" customFormat="1" ht="15.5" spans="1:1">
       <c r="A101" s="17" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="102" s="6" customFormat="1" ht="15.5" spans="1:1">
       <c r="A102" s="17" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="103" s="6" customFormat="1" ht="15.5" spans="1:1">
       <c r="A103" s="17" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="104" s="6" customFormat="1" ht="15.5" spans="1:1">
       <c r="A104" s="17" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="105" s="6" customFormat="1" ht="15.5" spans="1:1">
       <c r="A105" s="17" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="106" s="3" customFormat="1" ht="15.5" spans="1:1">
       <c r="A106" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="107" s="3" customFormat="1" ht="15.5" spans="1:1">
       <c r="A107" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="108" s="6" customFormat="1" ht="15.5" spans="1:1">
       <c r="A108" s="17" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="109" s="6" customFormat="1" ht="15.5" spans="1:1">
       <c r="A109" s="17" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="110" s="6" customFormat="1" ht="15.5" spans="1:1">
       <c r="A110" s="17" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="111" s="6" customFormat="1" ht="15.5" spans="1:1">
       <c r="A111" s="17" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="112" s="6" customFormat="1" ht="15.5" spans="1:1">
       <c r="A112" s="17" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="113" s="6" customFormat="1" ht="15.5" spans="1:1">
       <c r="A113" s="17" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="114" s="6" customFormat="1" ht="15.5" spans="1:1">
       <c r="A114" s="17" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="115" s="6" customFormat="1" ht="15.5" spans="1:1">
       <c r="A115" s="17" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="116" s="6" customFormat="1" ht="15.5" spans="1:1">
       <c r="A116" s="17" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="117" s="6" customFormat="1" ht="15.5" spans="1:1">
       <c r="A117" s="17" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="118" s="6" customFormat="1" ht="15.5" spans="1:1">
       <c r="A118" s="17" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="119" s="6" customFormat="1" ht="15.5" spans="1:1">
       <c r="A119" s="17" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="120" s="6" customFormat="1" ht="15.5" spans="1:1">
       <c r="A120" s="17" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="121" s="6" customFormat="1" ht="15.5" spans="1:1">
       <c r="A121" s="17" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="122" s="6" customFormat="1" ht="15.5" spans="1:1">
       <c r="A122" s="17" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="123" s="6" customFormat="1" ht="15.5" spans="1:1">
       <c r="A123" s="17" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="124" s="6" customFormat="1" ht="15.5" spans="1:1">
       <c r="A124" s="17" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="125" s="6" customFormat="1" ht="15.5" spans="1:1">
       <c r="A125" s="17" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="126" s="6" customFormat="1" ht="15.5" spans="1:1">
       <c r="A126" s="17" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="127" s="6" customFormat="1" ht="15.5" spans="1:1">
       <c r="A127" s="17" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="128" s="6" customFormat="1" ht="15.5" spans="1:1">
       <c r="A128" s="17" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="129" s="6" customFormat="1" ht="15.5" spans="1:1">
       <c r="A129" s="17" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="130" s="6" customFormat="1" ht="15.5" spans="1:1">
       <c r="A130" s="17" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="131" s="6" customFormat="1" ht="15.5" spans="1:1">
       <c r="A131" s="17" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="132" s="6" customFormat="1" ht="15.5" spans="1:1">
       <c r="A132" s="17" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="133" s="6" customFormat="1" ht="15.5" spans="1:3">
       <c r="A133" s="9" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B133" s="13" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C133" s="13" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="134" s="6" customFormat="1" ht="15.5" spans="1:1">
       <c r="A134" s="17" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="135" s="6" customFormat="1" ht="15.5" spans="1:1">
       <c r="A135" s="17" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="136" s="3" customFormat="1" ht="15.5" spans="1:1">
       <c r="A136" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="137" s="6" customFormat="1" ht="15.5" spans="1:1">
       <c r="A137" s="17" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="138" s="3" customFormat="1" ht="15.5" spans="1:1">
       <c r="A138" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="139" s="6" customFormat="1" ht="15.5" spans="1:1">
       <c r="A139" s="17" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="140" s="6" customFormat="1" ht="15.5" spans="1:1">
       <c r="A140" s="17" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="141" s="6" customFormat="1" ht="15.5" spans="1:1">
       <c r="A141" s="17" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="142" s="6" customFormat="1" ht="15.5" spans="1:1">
       <c r="A142" s="17" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>

--- a/3.Understand/EE6222-热门考点分析.xlsx
+++ b/3.Understand/EE6222-热门考点分析.xlsx
@@ -1957,9 +1957,9 @@
   <dimension ref="A1:K142"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D32" sqref="D32"/>
+      <selection pane="bottomLeft" activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>

--- a/3.Understand/EE6222-热门考点分析.xlsx
+++ b/3.Understand/EE6222-热门考点分析.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="181">
   <si>
     <t>目录</t>
   </si>
@@ -1957,9 +1957,9 @@
   <dimension ref="A1:K142"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="N14" sqref="N14"/>
+      <selection pane="bottomLeft" activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -2103,7 +2103,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" s="4" customFormat="1" ht="15.5" spans="1:9">
+    <row r="17" s="4" customFormat="1" ht="15.5" spans="1:10">
       <c r="A17" s="9" t="s">
         <v>30</v>
       </c>
@@ -2112,6 +2112,9 @@
         <v>31</v>
       </c>
       <c r="I17" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="J17" s="13" t="s">
         <v>31</v>
       </c>
     </row>

--- a/3.Understand/EE6222-热门考点分析.xlsx
+++ b/3.Understand/EE6222-热门考点分析.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="184">
   <si>
     <t>目录</t>
   </si>
@@ -59,6 +59,9 @@
   </si>
   <si>
     <t>21-S1</t>
+  </si>
+  <si>
+    <t>6427-23-S1</t>
   </si>
   <si>
     <r>
@@ -129,6 +132,9 @@
     <t>Q1：输出图像公式 Q5设计卷积</t>
   </si>
   <si>
+    <t>Q1：自定义filter</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="12"/>
@@ -497,6 +503,9 @@
   </si>
   <si>
     <t>12.2.1.GANs</t>
+  </si>
+  <si>
+    <t>Q4：d,概念</t>
   </si>
   <si>
     <t>12.2.2.Conditional GANs</t>
@@ -1084,7 +1093,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="39">
+  <fills count="40">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1112,6 +1121,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="-0.25"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1461,7 +1476,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1485,16 +1500,16 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1503,89 +1518,89 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1625,22 +1640,31 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1954,30 +1978,31 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K142"/>
+  <dimension ref="A1:L142"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="J17" sqref="J17"/>
+      <selection pane="bottomLeft" activeCell="A62" sqref="A62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="44" customWidth="1"/>
-    <col min="2" max="2" width="11.9090909090909" customWidth="1"/>
-    <col min="3" max="3" width="11.5454545454545" customWidth="1"/>
-    <col min="4" max="4" width="10.3636363636364" customWidth="1"/>
+    <col min="2" max="2" width="16.4545454545455" customWidth="1"/>
+    <col min="3" max="3" width="15.1727272727273" customWidth="1"/>
+    <col min="4" max="4" width="14.7818181818182" customWidth="1"/>
     <col min="5" max="5" width="12.2727272727273" customWidth="1"/>
     <col min="6" max="6" width="11.2727272727273" customWidth="1"/>
-    <col min="7" max="7" width="13.6363636363636" customWidth="1"/>
+    <col min="7" max="7" width="13.8181818181818" customWidth="1"/>
     <col min="8" max="8" width="13" customWidth="1"/>
     <col min="9" max="9" width="15.3636363636364" customWidth="1"/>
     <col min="10" max="10" width="13.0909090909091" customWidth="1"/>
     <col min="11" max="11" width="14.0909090909091" customWidth="1"/>
+    <col min="12" max="12" width="11.5454545454545" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:11">
+    <row r="1" s="1" customFormat="1" spans="1:12">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2011,826 +2036,838 @@
       <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="2" s="2" customFormat="1" ht="15.5" spans="1:1">
       <c r="A2" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" s="3" customFormat="1" ht="15.5" spans="1:1">
       <c r="A3" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A4" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A5" s="8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" s="5" customFormat="1" ht="15.5" spans="1:1">
       <c r="A6" s="8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A7" s="8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" s="3" customFormat="1" ht="15.5" spans="1:1">
       <c r="A8" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A9" s="8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A10" s="8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" s="5" customFormat="1" ht="15.5" spans="1:7">
       <c r="A11" s="9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G11" s="10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" s="4" customFormat="1" ht="15.5" spans="1:7">
       <c r="A12" s="11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B12" s="4"/>
       <c r="G12" s="12" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" s="4" customFormat="1" ht="15.5" spans="1:7">
-      <c r="A13" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="10" t="s">
+    </row>
+    <row r="13" s="4" customFormat="1" ht="15.5" spans="1:11">
+      <c r="A13" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="G13" s="13" t="s">
+      <c r="B13" s="14" t="s">
         <v>26</v>
+      </c>
+      <c r="G13" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="J13" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="K13" s="14" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="14" s="3" customFormat="1" ht="15.5" spans="1:1">
       <c r="A14" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" s="5" customFormat="1" ht="15.5" spans="1:1">
       <c r="A15" s="8" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A16" s="8" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" s="4" customFormat="1" ht="15.5" spans="1:10">
       <c r="A17" s="9" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B17" s="4"/>
-      <c r="G17" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="I17" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="J17" s="13" t="s">
-        <v>31</v>
+      <c r="G17" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="I17" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="J17" s="16" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="18" s="5" customFormat="1" ht="15.5" spans="1:1">
       <c r="A18" s="8" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A19" s="8" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A20" s="8" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="21" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A21" s="8" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22" s="3" customFormat="1" ht="15.5" spans="1:1">
       <c r="A22" s="7" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="23" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A23" s="8" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="24" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A24" s="8" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="25" s="5" customFormat="1" ht="15.5" spans="1:1">
       <c r="A25" s="8" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="26" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A26" s="8" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="27" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A27" s="8" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="28" s="3" customFormat="1" ht="15.5" spans="1:1">
       <c r="A28" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="29" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A29" s="8" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="30" s="4" customFormat="1" ht="15.5" spans="1:8">
-      <c r="A30" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="D30" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="E30" s="15" t="s">
+      <c r="A30" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="F30" s="15" t="s">
+      <c r="D30" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="G30" s="16" t="s">
+      <c r="E30" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="H30" s="16" t="s">
+      <c r="F30" s="18" t="s">
         <v>49</v>
+      </c>
+      <c r="G30" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="H30" s="19" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="31" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A31" s="8" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="32" s="4" customFormat="1" ht="15.5" spans="1:1">
       <c r="A32" s="8" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="33" s="3" customFormat="1" ht="15.5" spans="1:1">
       <c r="A33" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="34" s="3" customFormat="1" ht="15.5" spans="1:1">
       <c r="A34" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="35" s="6" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A35" s="17" t="s">
-        <v>54</v>
+      <c r="A35" s="20" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="36" s="6" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A36" s="17" t="s">
-        <v>55</v>
+      <c r="A36" s="20" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="37" s="6" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A37" s="17" t="s">
-        <v>56</v>
+      <c r="A37" s="20" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="38" s="3" customFormat="1" ht="15.5" spans="1:1">
       <c r="A38" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="39" s="6" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A39" s="17" t="s">
-        <v>58</v>
+      <c r="A39" s="20" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="40" s="6" customFormat="1" ht="15.5" spans="1:9">
-      <c r="A40" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="B40" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="C40" s="15" t="s">
+      <c r="A40" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="E40" s="15" t="s">
+      <c r="B40" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="F40" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="G40" s="18" t="s">
+      <c r="C40" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="H40" s="15" t="s">
+      <c r="E40" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="I40" s="15" t="s">
+      <c r="F40" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="G40" s="21" t="s">
         <v>65</v>
       </c>
+      <c r="H40" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="I40" s="18" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="41" s="6" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A41" s="17" t="s">
-        <v>66</v>
+      <c r="A41" s="20" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="42" s="6" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A42" s="17" t="s">
-        <v>67</v>
+      <c r="A42" s="20" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="43" s="6" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A43" s="17" t="s">
-        <v>68</v>
+      <c r="A43" s="20" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="44" s="6" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A44" s="17" t="s">
-        <v>69</v>
+      <c r="A44" s="20" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="45" s="6" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A45" s="17" t="s">
-        <v>70</v>
+      <c r="A45" s="20" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="46" s="6" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A46" s="17" t="s">
-        <v>71</v>
+      <c r="A46" s="20" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="47" s="6" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A47" s="17" t="s">
-        <v>72</v>
+      <c r="A47" s="20" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="48" s="6" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A48" s="17" t="s">
-        <v>73</v>
+      <c r="A48" s="20" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="49" s="6" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A49" s="17" t="s">
-        <v>74</v>
+      <c r="A49" s="20" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="50" s="6" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A50" s="17" t="s">
-        <v>75</v>
+      <c r="A50" s="20" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="51" s="6" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A51" s="17" t="s">
-        <v>76</v>
+      <c r="A51" s="20" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="52" s="6" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A52" s="17" t="s">
-        <v>77</v>
+      <c r="A52" s="20" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="53" s="3" customFormat="1" ht="15.5" spans="1:1">
       <c r="A53" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="54" s="6" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A54" s="17" t="s">
-        <v>79</v>
+      <c r="A54" s="20" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="55" s="6" customFormat="1" ht="15.5" spans="1:8">
-      <c r="A55" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="B55" s="15" t="s">
-        <v>81</v>
-      </c>
-      <c r="C55" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="E55" s="15" t="s">
+      <c r="A55" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="F55" s="15" t="s">
+      <c r="B55" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="G55" s="15" t="s">
-        <v>81</v>
-      </c>
-      <c r="H55" s="15" t="s">
+      <c r="C55" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="E55" s="18" t="s">
         <v>84</v>
+      </c>
+      <c r="F55" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="G55" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="H55" s="18" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="56" s="6" customFormat="1" ht="15.5" spans="1:5">
       <c r="A56" s="11" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E56" s="12" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="57" s="6" customFormat="1" ht="15.5" spans="1:6">
       <c r="A57" s="11" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F57" s="12" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="58" s="3" customFormat="1" ht="15.5" spans="1:1">
       <c r="A58" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="59" s="3" customFormat="1" ht="15.5" spans="1:1">
       <c r="A59" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="60" s="3" customFormat="1" ht="15.5" spans="1:1">
       <c r="A60" s="7" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="61" s="6" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A61" s="17" t="s">
-        <v>92</v>
+        <v>93</v>
+      </c>
+    </row>
+    <row r="61" s="6" customFormat="1" ht="15.5" spans="1:12">
+      <c r="A61" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="L61" s="12" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="62" s="6" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A62" s="17" t="s">
-        <v>93</v>
+      <c r="A62" s="20" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="63" s="6" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A63" s="17" t="s">
-        <v>94</v>
+      <c r="A63" s="20" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="64" s="6" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A64" s="17" t="s">
-        <v>95</v>
+      <c r="A64" s="20" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="65" s="6" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A65" s="17" t="s">
-        <v>96</v>
+      <c r="A65" s="20" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="66" s="6" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A66" s="17" t="s">
-        <v>97</v>
+      <c r="A66" s="20" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="67" s="6" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A67" s="17" t="s">
-        <v>98</v>
+      <c r="A67" s="20" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="68" s="6" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A68" s="17" t="s">
-        <v>99</v>
+      <c r="A68" s="20" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="69" s="6" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A69" s="17" t="s">
-        <v>100</v>
+      <c r="A69" s="20" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="70" s="3" customFormat="1" ht="15.5" spans="1:1">
       <c r="A70" s="7" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
     </row>
     <row r="71" s="3" customFormat="1" ht="15.5" spans="1:1">
       <c r="A71" s="7" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
     </row>
     <row r="72" s="6" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A72" s="17" t="s">
-        <v>103</v>
+      <c r="A72" s="20" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="73" s="6" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A73" s="17" t="s">
-        <v>104</v>
+      <c r="A73" s="20" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="74" s="6" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A74" s="17" t="s">
-        <v>105</v>
+      <c r="A74" s="20" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="75" s="6" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A75" s="17" t="s">
-        <v>106</v>
+      <c r="A75" s="20" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="76" s="6" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A76" s="17" t="s">
-        <v>107</v>
+      <c r="A76" s="20" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="77" s="3" customFormat="1" ht="15.5" spans="1:1">
       <c r="A77" s="7" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
     </row>
     <row r="78" s="6" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A78" s="17" t="s">
-        <v>109</v>
+      <c r="A78" s="20" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="79" s="6" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A79" s="17" t="s">
-        <v>110</v>
+      <c r="A79" s="20" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="80" s="6" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A80" s="17" t="s">
-        <v>111</v>
+      <c r="A80" s="20" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="81" s="6" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A81" s="17" t="s">
-        <v>112</v>
+      <c r="A81" s="20" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="82" s="6" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A82" s="17" t="s">
-        <v>113</v>
+      <c r="A82" s="20" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="83" s="3" customFormat="1" ht="15.5" spans="1:1">
       <c r="A83" s="7" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
     </row>
     <row r="84" s="6" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A84" s="17" t="s">
-        <v>115</v>
+      <c r="A84" s="20" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="85" s="6" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A85" s="17" t="s">
-        <v>116</v>
+      <c r="A85" s="20" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="86" s="6" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A86" s="17" t="s">
-        <v>117</v>
+      <c r="A86" s="20" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="87" s="6" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A87" s="17" t="s">
-        <v>118</v>
+      <c r="A87" s="20" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="88" s="6" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A88" s="17" t="s">
-        <v>119</v>
+      <c r="A88" s="20" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="89" s="3" customFormat="1" ht="15.5" spans="1:1">
       <c r="A89" s="7" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
     </row>
     <row r="90" s="6" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A90" s="17" t="s">
-        <v>121</v>
+      <c r="A90" s="20" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="91" s="6" customFormat="1" ht="15.5" spans="1:4">
       <c r="A91" s="11" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="D91" s="12" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
     </row>
     <row r="92" s="6" customFormat="1" ht="15.5" spans="1:4">
       <c r="A92" s="11" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="D92" s="12" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
     </row>
     <row r="93" s="6" customFormat="1" ht="15.5" spans="1:4">
       <c r="A93" s="11" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="D93" s="12" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
     </row>
     <row r="94" s="6" customFormat="1" ht="15.5" spans="1:4">
       <c r="A94" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="C94" s="13" t="s">
-        <v>127</v>
-      </c>
-      <c r="D94" s="13" t="s">
-        <v>128</v>
+        <v>129</v>
+      </c>
+      <c r="C94" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="D94" s="16" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="95" s="6" customFormat="1" ht="15.5" spans="1:4">
       <c r="A95" s="11" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="D95" s="12" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
     </row>
     <row r="96" s="6" customFormat="1" ht="15.5" spans="1:4">
       <c r="A96" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="C96" s="13" t="s">
-        <v>132</v>
-      </c>
-      <c r="D96" s="13" t="s">
-        <v>133</v>
+        <v>134</v>
+      </c>
+      <c r="C96" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="D96" s="16" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="97" s="3" customFormat="1" ht="15.5" spans="1:1">
       <c r="A97" s="7" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
     </row>
     <row r="98" s="6" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A98" s="17" t="s">
-        <v>135</v>
+      <c r="A98" s="20" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="99" s="6" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A99" s="17" t="s">
-        <v>136</v>
+      <c r="A99" s="20" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="100" s="6" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A100" s="17" t="s">
-        <v>137</v>
+      <c r="A100" s="20" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="101" s="6" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A101" s="17" t="s">
-        <v>138</v>
+      <c r="A101" s="20" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="102" s="6" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A102" s="17" t="s">
-        <v>139</v>
+      <c r="A102" s="20" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="103" s="6" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A103" s="17" t="s">
-        <v>140</v>
+      <c r="A103" s="20" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="104" s="6" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A104" s="17" t="s">
-        <v>141</v>
+      <c r="A104" s="20" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="105" s="6" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A105" s="17" t="s">
-        <v>142</v>
+      <c r="A105" s="20" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="106" s="3" customFormat="1" ht="15.5" spans="1:1">
       <c r="A106" s="7" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
     </row>
     <row r="107" s="3" customFormat="1" ht="15.5" spans="1:1">
       <c r="A107" s="7" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
     </row>
     <row r="108" s="6" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A108" s="17" t="s">
-        <v>145</v>
+      <c r="A108" s="20" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="109" s="6" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A109" s="17" t="s">
-        <v>146</v>
+      <c r="A109" s="20" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="110" s="6" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A110" s="17" t="s">
-        <v>147</v>
+      <c r="A110" s="20" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="111" s="6" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A111" s="17" t="s">
-        <v>148</v>
+      <c r="A111" s="20" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="112" s="6" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A112" s="17" t="s">
-        <v>149</v>
+      <c r="A112" s="20" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="113" s="6" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A113" s="17" t="s">
-        <v>150</v>
+      <c r="A113" s="20" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="114" s="6" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A114" s="17" t="s">
-        <v>151</v>
+      <c r="A114" s="20" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="115" s="6" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A115" s="17" t="s">
-        <v>152</v>
+      <c r="A115" s="20" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="116" s="6" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A116" s="17" t="s">
-        <v>153</v>
+      <c r="A116" s="20" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="117" s="6" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A117" s="17" t="s">
-        <v>154</v>
+      <c r="A117" s="20" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="118" s="6" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A118" s="17" t="s">
-        <v>155</v>
+      <c r="A118" s="20" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="119" s="6" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A119" s="17" t="s">
-        <v>156</v>
+      <c r="A119" s="20" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="120" s="6" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A120" s="17" t="s">
-        <v>157</v>
+      <c r="A120" s="20" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="121" s="6" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A121" s="17" t="s">
-        <v>158</v>
+      <c r="A121" s="20" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="122" s="6" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A122" s="17" t="s">
-        <v>159</v>
+      <c r="A122" s="20" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="123" s="6" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A123" s="17" t="s">
-        <v>160</v>
+      <c r="A123" s="20" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="124" s="6" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A124" s="17" t="s">
-        <v>161</v>
+      <c r="A124" s="20" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="125" s="6" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A125" s="17" t="s">
-        <v>162</v>
+      <c r="A125" s="20" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="126" s="6" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A126" s="17" t="s">
-        <v>163</v>
+      <c r="A126" s="20" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="127" s="6" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A127" s="17" t="s">
-        <v>164</v>
+      <c r="A127" s="20" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="128" s="6" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A128" s="17" t="s">
-        <v>165</v>
+      <c r="A128" s="20" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="129" s="6" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A129" s="17" t="s">
-        <v>166</v>
+      <c r="A129" s="20" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="130" s="6" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A130" s="17" t="s">
-        <v>167</v>
+      <c r="A130" s="20" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="131" s="6" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A131" s="17" t="s">
-        <v>168</v>
+      <c r="A131" s="20" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="132" s="6" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A132" s="17" t="s">
-        <v>169</v>
+      <c r="A132" s="20" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="133" s="6" customFormat="1" ht="15.5" spans="1:3">
       <c r="A133" s="9" t="s">
-        <v>170</v>
-      </c>
-      <c r="B133" s="13" t="s">
-        <v>171</v>
-      </c>
-      <c r="C133" s="13" t="s">
-        <v>171</v>
+        <v>173</v>
+      </c>
+      <c r="B133" s="16" t="s">
+        <v>174</v>
+      </c>
+      <c r="C133" s="16" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="134" s="6" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A134" s="17" t="s">
-        <v>172</v>
+      <c r="A134" s="20" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="135" s="6" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A135" s="17" t="s">
-        <v>173</v>
+      <c r="A135" s="20" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="136" s="3" customFormat="1" ht="15.5" spans="1:1">
       <c r="A136" s="7" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
     </row>
     <row r="137" s="6" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A137" s="17" t="s">
-        <v>175</v>
+      <c r="A137" s="20" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="138" s="3" customFormat="1" ht="15.5" spans="1:1">
       <c r="A138" s="7" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
     </row>
     <row r="139" s="6" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A139" s="17" t="s">
-        <v>177</v>
+      <c r="A139" s="20" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="140" s="6" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A140" s="17" t="s">
-        <v>178</v>
+      <c r="A140" s="20" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="141" s="6" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A141" s="17" t="s">
-        <v>179</v>
+      <c r="A141" s="20" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="142" s="6" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A142" s="17" t="s">
-        <v>180</v>
+      <c r="A142" s="20" t="s">
+        <v>183</v>
       </c>
     </row>
   </sheetData>
